--- a/data/134/DEUSTATIS/New orders (value and volume index) in the main construction industry - 2001.xlsx
+++ b/data/134/DEUSTATIS/New orders (value and volume index) in the main construction industry - 2001.xlsx
@@ -175,7 +175,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 10:59:28</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:36:14</t>
   </si>
 </sst>
 </file>
@@ -31886,13 +31886,13 @@
         <v>91.4</v>
       </c>
       <c r="G79" t="n" s="10">
-        <v>95.6</v>
+        <v>95.5</v>
       </c>
       <c r="H79" t="n" s="10">
-        <v>98.4</v>
+        <v>98.5</v>
       </c>
       <c r="I79" t="n" s="10">
-        <v>99.2</v>
+        <v>99.1</v>
       </c>
       <c r="J79" t="n" s="10">
         <v>93.7</v>
@@ -31901,7 +31901,7 @@
         <v>97.0</v>
       </c>
       <c r="L79" t="n" s="10">
-        <v>91.7</v>
+        <v>91.6</v>
       </c>
       <c r="M79" t="n" s="10">
         <v>93.0</v>
@@ -31916,10 +31916,10 @@
         <v>90.6</v>
       </c>
       <c r="Q79" t="n" s="10">
-        <v>91.8</v>
+        <v>91.7</v>
       </c>
       <c r="R79" t="n" s="10">
-        <v>96.6</v>
+        <v>96.5</v>
       </c>
       <c r="S79" t="n" s="10">
         <v>91.0</v>
@@ -31934,7 +31934,7 @@
         <v>87.1</v>
       </c>
       <c r="W79" t="n" s="10">
-        <v>86.0</v>
+        <v>85.9</v>
       </c>
       <c r="X79" t="n" s="10">
         <v>88.3</v>
@@ -31943,7 +31943,7 @@
         <v>84.7</v>
       </c>
       <c r="Z79" t="n" s="10">
-        <v>84.4</v>
+        <v>84.3</v>
       </c>
       <c r="AA79" t="n" s="10">
         <v>86.4</v>
@@ -31973,13 +31973,13 @@
         <v>78.4</v>
       </c>
       <c r="AJ79" t="n" s="10">
-        <v>77.4</v>
+        <v>77.5</v>
       </c>
       <c r="AK79" t="n" s="10">
-        <v>78.3</v>
+        <v>78.4</v>
       </c>
       <c r="AL79" t="n" s="10">
-        <v>78.9</v>
+        <v>78.8</v>
       </c>
       <c r="AM79" t="n" s="10">
         <v>75.0</v>
@@ -31991,7 +31991,7 @@
         <v>80.2</v>
       </c>
       <c r="AP79" t="n" s="10">
-        <v>74.9</v>
+        <v>75.0</v>
       </c>
       <c r="AQ79" t="n" s="10">
         <v>75.8</v>
@@ -32015,10 +32015,10 @@
         <v>72.9</v>
       </c>
       <c r="AX79" t="n" s="10">
-        <v>70.1</v>
+        <v>70.2</v>
       </c>
       <c r="AY79" t="n" s="10">
-        <v>71.3</v>
+        <v>71.4</v>
       </c>
       <c r="AZ79" t="n" s="10">
         <v>71.5</v>
@@ -32030,16 +32030,16 @@
         <v>72.5</v>
       </c>
       <c r="BC79" t="n" s="10">
-        <v>69.9</v>
+        <v>70.0</v>
       </c>
       <c r="BD79" t="n" s="10">
         <v>72.9</v>
       </c>
       <c r="BE79" t="n" s="10">
-        <v>72.5</v>
+        <v>72.6</v>
       </c>
       <c r="BF79" t="n" s="10">
-        <v>73.7</v>
+        <v>73.6</v>
       </c>
       <c r="BG79" t="n" s="10">
         <v>75.6</v>
@@ -32060,7 +32060,7 @@
         <v>74.5</v>
       </c>
       <c r="BM79" t="n" s="10">
-        <v>77.1</v>
+        <v>77.2</v>
       </c>
       <c r="BN79" t="n" s="10">
         <v>75.0</v>
@@ -32069,7 +32069,7 @@
         <v>78.0</v>
       </c>
       <c r="BP79" t="n" s="10">
-        <v>78.7</v>
+        <v>78.8</v>
       </c>
       <c r="BQ79" t="n" s="10">
         <v>78.7</v>
@@ -32099,7 +32099,7 @@
         <v>82.5</v>
       </c>
       <c r="BZ79" t="n" s="10">
-        <v>84.3</v>
+        <v>84.4</v>
       </c>
       <c r="CA79" t="n" s="10">
         <v>83.4</v>
@@ -32117,7 +32117,7 @@
         <v>82.3</v>
       </c>
       <c r="CF79" t="n" s="10">
-        <v>82.5</v>
+        <v>82.4</v>
       </c>
       <c r="CG79" t="n" s="10">
         <v>91.9</v>
@@ -32126,7 +32126,7 @@
         <v>86.7</v>
       </c>
       <c r="CI79" t="n" s="10">
-        <v>87.0</v>
+        <v>86.9</v>
       </c>
       <c r="CJ79" t="n" s="10">
         <v>88.8</v>
@@ -32135,16 +32135,16 @@
         <v>85.7</v>
       </c>
       <c r="CL79" t="n" s="10">
-        <v>86.2</v>
+        <v>86.0</v>
       </c>
       <c r="CM79" t="n" s="10">
-        <v>85.0</v>
+        <v>85.1</v>
       </c>
       <c r="CN79" t="n" s="10">
-        <v>83.5</v>
+        <v>83.4</v>
       </c>
       <c r="CO79" t="n" s="10">
-        <v>84.8</v>
+        <v>84.9</v>
       </c>
       <c r="CP79" t="n" s="10">
         <v>85.7</v>
@@ -32153,16 +32153,16 @@
         <v>82.1</v>
       </c>
       <c r="CR79" t="n" s="10">
-        <v>84.4</v>
+        <v>84.5</v>
       </c>
       <c r="CS79" t="n" s="10">
         <v>77.9</v>
       </c>
       <c r="CT79" t="n" s="10">
-        <v>80.1</v>
+        <v>80.0</v>
       </c>
       <c r="CU79" t="n" s="10">
-        <v>78.6</v>
+        <v>78.7</v>
       </c>
       <c r="CV79" t="n" s="10">
         <v>78.6</v>
@@ -32171,7 +32171,7 @@
         <v>76.4</v>
       </c>
       <c r="CX79" t="n" s="10">
-        <v>75.7</v>
+        <v>75.8</v>
       </c>
       <c r="CY79" t="n" s="10">
         <v>79.2</v>
@@ -32180,7 +32180,7 @@
         <v>79.9</v>
       </c>
       <c r="DA79" t="n" s="10">
-        <v>79.8</v>
+        <v>79.7</v>
       </c>
       <c r="DB79" t="n" s="10">
         <v>78.8</v>
@@ -32210,13 +32210,13 @@
         <v>82.3</v>
       </c>
       <c r="DK79" t="n" s="10">
-        <v>79.4</v>
+        <v>79.5</v>
       </c>
       <c r="DL79" t="n" s="10">
         <v>78.6</v>
       </c>
       <c r="DM79" t="n" s="10">
-        <v>79.6</v>
+        <v>79.7</v>
       </c>
       <c r="DN79" t="n" s="10">
         <v>78.9</v>
@@ -32231,10 +32231,10 @@
         <v>83.9</v>
       </c>
       <c r="DR79" t="n" s="10">
-        <v>80.6</v>
+        <v>80.7</v>
       </c>
       <c r="DS79" t="n" s="10">
-        <v>78.4</v>
+        <v>78.5</v>
       </c>
       <c r="DT79" t="n" s="10">
         <v>82.8</v>
@@ -32249,7 +32249,7 @@
         <v>84.2</v>
       </c>
       <c r="DX79" t="n" s="10">
-        <v>87.2</v>
+        <v>87.3</v>
       </c>
       <c r="DY79" t="n" s="10">
         <v>85.5</v>
@@ -32281,31 +32281,31 @@
         <v>34</v>
       </c>
       <c r="D80" t="n" s="10">
-        <v>121.6</v>
+        <v>121.4</v>
       </c>
       <c r="E80" t="n" s="10">
-        <v>119.6</v>
+        <v>119.4</v>
       </c>
       <c r="F80" t="n" s="10">
-        <v>114.8</v>
+        <v>116.6</v>
       </c>
       <c r="G80" t="n" s="10">
-        <v>120.0</v>
+        <v>119.7</v>
       </c>
       <c r="H80" t="n" s="10">
-        <v>123.9</v>
+        <v>123.7</v>
       </c>
       <c r="I80" t="n" s="10">
-        <v>124.7</v>
+        <v>124.5</v>
       </c>
       <c r="J80" t="n" s="10">
-        <v>118.0</v>
+        <v>117.8</v>
       </c>
       <c r="K80" t="n" s="10">
-        <v>122.3</v>
+        <v>122.2</v>
       </c>
       <c r="L80" t="n" s="10">
-        <v>115.5</v>
+        <v>115.4</v>
       </c>
       <c r="M80" t="n" s="10">
         <v>117.3</v>
@@ -32314,7 +32314,7 @@
         <v>117.2</v>
       </c>
       <c r="O80" t="n" s="10">
-        <v>112.2</v>
+        <v>112.1</v>
       </c>
       <c r="P80" t="n" s="10">
         <v>114.7</v>
@@ -32323,13 +32323,13 @@
         <v>116.0</v>
       </c>
       <c r="R80" t="n" s="10">
-        <v>122.2</v>
+        <v>122.1</v>
       </c>
       <c r="S80" t="n" s="10">
-        <v>115.4</v>
+        <v>115.5</v>
       </c>
       <c r="T80" t="n" s="10">
-        <v>110.6</v>
+        <v>110.5</v>
       </c>
       <c r="U80" t="n" s="10">
         <v>110.9</v>
@@ -32341,13 +32341,13 @@
         <v>108.9</v>
       </c>
       <c r="X80" t="n" s="10">
-        <v>112.0</v>
+        <v>111.9</v>
       </c>
       <c r="Y80" t="n" s="10">
         <v>107.5</v>
       </c>
       <c r="Z80" t="n" s="10">
-        <v>106.9</v>
+        <v>106.8</v>
       </c>
       <c r="AA80" t="n" s="10">
         <v>109.5</v>
@@ -32356,25 +32356,25 @@
         <v>104.5</v>
       </c>
       <c r="AC80" t="n" s="10">
-        <v>101.4</v>
+        <v>101.3</v>
       </c>
       <c r="AD80" t="n" s="10">
-        <v>98.7</v>
+        <v>98.6</v>
       </c>
       <c r="AE80" t="n" s="10">
-        <v>100.8</v>
+        <v>100.7</v>
       </c>
       <c r="AF80" t="n" s="10">
-        <v>101.9</v>
+        <v>102.0</v>
       </c>
       <c r="AG80" t="n" s="10">
-        <v>100.2</v>
+        <v>100.0</v>
       </c>
       <c r="AH80" t="n" s="10">
         <v>104.4</v>
       </c>
       <c r="AI80" t="n" s="10">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="AJ80" t="n" s="10">
         <v>98.7</v>
@@ -32383,10 +32383,10 @@
         <v>99.6</v>
       </c>
       <c r="AL80" t="n" s="10">
-        <v>100.1</v>
+        <v>100.0</v>
       </c>
       <c r="AM80" t="n" s="10">
-        <v>95.4</v>
+        <v>95.3</v>
       </c>
       <c r="AN80" t="n" s="10">
         <v>98.4</v>
@@ -32395,7 +32395,7 @@
         <v>101.6</v>
       </c>
       <c r="AP80" t="n" s="10">
-        <v>95.2</v>
+        <v>95.4</v>
       </c>
       <c r="AQ80" t="n" s="10">
         <v>96.0</v>
@@ -32404,7 +32404,7 @@
         <v>91.6</v>
       </c>
       <c r="AS80" t="n" s="10">
-        <v>93.2</v>
+        <v>93.3</v>
       </c>
       <c r="AT80" t="n" s="10">
         <v>89.1</v>
@@ -32419,10 +32419,10 @@
         <v>91.0</v>
       </c>
       <c r="AX80" t="n" s="10">
-        <v>87.6</v>
+        <v>87.7</v>
       </c>
       <c r="AY80" t="n" s="10">
-        <v>89.0</v>
+        <v>89.1</v>
       </c>
       <c r="AZ80" t="n" s="10">
         <v>89.0</v>
@@ -32431,16 +32431,16 @@
         <v>85.3</v>
       </c>
       <c r="BB80" t="n" s="10">
-        <v>89.7</v>
+        <v>89.6</v>
       </c>
       <c r="BC80" t="n" s="10">
-        <v>86.8</v>
+        <v>87.0</v>
       </c>
       <c r="BD80" t="n" s="10">
         <v>90.7</v>
       </c>
       <c r="BE80" t="n" s="10">
-        <v>90.3</v>
+        <v>90.4</v>
       </c>
       <c r="BF80" t="n" s="10">
         <v>91.4</v>
@@ -32461,25 +32461,25 @@
         <v>96.5</v>
       </c>
       <c r="BL80" t="n" s="10">
-        <v>91.7</v>
+        <v>91.8</v>
       </c>
       <c r="BM80" t="n" s="10">
         <v>94.7</v>
       </c>
       <c r="BN80" t="n" s="10">
-        <v>92.3</v>
+        <v>92.4</v>
       </c>
       <c r="BO80" t="n" s="10">
-        <v>95.4</v>
+        <v>95.3</v>
       </c>
       <c r="BP80" t="n" s="10">
-        <v>96.0</v>
+        <v>96.1</v>
       </c>
       <c r="BQ80" t="n" s="10">
-        <v>95.7</v>
+        <v>95.6</v>
       </c>
       <c r="BR80" t="n" s="10">
-        <v>95.1</v>
+        <v>95.0</v>
       </c>
       <c r="BS80" t="n" s="10">
         <v>95.4</v>
@@ -32503,10 +32503,10 @@
         <v>96.9</v>
       </c>
       <c r="BZ80" t="n" s="10">
-        <v>98.4</v>
+        <v>98.5</v>
       </c>
       <c r="CA80" t="n" s="10">
-        <v>97.1</v>
+        <v>97.0</v>
       </c>
       <c r="CB80" t="n" s="10">
         <v>96.8</v>
@@ -32521,28 +32521,28 @@
         <v>95.0</v>
       </c>
       <c r="CF80" t="n" s="10">
-        <v>95.1</v>
+        <v>95.0</v>
       </c>
       <c r="CG80" t="n" s="10">
-        <v>114.0</v>
+        <v>114.1</v>
       </c>
       <c r="CH80" t="n" s="10">
+        <v>99.2</v>
+      </c>
+      <c r="CI80" t="n" s="10">
         <v>99.1</v>
       </c>
-      <c r="CI80" t="n" s="10">
-        <v>99.2</v>
-      </c>
       <c r="CJ80" t="n" s="10">
-        <v>100.9</v>
+        <v>101.0</v>
       </c>
       <c r="CK80" t="n" s="10">
         <v>96.9</v>
       </c>
       <c r="CL80" t="n" s="10">
-        <v>97.3</v>
+        <v>97.1</v>
       </c>
       <c r="CM80" t="n" s="10">
-        <v>95.8</v>
+        <v>95.9</v>
       </c>
       <c r="CN80" t="n" s="10">
         <v>93.3</v>
@@ -32554,16 +32554,16 @@
         <v>95.7</v>
       </c>
       <c r="CQ80" t="n" s="10">
-        <v>90.8</v>
+        <v>90.7</v>
       </c>
       <c r="CR80" t="n" s="10">
-        <v>92.9</v>
+        <v>93.0</v>
       </c>
       <c r="CS80" t="n" s="10">
         <v>89.7</v>
       </c>
       <c r="CT80" t="n" s="10">
-        <v>88.3</v>
+        <v>88.2</v>
       </c>
       <c r="CU80" t="n" s="10">
         <v>86.5</v>
@@ -32572,19 +32572,19 @@
         <v>86.5</v>
       </c>
       <c r="CW80" t="n" s="10">
-        <v>84.3</v>
+        <v>84.2</v>
       </c>
       <c r="CX80" t="n" s="10">
         <v>83.0</v>
       </c>
       <c r="CY80" t="n" s="10">
-        <v>87.0</v>
+        <v>86.9</v>
       </c>
       <c r="CZ80" t="n" s="10">
         <v>88.4</v>
       </c>
       <c r="DA80" t="n" s="10">
-        <v>88.3</v>
+        <v>88.2</v>
       </c>
       <c r="DB80" t="n" s="10">
         <v>87.0</v>
@@ -32596,7 +32596,7 @@
         <v>87.9</v>
       </c>
       <c r="DE80" t="n" s="10">
-        <v>88.4</v>
+        <v>88.5</v>
       </c>
       <c r="DF80" t="n" s="10">
         <v>89.0</v>
@@ -32611,22 +32611,22 @@
         <v>91.6</v>
       </c>
       <c r="DJ80" t="n" s="10">
-        <v>91.3</v>
+        <v>91.4</v>
       </c>
       <c r="DK80" t="n" s="10">
-        <v>87.9</v>
+        <v>88.0</v>
       </c>
       <c r="DL80" t="n" s="10">
+        <v>86.6</v>
+      </c>
+      <c r="DM80" t="n" s="10">
+        <v>87.6</v>
+      </c>
+      <c r="DN80" t="n" s="10">
         <v>86.7</v>
       </c>
-      <c r="DM80" t="n" s="10">
-        <v>87.5</v>
-      </c>
-      <c r="DN80" t="n" s="10">
-        <v>86.6</v>
-      </c>
       <c r="DO80" t="n" s="10">
-        <v>88.4</v>
+        <v>88.5</v>
       </c>
       <c r="DP80" t="n" s="10">
         <v>89.1</v>
@@ -32638,34 +32638,34 @@
         <v>87.7</v>
       </c>
       <c r="DS80" t="n" s="10">
-        <v>85.0</v>
+        <v>85.1</v>
       </c>
       <c r="DT80" t="n" s="10">
-        <v>89.7</v>
+        <v>89.8</v>
       </c>
       <c r="DU80" t="n" s="10">
         <v>89.8</v>
       </c>
       <c r="DV80" t="n" s="10">
-        <v>89.4</v>
+        <v>89.5</v>
       </c>
       <c r="DW80" t="n" s="10">
         <v>90.4</v>
       </c>
       <c r="DX80" t="n" s="10">
-        <v>93.3</v>
+        <v>93.5</v>
       </c>
       <c r="DY80" t="n" s="10">
         <v>91.5</v>
       </c>
       <c r="DZ80" t="n" s="10">
-        <v>94.4</v>
+        <v>94.3</v>
       </c>
       <c r="EA80" t="n" s="10">
         <v>90.1</v>
       </c>
       <c r="EB80" t="n" s="10">
-        <v>92.3</v>
+        <v>92.4</v>
       </c>
       <c r="EC80" t="n" s="10">
         <v>92.1</v>
@@ -32674,7 +32674,7 @@
         <v>96.8</v>
       </c>
       <c r="EE80" t="n" s="10">
-        <v>96.1</v>
+        <v>96.2</v>
       </c>
     </row>
     <row r="81">
@@ -32703,16 +32703,16 @@
         <v>102.5</v>
       </c>
       <c r="I81" t="n" s="10">
-        <v>104.8</v>
+        <v>104.7</v>
       </c>
       <c r="J81" t="n" s="10">
         <v>98.3</v>
       </c>
       <c r="K81" t="n" s="10">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="L81" t="n" s="10">
-        <v>96.0</v>
+        <v>95.9</v>
       </c>
       <c r="M81" t="n" s="10">
         <v>97.6</v>
@@ -32721,7 +32721,7 @@
         <v>95.2</v>
       </c>
       <c r="O81" t="n" s="10">
-        <v>88.7</v>
+        <v>88.6</v>
       </c>
       <c r="P81" t="n" s="10">
         <v>89.4</v>
@@ -32730,13 +32730,13 @@
         <v>92.9</v>
       </c>
       <c r="R81" t="n" s="10">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="S81" t="n" s="10">
-        <v>88.1</v>
+        <v>88.2</v>
       </c>
       <c r="T81" t="n" s="10">
-        <v>87.0</v>
+        <v>86.9</v>
       </c>
       <c r="U81" t="n" s="10">
         <v>86.2</v>
@@ -32766,22 +32766,22 @@
         <v>75.0</v>
       </c>
       <c r="AD81" t="n" s="10">
-        <v>73.1</v>
+        <v>73.0</v>
       </c>
       <c r="AE81" t="n" s="10">
-        <v>77.7</v>
+        <v>77.6</v>
       </c>
       <c r="AF81" t="n" s="10">
-        <v>76.3</v>
+        <v>76.4</v>
       </c>
       <c r="AG81" t="n" s="10">
-        <v>74.5</v>
+        <v>74.4</v>
       </c>
       <c r="AH81" t="n" s="10">
-        <v>77.0</v>
+        <v>77.1</v>
       </c>
       <c r="AI81" t="n" s="10">
-        <v>76.1</v>
+        <v>76.0</v>
       </c>
       <c r="AJ81" t="n" s="10">
         <v>75.2</v>
@@ -32790,10 +32790,10 @@
         <v>76.5</v>
       </c>
       <c r="AL81" t="n" s="10">
-        <v>77.6</v>
+        <v>77.5</v>
       </c>
       <c r="AM81" t="n" s="10">
-        <v>70.3</v>
+        <v>70.2</v>
       </c>
       <c r="AN81" t="n" s="10">
         <v>76.1</v>
@@ -32802,7 +32802,7 @@
         <v>80.7</v>
       </c>
       <c r="AP81" t="n" s="10">
-        <v>68.6</v>
+        <v>68.7</v>
       </c>
       <c r="AQ81" t="n" s="10">
         <v>72.1</v>
@@ -32811,10 +32811,10 @@
         <v>69.7</v>
       </c>
       <c r="AS81" t="n" s="10">
-        <v>71.0</v>
+        <v>71.1</v>
       </c>
       <c r="AT81" t="n" s="10">
-        <v>70.2</v>
+        <v>70.3</v>
       </c>
       <c r="AU81" t="n" s="10">
         <v>71.8</v>
@@ -32826,10 +32826,10 @@
         <v>70.1</v>
       </c>
       <c r="AX81" t="n" s="10">
-        <v>65.4</v>
+        <v>65.5</v>
       </c>
       <c r="AY81" t="n" s="10">
-        <v>67.8</v>
+        <v>67.9</v>
       </c>
       <c r="AZ81" t="n" s="10">
         <v>67.2</v>
@@ -32838,28 +32838,28 @@
         <v>63.4</v>
       </c>
       <c r="BB81" t="n" s="10">
-        <v>72.7</v>
+        <v>72.6</v>
       </c>
       <c r="BC81" t="n" s="10">
-        <v>65.4</v>
+        <v>65.6</v>
       </c>
       <c r="BD81" t="n" s="10">
         <v>69.6</v>
       </c>
       <c r="BE81" t="n" s="10">
-        <v>69.7</v>
+        <v>69.8</v>
       </c>
       <c r="BF81" t="n" s="10">
         <v>68.0</v>
       </c>
       <c r="BG81" t="n" s="10">
-        <v>66.4</v>
+        <v>66.5</v>
       </c>
       <c r="BH81" t="n" s="10">
         <v>72.9</v>
       </c>
       <c r="BI81" t="n" s="10">
-        <v>70.6</v>
+        <v>70.5</v>
       </c>
       <c r="BJ81" t="n" s="10">
         <v>73.9</v>
@@ -32868,31 +32868,31 @@
         <v>75.5</v>
       </c>
       <c r="BL81" t="n" s="10">
-        <v>71.5</v>
+        <v>71.6</v>
       </c>
       <c r="BM81" t="n" s="10">
         <v>75.1</v>
       </c>
       <c r="BN81" t="n" s="10">
-        <v>70.4</v>
+        <v>70.5</v>
       </c>
       <c r="BO81" t="n" s="10">
-        <v>76.5</v>
+        <v>76.3</v>
       </c>
       <c r="BP81" t="n" s="10">
-        <v>74.5</v>
+        <v>74.6</v>
       </c>
       <c r="BQ81" t="n" s="10">
-        <v>74.0</v>
+        <v>73.9</v>
       </c>
       <c r="BR81" t="n" s="10">
-        <v>74.8</v>
+        <v>74.7</v>
       </c>
       <c r="BS81" t="n" s="10">
         <v>78.9</v>
       </c>
       <c r="BT81" t="n" s="10">
-        <v>76.1</v>
+        <v>76.0</v>
       </c>
       <c r="BU81" t="n" s="10">
         <v>74.5</v>
@@ -32913,13 +32913,13 @@
         <v>81.1</v>
       </c>
       <c r="CA81" t="n" s="10">
-        <v>77.9</v>
+        <v>77.8</v>
       </c>
       <c r="CB81" t="n" s="10">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="CC81" t="n" s="10">
-        <v>78.5</v>
+        <v>78.4</v>
       </c>
       <c r="CD81" t="n" s="10">
         <v>82.9</v>
@@ -32928,16 +32928,16 @@
         <v>76.6</v>
       </c>
       <c r="CF81" t="n" s="10">
-        <v>75.0</v>
+        <v>74.9</v>
       </c>
       <c r="CG81" t="n" s="10">
         <v>83.4</v>
       </c>
       <c r="CH81" t="n" s="10">
-        <v>76.1</v>
+        <v>76.2</v>
       </c>
       <c r="CI81" t="n" s="10">
-        <v>80.8</v>
+        <v>80.7</v>
       </c>
       <c r="CJ81" t="n" s="10">
         <v>85.3</v>
@@ -32946,13 +32946,13 @@
         <v>81.7</v>
       </c>
       <c r="CL81" t="n" s="10">
-        <v>82.1</v>
+        <v>81.9</v>
       </c>
       <c r="CM81" t="n" s="10">
-        <v>84.3</v>
+        <v>84.4</v>
       </c>
       <c r="CN81" t="n" s="10">
-        <v>77.9</v>
+        <v>77.8</v>
       </c>
       <c r="CO81" t="n" s="10">
         <v>83.7</v>
@@ -32961,16 +32961,16 @@
         <v>77.3</v>
       </c>
       <c r="CQ81" t="n" s="10">
-        <v>78.7</v>
+        <v>78.6</v>
       </c>
       <c r="CR81" t="n" s="10">
-        <v>83.1</v>
+        <v>83.2</v>
       </c>
       <c r="CS81" t="n" s="10">
         <v>74.6</v>
       </c>
       <c r="CT81" t="n" s="10">
-        <v>77.6</v>
+        <v>77.5</v>
       </c>
       <c r="CU81" t="n" s="10">
         <v>73.8</v>
@@ -32985,7 +32985,7 @@
         <v>68.1</v>
       </c>
       <c r="CY81" t="n" s="10">
-        <v>67.6</v>
+        <v>67.5</v>
       </c>
       <c r="CZ81" t="n" s="10">
         <v>72.2</v>
@@ -32994,7 +32994,7 @@
         <v>66.7</v>
       </c>
       <c r="DB81" t="n" s="10">
-        <v>70.2</v>
+        <v>70.3</v>
       </c>
       <c r="DC81" t="n" s="10">
         <v>71.8</v>
@@ -33021,13 +33021,13 @@
         <v>75.0</v>
       </c>
       <c r="DK81" t="n" s="10">
-        <v>75.2</v>
+        <v>75.3</v>
       </c>
       <c r="DL81" t="n" s="10">
-        <v>71.1</v>
+        <v>71.0</v>
       </c>
       <c r="DM81" t="n" s="10">
-        <v>75.5</v>
+        <v>75.6</v>
       </c>
       <c r="DN81" t="n" s="10">
         <v>76.2</v>
@@ -33039,13 +33039,13 @@
         <v>76.0</v>
       </c>
       <c r="DQ81" t="n" s="10">
-        <v>77.0</v>
+        <v>77.1</v>
       </c>
       <c r="DR81" t="n" s="10">
+        <v>74.6</v>
+      </c>
+      <c r="DS81" t="n" s="10">
         <v>74.5</v>
-      </c>
-      <c r="DS81" t="n" s="10">
-        <v>74.4</v>
       </c>
       <c r="DT81" t="n" s="10">
         <v>80.3</v>
@@ -33054,28 +33054,28 @@
         <v>82.5</v>
       </c>
       <c r="DV81" t="n" s="10">
-        <v>78.7</v>
+        <v>78.8</v>
       </c>
       <c r="DW81" t="n" s="10">
-        <v>80.5</v>
+        <v>80.4</v>
       </c>
       <c r="DX81" t="n" s="10">
-        <v>88.0</v>
+        <v>88.2</v>
       </c>
       <c r="DY81" t="n" s="10">
-        <v>84.0</v>
+        <v>83.9</v>
       </c>
       <c r="DZ81" t="n" s="10">
         <v>83.4</v>
       </c>
       <c r="EA81" t="n" s="10">
-        <v>80.1</v>
+        <v>80.2</v>
       </c>
       <c r="EB81" t="n" s="10">
-        <v>84.1</v>
+        <v>84.2</v>
       </c>
       <c r="EC81" t="n" s="10">
-        <v>84.1</v>
+        <v>84.0</v>
       </c>
       <c r="ED81" t="n" s="10">
         <v>90.5</v>
@@ -33092,148 +33092,148 @@
         <v>34</v>
       </c>
       <c r="D82" t="n" s="10">
-        <v>132.2</v>
+        <v>131.5</v>
       </c>
       <c r="E82" t="n" s="10">
-        <v>124.1</v>
+        <v>123.3</v>
       </c>
       <c r="F82" t="n" s="10">
-        <v>118.4</v>
+        <v>125.9</v>
       </c>
       <c r="G82" t="n" s="10">
-        <v>128.1</v>
+        <v>127.5</v>
       </c>
       <c r="H82" t="n" s="10">
-        <v>128.2</v>
+        <v>127.6</v>
       </c>
       <c r="I82" t="n" s="10">
-        <v>130.8</v>
+        <v>130.3</v>
       </c>
       <c r="J82" t="n" s="10">
-        <v>123.0</v>
+        <v>122.4</v>
       </c>
       <c r="K82" t="n" s="10">
-        <v>126.8</v>
+        <v>125.9</v>
       </c>
       <c r="L82" t="n" s="10">
-        <v>120.1</v>
+        <v>119.3</v>
       </c>
       <c r="M82" t="n" s="10">
-        <v>122.5</v>
+        <v>121.6</v>
       </c>
       <c r="N82" t="n" s="10">
-        <v>119.7</v>
+        <v>118.6</v>
       </c>
       <c r="O82" t="n" s="10">
+        <v>110.2</v>
+      </c>
+      <c r="P82" t="n" s="10">
         <v>111.2</v>
       </c>
-      <c r="P82" t="n" s="10">
-        <v>112.3</v>
-      </c>
       <c r="Q82" t="n" s="10">
-        <v>116.7</v>
+        <v>115.4</v>
       </c>
       <c r="R82" t="n" s="10">
-        <v>125.9</v>
+        <v>137.8</v>
       </c>
       <c r="S82" t="n" s="10">
-        <v>111.2</v>
+        <v>109.8</v>
       </c>
       <c r="T82" t="n" s="10">
-        <v>109.3</v>
+        <v>108.2</v>
       </c>
       <c r="U82" t="n" s="10">
-        <v>108.7</v>
+        <v>107.6</v>
       </c>
       <c r="V82" t="n" s="10">
-        <v>108.0</v>
+        <v>107.0</v>
       </c>
       <c r="W82" t="n" s="10">
-        <v>105.3</v>
+        <v>104.4</v>
       </c>
       <c r="X82" t="n" s="10">
-        <v>106.6</v>
+        <v>105.9</v>
       </c>
       <c r="Y82" t="n" s="10">
-        <v>100.0</v>
+        <v>99.3</v>
       </c>
       <c r="Z82" t="n" s="10">
-        <v>101.3</v>
+        <v>100.8</v>
       </c>
       <c r="AA82" t="n" s="10">
-        <v>108.8</v>
+        <v>108.3</v>
       </c>
       <c r="AB82" t="n" s="10">
-        <v>100.0</v>
+        <v>99.5</v>
       </c>
       <c r="AC82" t="n" s="10">
-        <v>94.4</v>
+        <v>93.9</v>
       </c>
       <c r="AD82" t="n" s="10">
-        <v>91.8</v>
+        <v>97.9</v>
       </c>
       <c r="AE82" t="n" s="10">
-        <v>97.6</v>
+        <v>97.1</v>
       </c>
       <c r="AF82" t="n" s="10">
+        <v>95.8</v>
+      </c>
+      <c r="AG82" t="n" s="10">
+        <v>93.3</v>
+      </c>
+      <c r="AH82" t="n" s="10">
+        <v>96.9</v>
+      </c>
+      <c r="AI82" t="n" s="10">
+        <v>95.7</v>
+      </c>
+      <c r="AJ82" t="n" s="10">
+        <v>94.9</v>
+      </c>
+      <c r="AK82" t="n" s="10">
         <v>96.5</v>
-      </c>
-      <c r="AG82" t="n" s="10">
-        <v>93.8</v>
-      </c>
-      <c r="AH82" t="n" s="10">
-        <v>97.4</v>
-      </c>
-      <c r="AI82" t="n" s="10">
-        <v>96.0</v>
-      </c>
-      <c r="AJ82" t="n" s="10">
-        <v>95.2</v>
-      </c>
-      <c r="AK82" t="n" s="10">
-        <v>96.7</v>
       </c>
       <c r="AL82" t="n" s="10">
         <v>97.6</v>
       </c>
       <c r="AM82" t="n" s="10">
-        <v>88.5</v>
+        <v>88.6</v>
       </c>
       <c r="AN82" t="n" s="10">
-        <v>95.7</v>
+        <v>95.9</v>
       </c>
       <c r="AO82" t="n" s="10">
-        <v>101.5</v>
+        <v>101.7</v>
       </c>
       <c r="AP82" t="n" s="10">
-        <v>86.8</v>
+        <v>86.7</v>
       </c>
       <c r="AQ82" t="n" s="10">
-        <v>90.5</v>
+        <v>90.6</v>
       </c>
       <c r="AR82" t="n" s="10">
         <v>86.7</v>
       </c>
       <c r="AS82" t="n" s="10">
-        <v>88.5</v>
+        <v>88.4</v>
       </c>
       <c r="AT82" t="n" s="10">
         <v>87.3</v>
       </c>
       <c r="AU82" t="n" s="10">
-        <v>89.1</v>
+        <v>89.0</v>
       </c>
       <c r="AV82" t="n" s="10">
-        <v>83.8</v>
+        <v>83.7</v>
       </c>
       <c r="AW82" t="n" s="10">
         <v>86.7</v>
       </c>
       <c r="AX82" t="n" s="10">
-        <v>81.2</v>
+        <v>81.0</v>
       </c>
       <c r="AY82" t="n" s="10">
-        <v>84.1</v>
+        <v>83.9</v>
       </c>
       <c r="AZ82" t="n" s="10">
         <v>82.9</v>
@@ -33242,34 +33242,34 @@
         <v>78.1</v>
       </c>
       <c r="BB82" t="n" s="10">
-        <v>89.1</v>
+        <v>89.3</v>
       </c>
       <c r="BC82" t="n" s="10">
-        <v>80.9</v>
+        <v>80.7</v>
       </c>
       <c r="BD82" t="n" s="10">
         <v>86.0</v>
       </c>
       <c r="BE82" t="n" s="10">
-        <v>86.5</v>
+        <v>86.3</v>
       </c>
       <c r="BF82" t="n" s="10">
         <v>83.7</v>
       </c>
       <c r="BG82" t="n" s="10">
-        <v>82.4</v>
+        <v>82.3</v>
       </c>
       <c r="BH82" t="n" s="10">
-        <v>90.4</v>
+        <v>90.3</v>
       </c>
       <c r="BI82" t="n" s="10">
         <v>86.9</v>
       </c>
       <c r="BJ82" t="n" s="10">
-        <v>91.1</v>
+        <v>91.0</v>
       </c>
       <c r="BK82" t="n" s="10">
-        <v>93.0</v>
+        <v>92.9</v>
       </c>
       <c r="BL82" t="n" s="10">
         <v>87.7</v>
@@ -33278,16 +33278,16 @@
         <v>91.9</v>
       </c>
       <c r="BN82" t="n" s="10">
-        <v>86.6</v>
+        <v>86.4</v>
       </c>
       <c r="BO82" t="n" s="10">
-        <v>93.1</v>
+        <v>93.3</v>
       </c>
       <c r="BP82" t="n" s="10">
-        <v>91.1</v>
+        <v>91.0</v>
       </c>
       <c r="BQ82" t="n" s="10">
-        <v>89.8</v>
+        <v>89.9</v>
       </c>
       <c r="BR82" t="n" s="10">
         <v>90.7</v>
@@ -33311,13 +33311,13 @@
         <v>91.0</v>
       </c>
       <c r="BY82" t="n" s="10">
-        <v>91.0</v>
+        <v>91.1</v>
       </c>
       <c r="BZ82" t="n" s="10">
-        <v>94.8</v>
+        <v>94.7</v>
       </c>
       <c r="CA82" t="n" s="10">
-        <v>90.5</v>
+        <v>90.6</v>
       </c>
       <c r="CB82" t="n" s="10">
         <v>94.2</v>
@@ -33329,55 +33329,55 @@
         <v>95.7</v>
       </c>
       <c r="CE82" t="n" s="10">
-        <v>88.7</v>
+        <v>88.6</v>
       </c>
       <c r="CF82" t="n" s="10">
-        <v>86.6</v>
+        <v>86.8</v>
       </c>
       <c r="CG82" t="n" s="10">
         <v>96.0</v>
       </c>
       <c r="CH82" t="n" s="10">
-        <v>87.4</v>
+        <v>87.3</v>
       </c>
       <c r="CI82" t="n" s="10">
-        <v>92.1</v>
+        <v>92.3</v>
       </c>
       <c r="CJ82" t="n" s="10">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="CK82" t="n" s="10">
+        <v>92.6</v>
+      </c>
+      <c r="CL82" t="n" s="10">
         <v>92.7</v>
       </c>
-      <c r="CL82" t="n" s="10">
-        <v>92.4</v>
-      </c>
       <c r="CM82" t="n" s="10">
-        <v>95.4</v>
+        <v>95.2</v>
       </c>
       <c r="CN82" t="n" s="10">
-        <v>87.1</v>
+        <v>87.2</v>
       </c>
       <c r="CO82" t="n" s="10">
         <v>93.5</v>
       </c>
       <c r="CP82" t="n" s="10">
-        <v>86.2</v>
+        <v>86.1</v>
       </c>
       <c r="CQ82" t="n" s="10">
-        <v>86.9</v>
+        <v>87.0</v>
       </c>
       <c r="CR82" t="n" s="10">
-        <v>91.7</v>
+        <v>91.6</v>
       </c>
       <c r="CS82" t="n" s="10">
-        <v>82.1</v>
+        <v>82.2</v>
       </c>
       <c r="CT82" t="n" s="10">
-        <v>85.7</v>
+        <v>85.9</v>
       </c>
       <c r="CU82" t="n" s="10">
-        <v>81.5</v>
+        <v>81.4</v>
       </c>
       <c r="CV82" t="n" s="10">
         <v>77.8</v>
@@ -33386,19 +33386,19 @@
         <v>76.4</v>
       </c>
       <c r="CX82" t="n" s="10">
-        <v>75.1</v>
+        <v>75.0</v>
       </c>
       <c r="CY82" t="n" s="10">
-        <v>74.2</v>
+        <v>74.3</v>
       </c>
       <c r="CZ82" t="n" s="10">
         <v>80.3</v>
       </c>
       <c r="DA82" t="n" s="10">
-        <v>74.1</v>
+        <v>74.2</v>
       </c>
       <c r="DB82" t="n" s="10">
-        <v>78.1</v>
+        <v>78.0</v>
       </c>
       <c r="DC82" t="n" s="10">
         <v>80.2</v>
@@ -33407,7 +33407,7 @@
         <v>77.9</v>
       </c>
       <c r="DE82" t="n" s="10">
-        <v>79.8</v>
+        <v>79.7</v>
       </c>
       <c r="DF82" t="n" s="10">
         <v>82.0</v>
@@ -33416,28 +33416,28 @@
         <v>83.2</v>
       </c>
       <c r="DH82" t="n" s="10">
-        <v>79.7</v>
+        <v>79.8</v>
       </c>
       <c r="DI82" t="n" s="10">
-        <v>82.4</v>
+        <v>82.3</v>
       </c>
       <c r="DJ82" t="n" s="10">
+        <v>83.4</v>
+      </c>
+      <c r="DK82" t="n" s="10">
         <v>83.5</v>
       </c>
-      <c r="DK82" t="n" s="10">
-        <v>83.6</v>
-      </c>
       <c r="DL82" t="n" s="10">
-        <v>78.4</v>
+        <v>78.6</v>
       </c>
       <c r="DM82" t="n" s="10">
-        <v>83.3</v>
+        <v>83.1</v>
       </c>
       <c r="DN82" t="n" s="10">
         <v>83.8</v>
       </c>
       <c r="DO82" t="n" s="10">
-        <v>84.8</v>
+        <v>84.7</v>
       </c>
       <c r="DP82" t="n" s="10">
         <v>83.3</v>
@@ -33446,46 +33446,46 @@
         <v>84.2</v>
       </c>
       <c r="DR82" t="n" s="10">
-        <v>81.2</v>
+        <v>81.1</v>
       </c>
       <c r="DS82" t="n" s="10">
-        <v>80.8</v>
+        <v>80.7</v>
       </c>
       <c r="DT82" t="n" s="10">
-        <v>87.2</v>
+        <v>87.1</v>
       </c>
       <c r="DU82" t="n" s="10">
         <v>89.0</v>
       </c>
       <c r="DV82" t="n" s="10">
-        <v>84.8</v>
+        <v>84.7</v>
       </c>
       <c r="DW82" t="n" s="10">
         <v>86.4</v>
       </c>
       <c r="DX82" t="n" s="10">
-        <v>94.4</v>
+        <v>94.1</v>
       </c>
       <c r="DY82" t="n" s="10">
-        <v>89.8</v>
+        <v>89.9</v>
       </c>
       <c r="DZ82" t="n" s="10">
         <v>89.1</v>
       </c>
       <c r="EA82" t="n" s="10">
-        <v>85.4</v>
+        <v>85.3</v>
       </c>
       <c r="EB82" t="n" s="10">
-        <v>89.3</v>
+        <v>89.2</v>
       </c>
       <c r="EC82" t="n" s="10">
-        <v>89.3</v>
+        <v>89.4</v>
       </c>
       <c r="ED82" t="n" s="10">
-        <v>95.9</v>
+        <v>95.8</v>
       </c>
       <c r="EE82" t="n" s="10">
-        <v>93.7</v>
+        <v>93.6</v>
       </c>
     </row>
     <row r="83">
@@ -33508,7 +33508,7 @@
         <v>88.2</v>
       </c>
       <c r="G83" t="n" s="10">
-        <v>86.3</v>
+        <v>86.2</v>
       </c>
       <c r="H83" t="n" s="10">
         <v>88.9</v>
@@ -33517,13 +33517,13 @@
         <v>91.8</v>
       </c>
       <c r="J83" t="n" s="10">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="K83" t="n" s="10">
-        <v>82.9</v>
+        <v>83.0</v>
       </c>
       <c r="L83" t="n" s="10">
-        <v>83.6</v>
+        <v>83.5</v>
       </c>
       <c r="M83" t="n" s="10">
         <v>81.0</v>
@@ -33532,25 +33532,25 @@
         <v>74.6</v>
       </c>
       <c r="O83" t="n" s="10">
-        <v>73.5</v>
+        <v>73.4</v>
       </c>
       <c r="P83" t="n" s="10">
-        <v>77.3</v>
+        <v>77.2</v>
       </c>
       <c r="Q83" t="n" s="10">
         <v>76.5</v>
       </c>
       <c r="R83" t="n" s="10">
-        <v>74.4</v>
+        <v>74.3</v>
       </c>
       <c r="S83" t="n" s="10">
-        <v>76.5</v>
+        <v>76.6</v>
       </c>
       <c r="T83" t="n" s="10">
-        <v>75.2</v>
+        <v>75.1</v>
       </c>
       <c r="U83" t="n" s="10">
-        <v>71.0</v>
+        <v>71.1</v>
       </c>
       <c r="V83" t="n" s="10">
         <v>71.5</v>
@@ -33580,28 +33580,28 @@
         <v>70.4</v>
       </c>
       <c r="AE83" t="n" s="10">
-        <v>68.6</v>
+        <v>68.5</v>
       </c>
       <c r="AF83" t="n" s="10">
         <v>65.8</v>
       </c>
       <c r="AG83" t="n" s="10">
-        <v>67.8</v>
+        <v>67.7</v>
       </c>
       <c r="AH83" t="n" s="10">
         <v>70.9</v>
       </c>
       <c r="AI83" t="n" s="10">
-        <v>69.4</v>
+        <v>69.3</v>
       </c>
       <c r="AJ83" t="n" s="10">
         <v>68.7</v>
       </c>
       <c r="AK83" t="n" s="10">
-        <v>70.8</v>
+        <v>70.9</v>
       </c>
       <c r="AL83" t="n" s="10">
-        <v>68.8</v>
+        <v>68.7</v>
       </c>
       <c r="AM83" t="n" s="10">
         <v>68.6</v>
@@ -33613,7 +33613,7 @@
         <v>69.5</v>
       </c>
       <c r="AP83" t="n" s="10">
-        <v>63.8</v>
+        <v>63.9</v>
       </c>
       <c r="AQ83" t="n" s="10">
         <v>64.4</v>
@@ -33622,13 +33622,13 @@
         <v>65.1</v>
       </c>
       <c r="AS83" t="n" s="10">
-        <v>64.3</v>
+        <v>64.4</v>
       </c>
       <c r="AT83" t="n" s="10">
         <v>62.0</v>
       </c>
       <c r="AU83" t="n" s="10">
-        <v>61.6</v>
+        <v>61.7</v>
       </c>
       <c r="AV83" t="n" s="10">
         <v>62.7</v>
@@ -33637,28 +33637,28 @@
         <v>59.4</v>
       </c>
       <c r="AX83" t="n" s="10">
-        <v>58.2</v>
+        <v>58.3</v>
       </c>
       <c r="AY83" t="n" s="10">
-        <v>56.6</v>
+        <v>56.7</v>
       </c>
       <c r="AZ83" t="n" s="10">
-        <v>59.8</v>
+        <v>59.7</v>
       </c>
       <c r="BA83" t="n" s="10">
         <v>57.1</v>
       </c>
       <c r="BB83" t="n" s="10">
-        <v>60.1</v>
+        <v>60.0</v>
       </c>
       <c r="BC83" t="n" s="10">
-        <v>55.9</v>
+        <v>56.0</v>
       </c>
       <c r="BD83" t="n" s="10">
         <v>59.0</v>
       </c>
       <c r="BE83" t="n" s="10">
-        <v>56.5</v>
+        <v>56.6</v>
       </c>
       <c r="BF83" t="n" s="10">
         <v>56.3</v>
@@ -33676,7 +33676,7 @@
         <v>59.7</v>
       </c>
       <c r="BK83" t="n" s="10">
-        <v>60.8</v>
+        <v>60.9</v>
       </c>
       <c r="BL83" t="n" s="10">
         <v>60.5</v>
@@ -33685,19 +33685,19 @@
         <v>60.3</v>
       </c>
       <c r="BN83" t="n" s="10">
-        <v>59.3</v>
+        <v>59.4</v>
       </c>
       <c r="BO83" t="n" s="10">
-        <v>62.7</v>
+        <v>62.6</v>
       </c>
       <c r="BP83" t="n" s="10">
-        <v>60.4</v>
+        <v>60.5</v>
       </c>
       <c r="BQ83" t="n" s="10">
         <v>62.2</v>
       </c>
       <c r="BR83" t="n" s="10">
-        <v>64.4</v>
+        <v>64.3</v>
       </c>
       <c r="BS83" t="n" s="10">
         <v>60.5</v>
@@ -33730,7 +33730,7 @@
         <v>58.6</v>
       </c>
       <c r="CC83" t="n" s="10">
-        <v>58.0</v>
+        <v>57.9</v>
       </c>
       <c r="CD83" t="n" s="10">
         <v>55.9</v>
@@ -33739,7 +33739,7 @@
         <v>58.1</v>
       </c>
       <c r="CF83" t="n" s="10">
-        <v>56.4</v>
+        <v>56.3</v>
       </c>
       <c r="CG83" t="n" s="10">
         <v>57.2</v>
@@ -33748,40 +33748,40 @@
         <v>53.6</v>
       </c>
       <c r="CI83" t="n" s="10">
-        <v>58.0</v>
+        <v>57.9</v>
       </c>
       <c r="CJ83" t="n" s="10">
         <v>57.8</v>
       </c>
       <c r="CK83" t="n" s="10">
-        <v>57.3</v>
+        <v>57.4</v>
       </c>
       <c r="CL83" t="n" s="10">
-        <v>58.8</v>
+        <v>58.7</v>
       </c>
       <c r="CM83" t="n" s="10">
-        <v>50.4</v>
+        <v>50.6</v>
       </c>
       <c r="CN83" t="n" s="10">
         <v>54.6</v>
       </c>
       <c r="CO83" t="n" s="10">
-        <v>54.5</v>
+        <v>54.6</v>
       </c>
       <c r="CP83" t="n" s="10">
         <v>54.4</v>
       </c>
       <c r="CQ83" t="n" s="10">
-        <v>53.8</v>
+        <v>53.7</v>
       </c>
       <c r="CR83" t="n" s="10">
-        <v>55.8</v>
+        <v>55.9</v>
       </c>
       <c r="CS83" t="n" s="10">
         <v>52.9</v>
       </c>
       <c r="CT83" t="n" s="10">
-        <v>56.9</v>
+        <v>56.8</v>
       </c>
       <c r="CU83" t="n" s="10">
         <v>51.7</v>
@@ -33793,7 +33793,7 @@
         <v>53.0</v>
       </c>
       <c r="CX83" t="n" s="10">
-        <v>50.6</v>
+        <v>50.7</v>
       </c>
       <c r="CY83" t="n" s="10">
         <v>56.6</v>
@@ -33802,7 +33802,7 @@
         <v>53.7</v>
       </c>
       <c r="DA83" t="n" s="10">
-        <v>55.6</v>
+        <v>55.5</v>
       </c>
       <c r="DB83" t="n" s="10">
         <v>55.7</v>
@@ -33823,7 +33823,7 @@
         <v>58.0</v>
       </c>
       <c r="DH83" t="n" s="10">
-        <v>56.1</v>
+        <v>56.0</v>
       </c>
       <c r="DI83" t="n" s="10">
         <v>57.1</v>
@@ -33838,7 +33838,7 @@
         <v>57.2</v>
       </c>
       <c r="DM83" t="n" s="10">
-        <v>58.5</v>
+        <v>58.6</v>
       </c>
       <c r="DN83" t="n" s="10">
         <v>60.2</v>
@@ -33853,7 +33853,7 @@
         <v>62.7</v>
       </c>
       <c r="DR83" t="n" s="10">
-        <v>62.4</v>
+        <v>62.5</v>
       </c>
       <c r="DS83" t="n" s="10">
         <v>63.9</v>
@@ -33871,7 +33871,7 @@
         <v>71.7</v>
       </c>
       <c r="DX83" t="n" s="10">
-        <v>77.7</v>
+        <v>77.8</v>
       </c>
       <c r="DY83" t="n" s="10">
         <v>68.6</v>
@@ -33883,16 +33883,16 @@
         <v>73.0</v>
       </c>
       <c r="EB83" t="n" s="10">
-        <v>70.3</v>
+        <v>70.4</v>
       </c>
       <c r="EC83" t="n" s="10">
-        <v>75.0</v>
+        <v>74.9</v>
       </c>
       <c r="ED83" t="n" s="10">
         <v>78.2</v>
       </c>
       <c r="EE83" t="n" s="10">
-        <v>79.5</v>
+        <v>79.6</v>
       </c>
     </row>
     <row r="84">
@@ -33951,7 +33951,7 @@
         <v>95.4</v>
       </c>
       <c r="T84" t="n" s="10">
-        <v>93.1</v>
+        <v>93.2</v>
       </c>
       <c r="U84" t="n" s="10">
         <v>88.6</v>
@@ -33963,7 +33963,7 @@
         <v>90.6</v>
       </c>
       <c r="X84" t="n" s="10">
-        <v>88.6</v>
+        <v>88.7</v>
       </c>
       <c r="Y84" t="n" s="10">
         <v>87.0</v>
@@ -34092,7 +34092,7 @@
         <v>72.8</v>
       </c>
       <c r="BO84" t="n" s="10">
-        <v>76.2</v>
+        <v>76.3</v>
       </c>
       <c r="BP84" t="n" s="10">
         <v>73.9</v>
@@ -34161,7 +34161,7 @@
         <v>65.4</v>
       </c>
       <c r="CL84" t="n" s="10">
-        <v>66.3</v>
+        <v>66.4</v>
       </c>
       <c r="CM84" t="n" s="10">
         <v>57.5</v>
@@ -34352,10 +34352,10 @@
         <v>102.5</v>
       </c>
       <c r="R85" t="n" s="10">
-        <v>135.0</v>
+        <v>134.9</v>
       </c>
       <c r="S85" t="n" s="10">
-        <v>94.2</v>
+        <v>94.3</v>
       </c>
       <c r="T85" t="n" s="10">
         <v>93.8</v>
@@ -34391,7 +34391,7 @@
         <v>83.5</v>
       </c>
       <c r="AE85" t="n" s="10">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="AF85" t="n" s="10">
         <v>82.7</v>
@@ -34451,7 +34451,7 @@
         <v>70.3</v>
       </c>
       <c r="AY85" t="n" s="10">
-        <v>75.3</v>
+        <v>75.4</v>
       </c>
       <c r="AZ85" t="n" s="10">
         <v>72.4</v>
@@ -34502,7 +34502,7 @@
         <v>86.2</v>
       </c>
       <c r="BP85" t="n" s="10">
-        <v>84.2</v>
+        <v>84.3</v>
       </c>
       <c r="BQ85" t="n" s="10">
         <v>82.3</v>
@@ -34532,7 +34532,7 @@
         <v>91.2</v>
       </c>
       <c r="BZ85" t="n" s="10">
-        <v>97.6</v>
+        <v>97.7</v>
       </c>
       <c r="CA85" t="n" s="10">
         <v>89.9</v>
@@ -34697,7 +34697,7 @@
         <v>93.6</v>
       </c>
       <c r="EC85" t="n" s="10">
-        <v>90.6</v>
+        <v>90.5</v>
       </c>
       <c r="ED85" t="n" s="10">
         <v>99.1</v>
@@ -34717,13 +34717,13 @@
         <v>143.8</v>
       </c>
       <c r="E86" t="n" s="10">
-        <v>131.8</v>
+        <v>131.7</v>
       </c>
       <c r="F86" t="n" s="10">
         <v>138.2</v>
       </c>
       <c r="G86" t="n" s="10">
-        <v>142.3</v>
+        <v>142.2</v>
       </c>
       <c r="H86" t="n" s="10">
         <v>139.9</v>
@@ -34732,22 +34732,22 @@
         <v>142.1</v>
       </c>
       <c r="J86" t="n" s="10">
-        <v>135.9</v>
+        <v>135.8</v>
       </c>
       <c r="K86" t="n" s="10">
         <v>142.0</v>
       </c>
       <c r="L86" t="n" s="10">
-        <v>130.5</v>
+        <v>130.4</v>
       </c>
       <c r="M86" t="n" s="10">
         <v>136.3</v>
       </c>
       <c r="N86" t="n" s="10">
-        <v>136.6</v>
+        <v>136.7</v>
       </c>
       <c r="O86" t="n" s="10">
-        <v>123.6</v>
+        <v>123.5</v>
       </c>
       <c r="P86" t="n" s="10">
         <v>121.7</v>
@@ -34756,22 +34756,22 @@
         <v>129.5</v>
       </c>
       <c r="R86" t="n" s="10">
-        <v>170.2</v>
+        <v>170.0</v>
       </c>
       <c r="S86" t="n" s="10">
-        <v>119.6</v>
+        <v>119.7</v>
       </c>
       <c r="T86" t="n" s="10">
-        <v>118.5</v>
+        <v>118.4</v>
       </c>
       <c r="U86" t="n" s="10">
         <v>120.6</v>
       </c>
       <c r="V86" t="n" s="10">
-        <v>119.3</v>
+        <v>119.4</v>
       </c>
       <c r="W86" t="n" s="10">
-        <v>113.9</v>
+        <v>113.8</v>
       </c>
       <c r="X86" t="n" s="10">
         <v>117.7</v>
@@ -34792,31 +34792,31 @@
         <v>100.7</v>
       </c>
       <c r="AD86" t="n" s="10">
-        <v>105.5</v>
+        <v>105.4</v>
       </c>
       <c r="AE86" t="n" s="10">
         <v>105.2</v>
       </c>
       <c r="AF86" t="n" s="10">
-        <v>105.1</v>
+        <v>105.2</v>
       </c>
       <c r="AG86" t="n" s="10">
-        <v>99.5</v>
+        <v>99.4</v>
       </c>
       <c r="AH86" t="n" s="10">
-        <v>102.6</v>
+        <v>102.7</v>
       </c>
       <c r="AI86" t="n" s="10">
-        <v>102.1</v>
+        <v>102.0</v>
       </c>
       <c r="AJ86" t="n" s="10">
         <v>101.0</v>
       </c>
       <c r="AK86" t="n" s="10">
-        <v>101.9</v>
+        <v>102.0</v>
       </c>
       <c r="AL86" t="n" s="10">
-        <v>106.1</v>
+        <v>106.0</v>
       </c>
       <c r="AM86" t="n" s="10">
         <v>90.8</v>
@@ -34828,13 +34828,13 @@
         <v>112.2</v>
       </c>
       <c r="AP86" t="n" s="10">
-        <v>91.6</v>
+        <v>91.7</v>
       </c>
       <c r="AQ86" t="n" s="10">
         <v>98.0</v>
       </c>
       <c r="AR86" t="n" s="10">
-        <v>91.3</v>
+        <v>91.2</v>
       </c>
       <c r="AS86" t="n" s="10">
         <v>94.7</v>
@@ -34846,34 +34846,34 @@
         <v>98.1</v>
       </c>
       <c r="AV86" t="n" s="10">
-        <v>88.3</v>
+        <v>88.4</v>
       </c>
       <c r="AW86" t="n" s="10">
-        <v>96.1</v>
+        <v>96.2</v>
       </c>
       <c r="AX86" t="n" s="10">
-        <v>87.3</v>
+        <v>87.4</v>
       </c>
       <c r="AY86" t="n" s="10">
-        <v>93.5</v>
+        <v>93.7</v>
       </c>
       <c r="AZ86" t="n" s="10">
         <v>89.5</v>
       </c>
       <c r="BA86" t="n" s="10">
-        <v>83.4</v>
+        <v>83.5</v>
       </c>
       <c r="BB86" t="n" s="10">
-        <v>100.1</v>
+        <v>100.0</v>
       </c>
       <c r="BC86" t="n" s="10">
-        <v>88.7</v>
+        <v>88.9</v>
       </c>
       <c r="BD86" t="n" s="10">
         <v>95.2</v>
       </c>
       <c r="BE86" t="n" s="10">
-        <v>97.4</v>
+        <v>97.6</v>
       </c>
       <c r="BF86" t="n" s="10">
         <v>93.7</v>
@@ -34882,10 +34882,10 @@
         <v>89.6</v>
       </c>
       <c r="BH86" t="n" s="10">
-        <v>104.1</v>
+        <v>104.2</v>
       </c>
       <c r="BI86" t="n" s="10">
-        <v>96.7</v>
+        <v>96.6</v>
       </c>
       <c r="BJ86" t="n" s="10">
         <v>103.2</v>
@@ -34894,25 +34894,25 @@
         <v>105.3</v>
       </c>
       <c r="BL86" t="n" s="10">
-        <v>97.0</v>
+        <v>97.1</v>
       </c>
       <c r="BM86" t="n" s="10">
         <v>104.5</v>
       </c>
       <c r="BN86" t="n" s="10">
-        <v>95.9</v>
+        <v>96.0</v>
       </c>
       <c r="BO86" t="n" s="10">
-        <v>105.0</v>
+        <v>104.8</v>
       </c>
       <c r="BP86" t="n" s="10">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="BQ86" t="n" s="10">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="BR86" t="n" s="10">
-        <v>99.5</v>
+        <v>99.4</v>
       </c>
       <c r="BS86" t="n" s="10">
         <v>110.1</v>
@@ -34933,19 +34933,19 @@
         <v>105.4</v>
       </c>
       <c r="BY86" t="n" s="10">
-        <v>106.6</v>
+        <v>106.5</v>
       </c>
       <c r="BZ86" t="n" s="10">
-        <v>113.8</v>
+        <v>113.9</v>
       </c>
       <c r="CA86" t="n" s="10">
-        <v>104.6</v>
+        <v>104.5</v>
       </c>
       <c r="CB86" t="n" s="10">
         <v>112.3</v>
       </c>
       <c r="CC86" t="n" s="10">
-        <v>107.4</v>
+        <v>107.3</v>
       </c>
       <c r="CD86" t="n" s="10">
         <v>117.5</v>
@@ -34954,49 +34954,49 @@
         <v>103.3</v>
       </c>
       <c r="CF86" t="n" s="10">
-        <v>101.9</v>
+        <v>101.8</v>
       </c>
       <c r="CG86" t="n" s="10">
-        <v>116.7</v>
+        <v>116.8</v>
       </c>
       <c r="CH86" t="n" s="10">
-        <v>105.0</v>
+        <v>105.1</v>
       </c>
       <c r="CI86" t="n" s="10">
-        <v>110.4</v>
+        <v>110.3</v>
       </c>
       <c r="CJ86" t="n" s="10">
         <v>118.9</v>
       </c>
       <c r="CK86" t="n" s="10">
-        <v>111.5</v>
+        <v>111.6</v>
       </c>
       <c r="CL86" t="n" s="10">
-        <v>111.0</v>
+        <v>110.7</v>
       </c>
       <c r="CM86" t="n" s="10">
-        <v>121.2</v>
+        <v>121.4</v>
       </c>
       <c r="CN86" t="n" s="10">
-        <v>105.1</v>
+        <v>105.0</v>
       </c>
       <c r="CO86" t="n" s="10">
-        <v>115.7</v>
+        <v>115.8</v>
       </c>
       <c r="CP86" t="n" s="10">
         <v>103.4</v>
       </c>
       <c r="CQ86" t="n" s="10">
-        <v>105.9</v>
+        <v>105.8</v>
       </c>
       <c r="CR86" t="n" s="10">
-        <v>112.1</v>
+        <v>112.2</v>
       </c>
       <c r="CS86" t="n" s="10">
         <v>98.4</v>
       </c>
       <c r="CT86" t="n" s="10">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
       <c r="CU86" t="n" s="10">
         <v>98.0</v>
@@ -35008,16 +35008,16 @@
         <v>88.4</v>
       </c>
       <c r="CX86" t="n" s="10">
-        <v>87.8</v>
+        <v>87.9</v>
       </c>
       <c r="CY86" t="n" s="10">
-        <v>82.4</v>
+        <v>82.3</v>
       </c>
       <c r="CZ86" t="n" s="10">
         <v>94.3</v>
       </c>
       <c r="DA86" t="n" s="10">
-        <v>82.6</v>
+        <v>82.5</v>
       </c>
       <c r="DB86" t="n" s="10">
         <v>89.0</v>
@@ -35038,7 +35038,7 @@
         <v>95.8</v>
       </c>
       <c r="DH86" t="n" s="10">
-        <v>91.9</v>
+        <v>91.8</v>
       </c>
       <c r="DI86" t="n" s="10">
         <v>95.4</v>
@@ -35047,19 +35047,19 @@
         <v>96.0</v>
       </c>
       <c r="DK86" t="n" s="10">
-        <v>96.4</v>
+        <v>96.5</v>
       </c>
       <c r="DL86" t="n" s="10">
-        <v>89.1</v>
+        <v>89.0</v>
       </c>
       <c r="DM86" t="n" s="10">
-        <v>95.8</v>
+        <v>95.9</v>
       </c>
       <c r="DN86" t="n" s="10">
         <v>95.8</v>
       </c>
       <c r="DO86" t="n" s="10">
-        <v>95.4</v>
+        <v>95.5</v>
       </c>
       <c r="DP86" t="n" s="10">
         <v>89.6</v>
@@ -35071,7 +35071,7 @@
         <v>89.9</v>
       </c>
       <c r="DS86" t="n" s="10">
-        <v>88.3</v>
+        <v>88.4</v>
       </c>
       <c r="DT86" t="n" s="10">
         <v>97.0</v>
@@ -35080,34 +35080,34 @@
         <v>98.7</v>
       </c>
       <c r="DV86" t="n" s="10">
-        <v>89.7</v>
+        <v>89.8</v>
       </c>
       <c r="DW86" t="n" s="10">
         <v>92.5</v>
       </c>
       <c r="DX86" t="n" s="10">
-        <v>101.1</v>
+        <v>101.3</v>
       </c>
       <c r="DY86" t="n" s="10">
-        <v>101.1</v>
+        <v>101.0</v>
       </c>
       <c r="DZ86" t="n" s="10">
-        <v>96.2</v>
+        <v>96.1</v>
       </c>
       <c r="EA86" t="n" s="10">
-        <v>90.2</v>
+        <v>90.3</v>
       </c>
       <c r="EB86" t="n" s="10">
-        <v>98.9</v>
+        <v>99.0</v>
       </c>
       <c r="EC86" t="n" s="10">
-        <v>95.8</v>
+        <v>95.7</v>
       </c>
       <c r="ED86" t="n" s="10">
         <v>104.5</v>
       </c>
       <c r="EE86" t="n" s="10">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="87">
@@ -35133,7 +35133,7 @@
         <v>116.3</v>
       </c>
       <c r="H87" t="n" s="10">
-        <v>111.2</v>
+        <v>111.3</v>
       </c>
       <c r="I87" t="n" s="10">
         <v>108.7</v>
@@ -35142,7 +35142,7 @@
         <v>108.0</v>
       </c>
       <c r="K87" t="n" s="10">
-        <v>115.9</v>
+        <v>116.0</v>
       </c>
       <c r="L87" t="n" s="10">
         <v>104.0</v>
@@ -35154,7 +35154,7 @@
         <v>108.6</v>
       </c>
       <c r="O87" t="n" s="10">
-        <v>99.6</v>
+        <v>99.5</v>
       </c>
       <c r="P87" t="n" s="10">
         <v>94.4</v>
@@ -35163,13 +35163,13 @@
         <v>102.0</v>
       </c>
       <c r="R87" t="n" s="10">
-        <v>136.6</v>
+        <v>136.5</v>
       </c>
       <c r="S87" t="n" s="10">
         <v>91.4</v>
       </c>
       <c r="T87" t="n" s="10">
-        <v>93.1</v>
+        <v>93.0</v>
       </c>
       <c r="U87" t="n" s="10">
         <v>94.6</v>
@@ -35190,7 +35190,7 @@
         <v>79.7</v>
       </c>
       <c r="AA87" t="n" s="10">
-        <v>92.7</v>
+        <v>92.6</v>
       </c>
       <c r="AB87" t="n" s="10">
         <v>82.6</v>
@@ -35199,7 +35199,7 @@
         <v>77.2</v>
       </c>
       <c r="AD87" t="n" s="10">
-        <v>82.2</v>
+        <v>82.1</v>
       </c>
       <c r="AE87" t="n" s="10">
         <v>81.6</v>
@@ -35208,13 +35208,13 @@
         <v>79.8</v>
       </c>
       <c r="AG87" t="n" s="10">
-        <v>77.8</v>
+        <v>77.7</v>
       </c>
       <c r="AH87" t="n" s="10">
         <v>79.3</v>
       </c>
       <c r="AI87" t="n" s="10">
-        <v>78.1</v>
+        <v>78.0</v>
       </c>
       <c r="AJ87" t="n" s="10">
         <v>76.3</v>
@@ -35223,7 +35223,7 @@
         <v>76.8</v>
       </c>
       <c r="AL87" t="n" s="10">
-        <v>82.4</v>
+        <v>82.3</v>
       </c>
       <c r="AM87" t="n" s="10">
         <v>67.3</v>
@@ -35235,7 +35235,7 @@
         <v>86.0</v>
       </c>
       <c r="AP87" t="n" s="10">
-        <v>66.8</v>
+        <v>66.9</v>
       </c>
       <c r="AQ87" t="n" s="10">
         <v>74.2</v>
@@ -35262,7 +35262,7 @@
         <v>66.3</v>
       </c>
       <c r="AY87" t="n" s="10">
-        <v>72.8</v>
+        <v>72.9</v>
       </c>
       <c r="AZ87" t="n" s="10">
         <v>68.5</v>
@@ -35271,22 +35271,22 @@
         <v>65.3</v>
       </c>
       <c r="BB87" t="n" s="10">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="BC87" t="n" s="10">
-        <v>70.4</v>
+        <v>70.5</v>
       </c>
       <c r="BD87" t="n" s="10">
         <v>73.6</v>
       </c>
       <c r="BE87" t="n" s="10">
-        <v>77.0</v>
+        <v>77.1</v>
       </c>
       <c r="BF87" t="n" s="10">
         <v>76.0</v>
       </c>
       <c r="BG87" t="n" s="10">
-        <v>68.9</v>
+        <v>69.0</v>
       </c>
       <c r="BH87" t="n" s="10">
         <v>81.4</v>
@@ -35298,7 +35298,7 @@
         <v>82.8</v>
       </c>
       <c r="BK87" t="n" s="10">
-        <v>84.3</v>
+        <v>84.4</v>
       </c>
       <c r="BL87" t="n" s="10">
         <v>77.0</v>
@@ -35307,16 +35307,16 @@
         <v>82.6</v>
       </c>
       <c r="BN87" t="n" s="10">
-        <v>76.9</v>
+        <v>77.0</v>
       </c>
       <c r="BO87" t="n" s="10">
-        <v>83.7</v>
+        <v>83.6</v>
       </c>
       <c r="BP87" t="n" s="10">
-        <v>85.9</v>
+        <v>86.0</v>
       </c>
       <c r="BQ87" t="n" s="10">
-        <v>79.3</v>
+        <v>79.2</v>
       </c>
       <c r="BR87" t="n" s="10">
         <v>78.8</v>
@@ -35343,10 +35343,10 @@
         <v>93.5</v>
       </c>
       <c r="BZ87" t="n" s="10">
-        <v>97.5</v>
+        <v>97.6</v>
       </c>
       <c r="CA87" t="n" s="10">
-        <v>91.0</v>
+        <v>90.9</v>
       </c>
       <c r="CB87" t="n" s="10">
         <v>96.6</v>
@@ -35361,7 +35361,7 @@
         <v>87.5</v>
       </c>
       <c r="CF87" t="n" s="10">
-        <v>87.5</v>
+        <v>87.4</v>
       </c>
       <c r="CG87" t="n" s="10">
         <v>103.3</v>
@@ -35370,19 +35370,19 @@
         <v>90.8</v>
       </c>
       <c r="CI87" t="n" s="10">
-        <v>95.7</v>
+        <v>95.6</v>
       </c>
       <c r="CJ87" t="n" s="10">
         <v>106.1</v>
       </c>
       <c r="CK87" t="n" s="10">
-        <v>98.6</v>
+        <v>98.7</v>
       </c>
       <c r="CL87" t="n" s="10">
-        <v>96.4</v>
+        <v>96.2</v>
       </c>
       <c r="CM87" t="n" s="10">
-        <v>109.7</v>
+        <v>109.8</v>
       </c>
       <c r="CN87" t="n" s="10">
         <v>94.9</v>
@@ -35394,16 +35394,16 @@
         <v>91.7</v>
       </c>
       <c r="CQ87" t="n" s="10">
-        <v>96.1</v>
+        <v>96.0</v>
       </c>
       <c r="CR87" t="n" s="10">
-        <v>102.6</v>
+        <v>102.7</v>
       </c>
       <c r="CS87" t="n" s="10">
         <v>86.6</v>
       </c>
       <c r="CT87" t="n" s="10">
-        <v>91.4</v>
+        <v>91.3</v>
       </c>
       <c r="CU87" t="n" s="10">
         <v>86.1</v>
@@ -35415,7 +35415,7 @@
         <v>76.7</v>
       </c>
       <c r="CX87" t="n" s="10">
-        <v>78.3</v>
+        <v>78.4</v>
       </c>
       <c r="CY87" t="n" s="10">
         <v>70.8</v>
@@ -35427,7 +35427,7 @@
         <v>68.1</v>
       </c>
       <c r="DB87" t="n" s="10">
-        <v>75.9</v>
+        <v>76.0</v>
       </c>
       <c r="DC87" t="n" s="10">
         <v>78.7</v>
@@ -35445,7 +35445,7 @@
         <v>81.0</v>
       </c>
       <c r="DH87" t="n" s="10">
-        <v>76.6</v>
+        <v>76.5</v>
       </c>
       <c r="DI87" t="n" s="10">
         <v>78.8</v>
@@ -35454,13 +35454,13 @@
         <v>81.8</v>
       </c>
       <c r="DK87" t="n" s="10">
-        <v>80.7</v>
+        <v>80.8</v>
       </c>
       <c r="DL87" t="n" s="10">
-        <v>76.5</v>
+        <v>76.4</v>
       </c>
       <c r="DM87" t="n" s="10">
-        <v>84.1</v>
+        <v>84.2</v>
       </c>
       <c r="DN87" t="n" s="10">
         <v>84.1</v>
@@ -35481,7 +35481,7 @@
         <v>79.7</v>
       </c>
       <c r="DT87" t="n" s="10">
-        <v>89.0</v>
+        <v>89.1</v>
       </c>
       <c r="DU87" t="n" s="10">
         <v>93.9</v>
@@ -35490,10 +35490,10 @@
         <v>88.1</v>
       </c>
       <c r="DW87" t="n" s="10">
-        <v>85.0</v>
+        <v>84.9</v>
       </c>
       <c r="DX87" t="n" s="10">
-        <v>93.3</v>
+        <v>93.4</v>
       </c>
       <c r="DY87" t="n" s="10">
         <v>91.2</v>
@@ -35508,7 +35508,7 @@
         <v>94.3</v>
       </c>
       <c r="EC87" t="n" s="10">
-        <v>91.4</v>
+        <v>91.3</v>
       </c>
       <c r="ED87" t="n" s="10">
         <v>97.4</v>
@@ -35932,109 +35932,109 @@
         <v>34</v>
       </c>
       <c r="D89" t="n" s="10">
-        <v>100.9</v>
+        <v>99.7</v>
       </c>
       <c r="E89" t="n" s="10">
-        <v>100.7</v>
+        <v>99.6</v>
       </c>
       <c r="F89" t="n" s="10">
-        <v>95.2</v>
+        <v>94.1</v>
       </c>
       <c r="G89" t="n" s="10">
-        <v>98.4</v>
+        <v>97.3</v>
       </c>
       <c r="H89" t="n" s="10">
-        <v>107.5</v>
+        <v>106.2</v>
       </c>
       <c r="I89" t="n" s="10">
         <v>147.1</v>
       </c>
       <c r="J89" t="n" s="10">
-        <v>104.8</v>
+        <v>103.5</v>
       </c>
       <c r="K89" t="n" s="10">
-        <v>97.9</v>
+        <v>96.5</v>
       </c>
       <c r="L89" t="n" s="10">
-        <v>99.3</v>
+        <v>97.8</v>
       </c>
       <c r="M89" t="n" s="10">
-        <v>121.5</v>
+        <v>137.0</v>
       </c>
       <c r="N89" t="n" s="10">
-        <v>104.8</v>
+        <v>103.0</v>
       </c>
       <c r="O89" t="n" s="10">
-        <v>103.5</v>
+        <v>100.3</v>
       </c>
       <c r="P89" t="n" s="10">
-        <v>102.5</v>
+        <v>101.1</v>
       </c>
       <c r="Q89" t="n" s="10">
-        <v>103.5</v>
+        <v>102.2</v>
       </c>
       <c r="R89" t="n" s="10">
-        <v>113.8</v>
+        <v>112.8</v>
       </c>
       <c r="S89" t="n" s="10">
-        <v>105.0</v>
+        <v>103.9</v>
       </c>
       <c r="T89" t="n" s="10">
-        <v>95.1</v>
+        <v>94.3</v>
       </c>
       <c r="U89" t="n" s="10">
-        <v>107.7</v>
+        <v>107.5</v>
       </c>
       <c r="V89" t="n" s="10">
-        <v>98.9</v>
+        <v>98.2</v>
       </c>
       <c r="W89" t="n" s="10">
-        <v>103.7</v>
+        <v>103.0</v>
       </c>
       <c r="X89" t="n" s="10">
-        <v>99.8</v>
+        <v>99.1</v>
       </c>
       <c r="Y89" t="n" s="10">
-        <v>80.9</v>
+        <v>88.8</v>
       </c>
       <c r="Z89" t="n" s="10">
-        <v>96.2</v>
+        <v>95.4</v>
       </c>
       <c r="AA89" t="n" s="10">
-        <v>98.2</v>
+        <v>97.4</v>
       </c>
       <c r="AB89" t="n" s="10">
-        <v>93.6</v>
+        <v>92.8</v>
       </c>
       <c r="AC89" t="n" s="10">
-        <v>88.4</v>
+        <v>87.7</v>
       </c>
       <c r="AD89" t="n" s="10">
-        <v>81.7</v>
+        <v>81.3</v>
       </c>
       <c r="AE89" t="n" s="10">
-        <v>89.9</v>
+        <v>89.6</v>
       </c>
       <c r="AF89" t="n" s="10">
-        <v>94.6</v>
+        <v>94.4</v>
       </c>
       <c r="AG89" t="n" s="10">
         <v>81.6</v>
       </c>
       <c r="AH89" t="n" s="10">
-        <v>86.7</v>
+        <v>86.8</v>
       </c>
       <c r="AI89" t="n" s="10">
-        <v>89.0</v>
+        <v>89.2</v>
       </c>
       <c r="AJ89" t="n" s="10">
-        <v>90.8</v>
+        <v>90.9</v>
       </c>
       <c r="AK89" t="n" s="10">
-        <v>93.2</v>
+        <v>93.4</v>
       </c>
       <c r="AL89" t="n" s="10">
-        <v>88.6</v>
+        <v>88.8</v>
       </c>
       <c r="AM89" t="n" s="10">
         <v>87.2</v>
@@ -36046,31 +36046,31 @@
         <v>98.6</v>
       </c>
       <c r="AP89" t="n" s="10">
-        <v>91.7</v>
+        <v>91.6</v>
       </c>
       <c r="AQ89" t="n" s="10">
         <v>90.4</v>
       </c>
       <c r="AR89" t="n" s="10">
-        <v>84.8</v>
+        <v>84.9</v>
       </c>
       <c r="AS89" t="n" s="10">
         <v>87.6</v>
       </c>
       <c r="AT89" t="n" s="10">
-        <v>96.5</v>
+        <v>96.4</v>
       </c>
       <c r="AU89" t="n" s="10">
         <v>89.9</v>
       </c>
       <c r="AV89" t="n" s="10">
-        <v>82.6</v>
+        <v>82.5</v>
       </c>
       <c r="AW89" t="n" s="10">
         <v>87.9</v>
       </c>
       <c r="AX89" t="n" s="10">
-        <v>85.7</v>
+        <v>85.6</v>
       </c>
       <c r="AY89" t="n" s="10">
         <v>85.6</v>
@@ -36085,136 +36085,136 @@
         <v>82.0</v>
       </c>
       <c r="BC89" t="n" s="10">
-        <v>78.0</v>
+        <v>77.8</v>
       </c>
       <c r="BD89" t="n" s="10">
         <v>89.9</v>
       </c>
       <c r="BE89" t="n" s="10">
-        <v>85.8</v>
+        <v>85.7</v>
       </c>
       <c r="BF89" t="n" s="10">
-        <v>76.2</v>
+        <v>76.3</v>
       </c>
       <c r="BG89" t="n" s="10">
         <v>84.9</v>
       </c>
       <c r="BH89" t="n" s="10">
-        <v>94.6</v>
+        <v>94.7</v>
       </c>
       <c r="BI89" t="n" s="10">
-        <v>88.3</v>
+        <v>88.6</v>
       </c>
       <c r="BJ89" t="n" s="10">
-        <v>87.2</v>
+        <v>87.5</v>
       </c>
       <c r="BK89" t="n" s="10">
-        <v>90.4</v>
+        <v>90.8</v>
       </c>
       <c r="BL89" t="n" s="10">
-        <v>87.4</v>
+        <v>87.8</v>
       </c>
       <c r="BM89" t="n" s="10">
-        <v>95.7</v>
+        <v>96.0</v>
       </c>
       <c r="BN89" t="n" s="10">
-        <v>86.6</v>
+        <v>82.3</v>
       </c>
       <c r="BO89" t="n" s="10">
-        <v>94.9</v>
+        <v>95.4</v>
       </c>
       <c r="BP89" t="n" s="10">
-        <v>78.3</v>
+        <v>78.5</v>
       </c>
       <c r="BQ89" t="n" s="10">
-        <v>93.0</v>
+        <v>93.4</v>
       </c>
       <c r="BR89" t="n" s="10">
-        <v>93.6</v>
+        <v>94.0</v>
       </c>
       <c r="BS89" t="n" s="10">
-        <v>83.0</v>
+        <v>83.4</v>
       </c>
       <c r="BT89" t="n" s="10">
+        <v>82.9</v>
+      </c>
+      <c r="BU89" t="n" s="10">
+        <v>83.3</v>
+      </c>
+      <c r="BV89" t="n" s="10">
+        <v>87.8</v>
+      </c>
+      <c r="BW89" t="n" s="10">
+        <v>79.3</v>
+      </c>
+      <c r="BX89" t="n" s="10">
+        <v>87.6</v>
+      </c>
+      <c r="BY89" t="n" s="10">
         <v>82.3</v>
       </c>
-      <c r="BU89" t="n" s="10">
-        <v>82.6</v>
-      </c>
-      <c r="BV89" t="n" s="10">
-        <v>87.0</v>
-      </c>
-      <c r="BW89" t="n" s="10">
-        <v>78.5</v>
-      </c>
-      <c r="BX89" t="n" s="10">
-        <v>86.8</v>
-      </c>
-      <c r="BY89" t="n" s="10">
-        <v>81.4</v>
-      </c>
       <c r="BZ89" t="n" s="10">
-        <v>106.5</v>
+        <v>98.3</v>
       </c>
       <c r="CA89" t="n" s="10">
-        <v>84.6</v>
+        <v>85.5</v>
       </c>
       <c r="CB89" t="n" s="10">
-        <v>97.8</v>
+        <v>98.7</v>
       </c>
       <c r="CC89" t="n" s="10">
-        <v>84.3</v>
+        <v>85.1</v>
       </c>
       <c r="CD89" t="n" s="10">
-        <v>88.6</v>
+        <v>89.3</v>
       </c>
       <c r="CE89" t="n" s="10">
-        <v>96.0</v>
+        <v>96.6</v>
       </c>
       <c r="CF89" t="n" s="10">
-        <v>90.0</v>
+        <v>90.6</v>
       </c>
       <c r="CG89" t="n" s="10">
-        <v>95.0</v>
+        <v>95.4</v>
       </c>
       <c r="CH89" t="n" s="10">
-        <v>95.1</v>
+        <v>95.5</v>
       </c>
       <c r="CI89" t="n" s="10">
-        <v>99.9</v>
+        <v>100.3</v>
       </c>
       <c r="CJ89" t="n" s="10">
-        <v>98.2</v>
+        <v>98.5</v>
       </c>
       <c r="CK89" t="n" s="10">
-        <v>98.2</v>
+        <v>98.5</v>
       </c>
       <c r="CL89" t="n" s="10">
-        <v>109.9</v>
+        <v>105.8</v>
       </c>
       <c r="CM89" t="n" s="10">
-        <v>100.4</v>
+        <v>100.7</v>
       </c>
       <c r="CN89" t="n" s="10">
-        <v>90.8</v>
+        <v>91.2</v>
       </c>
       <c r="CO89" t="n" s="10">
-        <v>96.7</v>
+        <v>97.0</v>
       </c>
       <c r="CP89" t="n" s="10">
-        <v>98.7</v>
+        <v>99.0</v>
       </c>
       <c r="CQ89" t="n" s="10">
-        <v>95.8</v>
+        <v>96.1</v>
       </c>
       <c r="CR89" t="n" s="10">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="CS89" t="n" s="10">
-        <v>101.7</v>
+        <v>101.8</v>
       </c>
       <c r="CT89" t="n" s="10">
-        <v>94.0</v>
+        <v>94.1</v>
       </c>
       <c r="CU89" t="n" s="10">
         <v>100.7</v>
@@ -36223,10 +36223,10 @@
         <v>93.0</v>
       </c>
       <c r="CW89" t="n" s="10">
-        <v>93.8</v>
+        <v>93.7</v>
       </c>
       <c r="CX89" t="n" s="10">
-        <v>87.4</v>
+        <v>87.3</v>
       </c>
       <c r="CY89" t="n" s="10">
         <v>91.7</v>
@@ -36256,7 +36256,7 @@
         <v>107.2</v>
       </c>
       <c r="DH89" t="n" s="10">
-        <v>107.8</v>
+        <v>107.9</v>
       </c>
       <c r="DI89" t="n" s="10">
         <v>113.0</v>
@@ -36265,13 +36265,13 @@
         <v>104.4</v>
       </c>
       <c r="DK89" t="n" s="10">
-        <v>111.5</v>
+        <v>111.4</v>
       </c>
       <c r="DL89" t="n" s="10">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="DM89" t="n" s="10">
-        <v>99.2</v>
+        <v>99.1</v>
       </c>
       <c r="DN89" t="n" s="10">
         <v>99.6</v>
@@ -36286,25 +36286,25 @@
         <v>102.8</v>
       </c>
       <c r="DR89" t="n" s="10">
-        <v>91.8</v>
+        <v>91.7</v>
       </c>
       <c r="DS89" t="n" s="10">
-        <v>87.4</v>
+        <v>87.3</v>
       </c>
       <c r="DT89" t="n" s="10">
-        <v>89.9</v>
+        <v>89.8</v>
       </c>
       <c r="DU89" t="n" s="10">
-        <v>82.6</v>
+        <v>82.7</v>
       </c>
       <c r="DV89" t="n" s="10">
-        <v>91.1</v>
+        <v>91.0</v>
       </c>
       <c r="DW89" t="n" s="10">
         <v>90.6</v>
       </c>
       <c r="DX89" t="n" s="10">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="DY89" t="n" s="10">
         <v>105.9</v>
@@ -36319,13 +36319,13 @@
         <v>88.2</v>
       </c>
       <c r="EC89" t="n" s="10">
-        <v>83.4</v>
+        <v>83.5</v>
       </c>
       <c r="ED89" t="n" s="10">
         <v>101.4</v>
       </c>
       <c r="EE89" t="n" s="10">
-        <v>99.0</v>
+        <v>98.9</v>
       </c>
     </row>
     <row r="90">
@@ -36767,7 +36767,7 @@
         <v>92.1</v>
       </c>
       <c r="L91" t="n" s="10">
-        <v>87.0</v>
+        <v>86.9</v>
       </c>
       <c r="M91" t="n" s="10">
         <v>87.5</v>
@@ -36779,13 +36779,13 @@
         <v>89.2</v>
       </c>
       <c r="P91" t="n" s="10">
-        <v>92.3</v>
+        <v>92.2</v>
       </c>
       <c r="Q91" t="n" s="10">
         <v>90.5</v>
       </c>
       <c r="R91" t="n" s="10">
-        <v>92.8</v>
+        <v>92.7</v>
       </c>
       <c r="S91" t="n" s="10">
         <v>94.0</v>
@@ -36824,28 +36824,28 @@
         <v>83.4</v>
       </c>
       <c r="AE91" t="n" s="10">
-        <v>81.9</v>
+        <v>81.8</v>
       </c>
       <c r="AF91" t="n" s="10">
-        <v>84.1</v>
+        <v>84.2</v>
       </c>
       <c r="AG91" t="n" s="10">
         <v>84.0</v>
       </c>
       <c r="AH91" t="n" s="10">
-        <v>87.6</v>
+        <v>87.7</v>
       </c>
       <c r="AI91" t="n" s="10">
-        <v>81.4</v>
+        <v>81.3</v>
       </c>
       <c r="AJ91" t="n" s="10">
         <v>80.0</v>
       </c>
       <c r="AK91" t="n" s="10">
-        <v>80.2</v>
+        <v>80.3</v>
       </c>
       <c r="AL91" t="n" s="10">
-        <v>80.8</v>
+        <v>80.7</v>
       </c>
       <c r="AM91" t="n" s="10">
         <v>80.7</v>
@@ -36857,7 +36857,7 @@
         <v>79.6</v>
       </c>
       <c r="AP91" t="n" s="10">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="AQ91" t="n" s="10">
         <v>80.1</v>
@@ -36881,10 +36881,10 @@
         <v>76.1</v>
       </c>
       <c r="AX91" t="n" s="10">
-        <v>75.2</v>
+        <v>75.3</v>
       </c>
       <c r="AY91" t="n" s="10">
-        <v>75.0</v>
+        <v>75.1</v>
       </c>
       <c r="AZ91" t="n" s="10">
         <v>76.5</v>
@@ -36893,22 +36893,22 @@
         <v>74.6</v>
       </c>
       <c r="BB91" t="n" s="10">
-        <v>72.8</v>
+        <v>72.7</v>
       </c>
       <c r="BC91" t="n" s="10">
-        <v>74.5</v>
+        <v>74.6</v>
       </c>
       <c r="BD91" t="n" s="10">
-        <v>76.9</v>
+        <v>76.8</v>
       </c>
       <c r="BE91" t="n" s="10">
-        <v>75.2</v>
+        <v>75.3</v>
       </c>
       <c r="BF91" t="n" s="10">
         <v>80.2</v>
       </c>
       <c r="BG91" t="n" s="10">
-        <v>85.9</v>
+        <v>86.0</v>
       </c>
       <c r="BH91" t="n" s="10">
         <v>78.2</v>
@@ -36929,19 +36929,19 @@
         <v>79.5</v>
       </c>
       <c r="BN91" t="n" s="10">
-        <v>79.9</v>
+        <v>80.0</v>
       </c>
       <c r="BO91" t="n" s="10">
-        <v>80.4</v>
+        <v>80.3</v>
       </c>
       <c r="BP91" t="n" s="10">
         <v>83.1</v>
       </c>
       <c r="BQ91" t="n" s="10">
-        <v>84.5</v>
+        <v>84.4</v>
       </c>
       <c r="BR91" t="n" s="10">
-        <v>82.8</v>
+        <v>82.7</v>
       </c>
       <c r="BS91" t="n" s="10">
         <v>80.2</v>
@@ -36983,7 +36983,7 @@
         <v>88.6</v>
       </c>
       <c r="CF91" t="n" s="10">
-        <v>91.5</v>
+        <v>91.4</v>
       </c>
       <c r="CG91" t="n" s="10">
         <v>101.6</v>
@@ -37001,22 +37001,22 @@
         <v>90.1</v>
       </c>
       <c r="CL91" t="n" s="10">
-        <v>91.8</v>
+        <v>91.6</v>
       </c>
       <c r="CM91" t="n" s="10">
-        <v>85.2</v>
+        <v>85.3</v>
       </c>
       <c r="CN91" t="n" s="10">
         <v>90.0</v>
       </c>
       <c r="CO91" t="n" s="10">
-        <v>85.9</v>
+        <v>86.0</v>
       </c>
       <c r="CP91" t="n" s="10">
         <v>95.4</v>
       </c>
       <c r="CQ91" t="n" s="10">
-        <v>86.5</v>
+        <v>86.4</v>
       </c>
       <c r="CR91" t="n" s="10">
         <v>85.8</v>
@@ -37025,7 +37025,7 @@
         <v>81.7</v>
       </c>
       <c r="CT91" t="n" s="10">
-        <v>83.5</v>
+        <v>83.4</v>
       </c>
       <c r="CU91" t="n" s="10">
         <v>84.2</v>
@@ -37037,10 +37037,10 @@
         <v>85.2</v>
       </c>
       <c r="CX91" t="n" s="10">
-        <v>84.3</v>
+        <v>84.4</v>
       </c>
       <c r="CY91" t="n" s="10">
-        <v>93.1</v>
+        <v>93.0</v>
       </c>
       <c r="CZ91" t="n" s="10">
         <v>88.8</v>
@@ -37052,7 +37052,7 @@
         <v>88.6</v>
       </c>
       <c r="DC91" t="n" s="10">
-        <v>91.9</v>
+        <v>91.8</v>
       </c>
       <c r="DD91" t="n" s="10">
         <v>89.7</v>
@@ -37067,7 +37067,7 @@
         <v>93.3</v>
       </c>
       <c r="DH91" t="n" s="10">
-        <v>88.2</v>
+        <v>88.1</v>
       </c>
       <c r="DI91" t="n" s="10">
         <v>92.7</v>
@@ -37076,31 +37076,31 @@
         <v>90.6</v>
       </c>
       <c r="DK91" t="n" s="10">
-        <v>84.1</v>
+        <v>84.2</v>
       </c>
       <c r="DL91" t="n" s="10">
         <v>87.8</v>
       </c>
       <c r="DM91" t="n" s="10">
-        <v>83.9</v>
+        <v>84.0</v>
       </c>
       <c r="DN91" t="n" s="10">
         <v>81.9</v>
       </c>
       <c r="DO91" t="n" s="10">
-        <v>84.6</v>
+        <v>84.7</v>
       </c>
       <c r="DP91" t="n" s="10">
         <v>87.6</v>
       </c>
       <c r="DQ91" t="n" s="10">
-        <v>91.7</v>
+        <v>91.8</v>
       </c>
       <c r="DR91" t="n" s="10">
-        <v>87.4</v>
+        <v>87.5</v>
       </c>
       <c r="DS91" t="n" s="10">
-        <v>82.6</v>
+        <v>82.7</v>
       </c>
       <c r="DT91" t="n" s="10">
         <v>85.6</v>
@@ -37115,16 +37115,16 @@
         <v>88.8</v>
       </c>
       <c r="DX91" t="n" s="10">
-        <v>85.7</v>
+        <v>85.9</v>
       </c>
       <c r="DY91" t="n" s="10">
-        <v>87.8</v>
+        <v>87.7</v>
       </c>
       <c r="DZ91" t="n" s="10">
         <v>94.5</v>
       </c>
       <c r="EA91" t="n" s="10">
-        <v>90.1</v>
+        <v>90.2</v>
       </c>
       <c r="EB91" t="n" s="10">
         <v>90.7</v>
@@ -37136,7 +37136,7 @@
         <v>92.9</v>
       </c>
       <c r="EE91" t="n" s="10">
-        <v>94.0</v>
+        <v>94.1</v>
       </c>
     </row>
     <row r="92">
@@ -37207,10 +37207,10 @@
         <v>113.0</v>
       </c>
       <c r="X92" t="n" s="10">
-        <v>118.1</v>
+        <v>118.0</v>
       </c>
       <c r="Y92" t="n" s="10">
-        <v>116.2</v>
+        <v>116.1</v>
       </c>
       <c r="Z92" t="n" s="10">
         <v>113.2</v>
@@ -37234,13 +37234,13 @@
         <v>108.2</v>
       </c>
       <c r="AG92" t="n" s="10">
-        <v>107.5</v>
+        <v>107.4</v>
       </c>
       <c r="AH92" t="n" s="10">
         <v>112.5</v>
       </c>
       <c r="AI92" t="n" s="10">
-        <v>104.2</v>
+        <v>104.1</v>
       </c>
       <c r="AJ92" t="n" s="10">
         <v>102.9</v>
@@ -37249,7 +37249,7 @@
         <v>103.0</v>
       </c>
       <c r="AL92" t="n" s="10">
-        <v>103.1</v>
+        <v>103.0</v>
       </c>
       <c r="AM92" t="n" s="10">
         <v>103.2</v>
@@ -37261,16 +37261,16 @@
         <v>101.7</v>
       </c>
       <c r="AP92" t="n" s="10">
-        <v>105.0</v>
+        <v>105.1</v>
       </c>
       <c r="AQ92" t="n" s="10">
         <v>102.3</v>
       </c>
       <c r="AR92" t="n" s="10">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="AS92" t="n" s="10">
-        <v>98.8</v>
+        <v>98.9</v>
       </c>
       <c r="AT92" t="n" s="10">
         <v>91.3</v>
@@ -37285,10 +37285,10 @@
         <v>96.0</v>
       </c>
       <c r="AX92" t="n" s="10">
-        <v>95.0</v>
+        <v>95.1</v>
       </c>
       <c r="AY92" t="n" s="10">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="AZ92" t="n" s="10">
         <v>95.9</v>
@@ -37297,10 +37297,10 @@
         <v>93.5</v>
       </c>
       <c r="BB92" t="n" s="10">
-        <v>90.4</v>
+        <v>90.3</v>
       </c>
       <c r="BC92" t="n" s="10">
-        <v>93.5</v>
+        <v>93.6</v>
       </c>
       <c r="BD92" t="n" s="10">
         <v>96.2</v>
@@ -37312,7 +37312,7 @@
         <v>100.2</v>
       </c>
       <c r="BG92" t="n" s="10">
-        <v>107.8</v>
+        <v>107.9</v>
       </c>
       <c r="BH92" t="n" s="10">
         <v>98.2</v>
@@ -37333,13 +37333,13 @@
         <v>98.0</v>
       </c>
       <c r="BN92" t="n" s="10">
-        <v>98.9</v>
+        <v>99.0</v>
       </c>
       <c r="BO92" t="n" s="10">
-        <v>98.0</v>
+        <v>97.9</v>
       </c>
       <c r="BP92" t="n" s="10">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
       <c r="BQ92" t="n" s="10">
         <v>102.3</v>
@@ -37360,7 +37360,7 @@
         <v>101.4</v>
       </c>
       <c r="BW92" t="n" s="10">
-        <v>97.7</v>
+        <v>97.6</v>
       </c>
       <c r="BX92" t="n" s="10">
         <v>102.4</v>
@@ -37369,7 +37369,7 @@
         <v>103.5</v>
       </c>
       <c r="BZ92" t="n" s="10">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="CA92" t="n" s="10">
         <v>104.5</v>
@@ -37378,25 +37378,25 @@
         <v>99.5</v>
       </c>
       <c r="CC92" t="n" s="10">
-        <v>99.4</v>
+        <v>99.3</v>
       </c>
       <c r="CD92" t="n" s="10">
-        <v>94.9</v>
+        <v>94.8</v>
       </c>
       <c r="CE92" t="n" s="10">
         <v>100.9</v>
       </c>
       <c r="CF92" t="n" s="10">
-        <v>104.5</v>
+        <v>104.4</v>
       </c>
       <c r="CG92" t="n" s="10">
-        <v>130.5</v>
+        <v>130.6</v>
       </c>
       <c r="CH92" t="n" s="10">
-        <v>121.0</v>
+        <v>121.1</v>
       </c>
       <c r="CI92" t="n" s="10">
-        <v>107.1</v>
+        <v>107.0</v>
       </c>
       <c r="CJ92" t="n" s="10">
         <v>104.8</v>
@@ -37405,10 +37405,10 @@
         <v>101.4</v>
       </c>
       <c r="CL92" t="n" s="10">
-        <v>102.6</v>
+        <v>102.4</v>
       </c>
       <c r="CM92" t="n" s="10">
-        <v>96.0</v>
+        <v>96.1</v>
       </c>
       <c r="CN92" t="n" s="10">
         <v>100.3</v>
@@ -37420,7 +37420,7 @@
         <v>106.6</v>
       </c>
       <c r="CQ92" t="n" s="10">
-        <v>93.1</v>
+        <v>93.0</v>
       </c>
       <c r="CR92" t="n" s="10">
         <v>94.3</v>
@@ -37438,13 +37438,13 @@
         <v>96.3</v>
       </c>
       <c r="CW92" t="n" s="10">
-        <v>93.2</v>
+        <v>93.1</v>
       </c>
       <c r="CX92" t="n" s="10">
         <v>92.1</v>
       </c>
       <c r="CY92" t="n" s="10">
-        <v>101.6</v>
+        <v>101.5</v>
       </c>
       <c r="CZ92" t="n" s="10">
         <v>97.6</v>
@@ -37456,7 +37456,7 @@
         <v>97.4</v>
       </c>
       <c r="DC92" t="n" s="10">
-        <v>101.0</v>
+        <v>100.9</v>
       </c>
       <c r="DD92" t="n" s="10">
         <v>99.6</v>
@@ -37465,13 +37465,13 @@
         <v>98.6</v>
       </c>
       <c r="DF92" t="n" s="10">
-        <v>97.1</v>
+        <v>97.2</v>
       </c>
       <c r="DG92" t="n" s="10">
         <v>103.0</v>
       </c>
       <c r="DH92" t="n" s="10">
-        <v>97.0</v>
+        <v>96.9</v>
       </c>
       <c r="DI92" t="n" s="10">
         <v>102.3</v>
@@ -37483,10 +37483,10 @@
         <v>92.9</v>
       </c>
       <c r="DL92" t="n" s="10">
-        <v>96.2</v>
+        <v>96.1</v>
       </c>
       <c r="DM92" t="n" s="10">
-        <v>92.3</v>
+        <v>92.4</v>
       </c>
       <c r="DN92" t="n" s="10">
         <v>89.8</v>
@@ -37501,10 +37501,10 @@
         <v>100.0</v>
       </c>
       <c r="DR92" t="n" s="10">
-        <v>95.1</v>
+        <v>95.2</v>
       </c>
       <c r="DS92" t="n" s="10">
-        <v>89.7</v>
+        <v>89.8</v>
       </c>
       <c r="DT92" t="n" s="10">
         <v>92.6</v>
@@ -37513,25 +37513,25 @@
         <v>90.7</v>
       </c>
       <c r="DV92" t="n" s="10">
-        <v>94.9</v>
+        <v>95.0</v>
       </c>
       <c r="DW92" t="n" s="10">
         <v>95.3</v>
       </c>
       <c r="DX92" t="n" s="10">
-        <v>92.3</v>
+        <v>92.4</v>
       </c>
       <c r="DY92" t="n" s="10">
-        <v>93.8</v>
+        <v>93.7</v>
       </c>
       <c r="DZ92" t="n" s="10">
-        <v>100.9</v>
+        <v>100.8</v>
       </c>
       <c r="EA92" t="n" s="10">
-        <v>95.9</v>
+        <v>96.0</v>
       </c>
       <c r="EB92" t="n" s="10">
-        <v>96.1</v>
+        <v>96.2</v>
       </c>
       <c r="EC92" t="n" s="10">
         <v>92.3</v>
@@ -37557,28 +37557,28 @@
         <v>79.9</v>
       </c>
       <c r="E93" t="n" s="10">
-        <v>81.5</v>
+        <v>81.4</v>
       </c>
       <c r="F93" t="n" s="10">
         <v>84.4</v>
       </c>
       <c r="G93" t="n" s="10">
-        <v>86.2</v>
+        <v>86.0</v>
       </c>
       <c r="H93" t="n" s="10">
-        <v>89.4</v>
+        <v>89.5</v>
       </c>
       <c r="I93" t="n" s="10">
-        <v>87.3</v>
+        <v>87.2</v>
       </c>
       <c r="J93" t="n" s="10">
         <v>84.6</v>
       </c>
       <c r="K93" t="n" s="10">
-        <v>88.7</v>
+        <v>88.8</v>
       </c>
       <c r="L93" t="n" s="10">
-        <v>84.8</v>
+        <v>84.6</v>
       </c>
       <c r="M93" t="n" s="10">
         <v>86.3</v>
@@ -37587,7 +37587,7 @@
         <v>82.6</v>
       </c>
       <c r="O93" t="n" s="10">
-        <v>83.8</v>
+        <v>83.6</v>
       </c>
       <c r="P93" t="n" s="10">
         <v>86.3</v>
@@ -37596,16 +37596,16 @@
         <v>88.6</v>
       </c>
       <c r="R93" t="n" s="10">
-        <v>83.6</v>
+        <v>83.3</v>
       </c>
       <c r="S93" t="n" s="10">
-        <v>85.7</v>
+        <v>85.8</v>
       </c>
       <c r="T93" t="n" s="10">
+        <v>86.7</v>
+      </c>
+      <c r="U93" t="n" s="10">
         <v>86.9</v>
-      </c>
-      <c r="U93" t="n" s="10">
-        <v>86.8</v>
       </c>
       <c r="V93" t="n" s="10">
         <v>82.0</v>
@@ -37623,7 +37623,7 @@
         <v>89.5</v>
       </c>
       <c r="AA93" t="n" s="10">
-        <v>83.1</v>
+        <v>83.0</v>
       </c>
       <c r="AB93" t="n" s="10">
         <v>86.0</v>
@@ -37632,43 +37632,43 @@
         <v>81.5</v>
       </c>
       <c r="AD93" t="n" s="10">
-        <v>81.7</v>
+        <v>81.6</v>
       </c>
       <c r="AE93" t="n" s="10">
-        <v>79.7</v>
+        <v>79.6</v>
       </c>
       <c r="AF93" t="n" s="10">
-        <v>76.9</v>
+        <v>77.0</v>
       </c>
       <c r="AG93" t="n" s="10">
-        <v>78.2</v>
+        <v>78.0</v>
       </c>
       <c r="AH93" t="n" s="10">
         <v>88.0</v>
       </c>
       <c r="AI93" t="n" s="10">
-        <v>77.6</v>
+        <v>77.5</v>
       </c>
       <c r="AJ93" t="n" s="10">
-        <v>75.2</v>
+        <v>75.3</v>
       </c>
       <c r="AK93" t="n" s="10">
-        <v>79.6</v>
+        <v>79.7</v>
       </c>
       <c r="AL93" t="n" s="10">
-        <v>76.4</v>
+        <v>76.2</v>
       </c>
       <c r="AM93" t="n" s="10">
-        <v>79.3</v>
+        <v>79.2</v>
       </c>
       <c r="AN93" t="n" s="10">
-        <v>77.2</v>
+        <v>77.1</v>
       </c>
       <c r="AO93" t="n" s="10">
-        <v>80.3</v>
+        <v>80.4</v>
       </c>
       <c r="AP93" t="n" s="10">
-        <v>84.5</v>
+        <v>84.8</v>
       </c>
       <c r="AQ93" t="n" s="10">
         <v>79.8</v>
@@ -37677,7 +37677,7 @@
         <v>77.4</v>
       </c>
       <c r="AS93" t="n" s="10">
-        <v>78.5</v>
+        <v>78.6</v>
       </c>
       <c r="AT93" t="n" s="10">
         <v>67.9</v>
@@ -37686,43 +37686,43 @@
         <v>72.7</v>
       </c>
       <c r="AV93" t="n" s="10">
-        <v>77.6</v>
+        <v>77.7</v>
       </c>
       <c r="AW93" t="n" s="10">
-        <v>77.2</v>
+        <v>77.3</v>
       </c>
       <c r="AX93" t="n" s="10">
-        <v>76.5</v>
+        <v>76.7</v>
       </c>
       <c r="AY93" t="n" s="10">
-        <v>72.7</v>
+        <v>73.0</v>
       </c>
       <c r="AZ93" t="n" s="10">
-        <v>76.2</v>
+        <v>76.1</v>
       </c>
       <c r="BA93" t="n" s="10">
         <v>74.2</v>
       </c>
       <c r="BB93" t="n" s="10">
-        <v>70.6</v>
+        <v>70.3</v>
       </c>
       <c r="BC93" t="n" s="10">
-        <v>74.7</v>
+        <v>75.0</v>
       </c>
       <c r="BD93" t="n" s="10">
         <v>79.7</v>
       </c>
       <c r="BE93" t="n" s="10">
-        <v>73.9</v>
+        <v>74.1</v>
       </c>
       <c r="BF93" t="n" s="10">
         <v>84.1</v>
       </c>
       <c r="BG93" t="n" s="10">
-        <v>85.9</v>
+        <v>86.0</v>
       </c>
       <c r="BH93" t="n" s="10">
-        <v>80.8</v>
+        <v>80.9</v>
       </c>
       <c r="BI93" t="n" s="10">
         <v>79.6</v>
@@ -37731,28 +37731,28 @@
         <v>78.3</v>
       </c>
       <c r="BK93" t="n" s="10">
-        <v>86.8</v>
+        <v>86.9</v>
       </c>
       <c r="BL93" t="n" s="10">
-        <v>81.0</v>
+        <v>81.1</v>
       </c>
       <c r="BM93" t="n" s="10">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="BN93" t="n" s="10">
-        <v>82.8</v>
+        <v>83.0</v>
       </c>
       <c r="BO93" t="n" s="10">
-        <v>82.8</v>
+        <v>82.6</v>
       </c>
       <c r="BP93" t="n" s="10">
-        <v>82.3</v>
+        <v>82.5</v>
       </c>
       <c r="BQ93" t="n" s="10">
-        <v>92.3</v>
+        <v>92.2</v>
       </c>
       <c r="BR93" t="n" s="10">
-        <v>84.7</v>
+        <v>84.6</v>
       </c>
       <c r="BS93" t="n" s="10">
         <v>82.3</v>
@@ -37767,7 +37767,7 @@
         <v>92.3</v>
       </c>
       <c r="BW93" t="n" s="10">
-        <v>82.2</v>
+        <v>82.1</v>
       </c>
       <c r="BX93" t="n" s="10">
         <v>88.5</v>
@@ -37776,100 +37776,100 @@
         <v>87.8</v>
       </c>
       <c r="BZ93" t="n" s="10">
-        <v>87.5</v>
+        <v>87.6</v>
       </c>
       <c r="CA93" t="n" s="10">
-        <v>91.2</v>
+        <v>91.0</v>
       </c>
       <c r="CB93" t="n" s="10">
-        <v>91.6</v>
+        <v>91.5</v>
       </c>
       <c r="CC93" t="n" s="10">
-        <v>83.0</v>
+        <v>82.9</v>
       </c>
       <c r="CD93" t="n" s="10">
         <v>88.9</v>
       </c>
       <c r="CE93" t="n" s="10">
-        <v>95.3</v>
+        <v>95.4</v>
       </c>
       <c r="CF93" t="n" s="10">
-        <v>94.0</v>
+        <v>93.8</v>
       </c>
       <c r="CG93" t="n" s="10">
         <v>105.8</v>
       </c>
       <c r="CH93" t="n" s="10">
-        <v>88.4</v>
+        <v>88.5</v>
       </c>
       <c r="CI93" t="n" s="10">
-        <v>98.9</v>
+        <v>98.7</v>
       </c>
       <c r="CJ93" t="n" s="10">
-        <v>95.4</v>
+        <v>95.5</v>
       </c>
       <c r="CK93" t="n" s="10">
-        <v>94.9</v>
+        <v>95.0</v>
       </c>
       <c r="CL93" t="n" s="10">
-        <v>96.4</v>
+        <v>96.0</v>
       </c>
       <c r="CM93" t="n" s="10">
-        <v>86.6</v>
+        <v>86.9</v>
       </c>
       <c r="CN93" t="n" s="10">
         <v>85.9</v>
       </c>
       <c r="CO93" t="n" s="10">
-        <v>87.4</v>
+        <v>87.6</v>
       </c>
       <c r="CP93" t="n" s="10">
-        <v>137.3</v>
+        <v>137.4</v>
       </c>
       <c r="CQ93" t="n" s="10">
-        <v>82.3</v>
+        <v>82.1</v>
       </c>
       <c r="CR93" t="n" s="10">
-        <v>85.7</v>
+        <v>85.8</v>
       </c>
       <c r="CS93" t="n" s="10">
         <v>82.2</v>
       </c>
       <c r="CT93" t="n" s="10">
-        <v>92.5</v>
+        <v>92.3</v>
       </c>
       <c r="CU93" t="n" s="10">
-        <v>84.7</v>
+        <v>84.8</v>
       </c>
       <c r="CV93" t="n" s="10">
         <v>91.9</v>
       </c>
       <c r="CW93" t="n" s="10">
-        <v>90.8</v>
+        <v>90.7</v>
       </c>
       <c r="CX93" t="n" s="10">
-        <v>95.2</v>
+        <v>95.3</v>
       </c>
       <c r="CY93" t="n" s="10">
-        <v>104.0</v>
+        <v>103.9</v>
       </c>
       <c r="CZ93" t="n" s="10">
         <v>101.1</v>
       </c>
       <c r="DA93" t="n" s="10">
-        <v>107.1</v>
+        <v>107.0</v>
       </c>
       <c r="DB93" t="n" s="10">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="DC93" t="n" s="10">
-        <v>102.1</v>
+        <v>102.0</v>
       </c>
       <c r="DD93" t="n" s="10">
-        <v>99.4</v>
+        <v>99.5</v>
       </c>
       <c r="DE93" t="n" s="10">
-        <v>99.0</v>
+        <v>99.1</v>
       </c>
       <c r="DF93" t="n" s="10">
         <v>93.2</v>
@@ -37878,28 +37878,28 @@
         <v>100.9</v>
       </c>
       <c r="DH93" t="n" s="10">
-        <v>92.9</v>
+        <v>92.8</v>
       </c>
       <c r="DI93" t="n" s="10">
         <v>95.8</v>
       </c>
       <c r="DJ93" t="n" s="10">
-        <v>89.7</v>
+        <v>89.8</v>
       </c>
       <c r="DK93" t="n" s="10">
         <v>85.2</v>
       </c>
       <c r="DL93" t="n" s="10">
-        <v>88.8</v>
+        <v>88.6</v>
       </c>
       <c r="DM93" t="n" s="10">
-        <v>84.6</v>
+        <v>84.9</v>
       </c>
       <c r="DN93" t="n" s="10">
         <v>89.7</v>
       </c>
       <c r="DO93" t="n" s="10">
-        <v>88.3</v>
+        <v>88.4</v>
       </c>
       <c r="DP93" t="n" s="10">
         <v>87.9</v>
@@ -37908,46 +37908,46 @@
         <v>87.9</v>
       </c>
       <c r="DR93" t="n" s="10">
-        <v>90.8</v>
+        <v>90.9</v>
       </c>
       <c r="DS93" t="n" s="10">
-        <v>85.1</v>
+        <v>85.3</v>
       </c>
       <c r="DT93" t="n" s="10">
-        <v>89.9</v>
+        <v>90.0</v>
       </c>
       <c r="DU93" t="n" s="10">
-        <v>85.8</v>
+        <v>85.7</v>
       </c>
       <c r="DV93" t="n" s="10">
-        <v>85.8</v>
+        <v>85.9</v>
       </c>
       <c r="DW93" t="n" s="10">
         <v>88.8</v>
       </c>
       <c r="DX93" t="n" s="10">
-        <v>85.8</v>
+        <v>86.1</v>
       </c>
       <c r="DY93" t="n" s="10">
-        <v>85.3</v>
+        <v>85.2</v>
       </c>
       <c r="DZ93" t="n" s="10">
-        <v>90.6</v>
+        <v>90.5</v>
       </c>
       <c r="EA93" t="n" s="10">
-        <v>88.9</v>
+        <v>89.0</v>
       </c>
       <c r="EB93" t="n" s="10">
-        <v>94.8</v>
+        <v>95.0</v>
       </c>
       <c r="EC93" t="n" s="10">
-        <v>87.1</v>
+        <v>86.9</v>
       </c>
       <c r="ED93" t="n" s="10">
         <v>89.8</v>
       </c>
       <c r="EE93" t="n" s="10">
-        <v>92.0</v>
+        <v>92.2</v>
       </c>
     </row>
     <row r="94">
@@ -37967,55 +37967,55 @@
         <v>108.2</v>
       </c>
       <c r="G94" t="n" s="10">
-        <v>110.0</v>
+        <v>109.9</v>
       </c>
       <c r="H94" t="n" s="10">
-        <v>114.9</v>
+        <v>115.0</v>
       </c>
       <c r="I94" t="n" s="10">
-        <v>111.8</v>
+        <v>111.7</v>
       </c>
       <c r="J94" t="n" s="10">
-        <v>108.5</v>
+        <v>108.4</v>
       </c>
       <c r="K94" t="n" s="10">
         <v>114.0</v>
       </c>
       <c r="L94" t="n" s="10">
-        <v>108.5</v>
+        <v>108.3</v>
       </c>
       <c r="M94" t="n" s="10">
-        <v>110.8</v>
+        <v>110.9</v>
       </c>
       <c r="N94" t="n" s="10">
         <v>106.3</v>
       </c>
       <c r="O94" t="n" s="10">
-        <v>107.3</v>
+        <v>107.2</v>
       </c>
       <c r="P94" t="n" s="10">
         <v>110.8</v>
       </c>
       <c r="Q94" t="n" s="10">
-        <v>113.8</v>
+        <v>113.7</v>
       </c>
       <c r="R94" t="n" s="10">
-        <v>106.8</v>
+        <v>106.6</v>
       </c>
       <c r="S94" t="n" s="10">
-        <v>110.4</v>
+        <v>110.5</v>
       </c>
       <c r="T94" t="n" s="10">
-        <v>111.1</v>
+        <v>110.9</v>
       </c>
       <c r="U94" t="n" s="10">
         <v>111.7</v>
       </c>
       <c r="V94" t="n" s="10">
-        <v>105.3</v>
+        <v>105.4</v>
       </c>
       <c r="W94" t="n" s="10">
-        <v>109.8</v>
+        <v>109.7</v>
       </c>
       <c r="X94" t="n" s="10">
         <v>113.0</v>
@@ -38024,64 +38024,64 @@
         <v>109.0</v>
       </c>
       <c r="Z94" t="n" s="10">
-        <v>115.3</v>
+        <v>115.2</v>
       </c>
       <c r="AA94" t="n" s="10">
         <v>107.0</v>
       </c>
       <c r="AB94" t="n" s="10">
-        <v>110.9</v>
+        <v>111.0</v>
       </c>
       <c r="AC94" t="n" s="10">
         <v>105.1</v>
       </c>
       <c r="AD94" t="n" s="10">
-        <v>105.4</v>
+        <v>105.3</v>
       </c>
       <c r="AE94" t="n" s="10">
-        <v>102.7</v>
+        <v>102.6</v>
       </c>
       <c r="AF94" t="n" s="10">
         <v>99.4</v>
       </c>
       <c r="AG94" t="n" s="10">
-        <v>100.5</v>
+        <v>100.3</v>
       </c>
       <c r="AH94" t="n" s="10">
-        <v>113.5</v>
+        <v>113.6</v>
       </c>
       <c r="AI94" t="n" s="10">
-        <v>99.9</v>
+        <v>99.7</v>
       </c>
       <c r="AJ94" t="n" s="10">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="AK94" t="n" s="10">
         <v>102.8</v>
       </c>
       <c r="AL94" t="n" s="10">
-        <v>98.2</v>
+        <v>98.1</v>
       </c>
       <c r="AM94" t="n" s="10">
         <v>102.2</v>
       </c>
       <c r="AN94" t="n" s="10">
-        <v>99.6</v>
+        <v>99.5</v>
       </c>
       <c r="AO94" t="n" s="10">
         <v>103.8</v>
       </c>
       <c r="AP94" t="n" s="10">
-        <v>109.7</v>
+        <v>109.9</v>
       </c>
       <c r="AQ94" t="n" s="10">
-        <v>103.1</v>
+        <v>103.0</v>
       </c>
       <c r="AR94" t="n" s="10">
         <v>100.1</v>
       </c>
       <c r="AS94" t="n" s="10">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
       <c r="AT94" t="n" s="10">
         <v>88.0</v>
@@ -38096,10 +38096,10 @@
         <v>99.7</v>
       </c>
       <c r="AX94" t="n" s="10">
-        <v>99.1</v>
+        <v>99.2</v>
       </c>
       <c r="AY94" t="n" s="10">
-        <v>94.3</v>
+        <v>94.5</v>
       </c>
       <c r="AZ94" t="n" s="10">
         <v>98.0</v>
@@ -38108,55 +38108,55 @@
         <v>95.6</v>
       </c>
       <c r="BB94" t="n" s="10">
-        <v>90.6</v>
+        <v>90.4</v>
       </c>
       <c r="BC94" t="n" s="10">
-        <v>96.9</v>
+        <v>97.2</v>
       </c>
       <c r="BD94" t="n" s="10">
-        <v>102.9</v>
+        <v>102.8</v>
       </c>
       <c r="BE94" t="n" s="10">
-        <v>96.1</v>
+        <v>96.3</v>
       </c>
       <c r="BF94" t="n" s="10">
         <v>108.5</v>
       </c>
       <c r="BG94" t="n" s="10">
-        <v>111.5</v>
+        <v>111.6</v>
       </c>
       <c r="BH94" t="n" s="10">
         <v>104.8</v>
       </c>
       <c r="BI94" t="n" s="10">
-        <v>102.3</v>
+        <v>102.2</v>
       </c>
       <c r="BJ94" t="n" s="10">
         <v>100.2</v>
       </c>
       <c r="BK94" t="n" s="10">
-        <v>110.7</v>
+        <v>110.8</v>
       </c>
       <c r="BL94" t="n" s="10">
-        <v>102.9</v>
+        <v>103.0</v>
       </c>
       <c r="BM94" t="n" s="10">
         <v>103.9</v>
       </c>
       <c r="BN94" t="n" s="10">
-        <v>105.0</v>
+        <v>105.2</v>
       </c>
       <c r="BO94" t="n" s="10">
-        <v>103.8</v>
+        <v>103.6</v>
       </c>
       <c r="BP94" t="n" s="10">
-        <v>103.3</v>
+        <v>103.5</v>
       </c>
       <c r="BQ94" t="n" s="10">
-        <v>114.9</v>
+        <v>114.8</v>
       </c>
       <c r="BR94" t="n" s="10">
-        <v>106.3</v>
+        <v>106.2</v>
       </c>
       <c r="BS94" t="n" s="10">
         <v>101.6</v>
@@ -38171,19 +38171,19 @@
         <v>113.0</v>
       </c>
       <c r="BW94" t="n" s="10">
-        <v>100.0</v>
+        <v>99.9</v>
       </c>
       <c r="BX94" t="n" s="10">
         <v>107.6</v>
       </c>
       <c r="BY94" t="n" s="10">
-        <v>106.4</v>
+        <v>106.3</v>
       </c>
       <c r="BZ94" t="n" s="10">
-        <v>105.5</v>
+        <v>105.6</v>
       </c>
       <c r="CA94" t="n" s="10">
-        <v>109.4</v>
+        <v>109.3</v>
       </c>
       <c r="CB94" t="n" s="10">
         <v>109.5</v>
@@ -38195,73 +38195,73 @@
         <v>108.6</v>
       </c>
       <c r="CE94" t="n" s="10">
-        <v>113.8</v>
+        <v>113.9</v>
       </c>
       <c r="CF94" t="n" s="10">
-        <v>111.9</v>
+        <v>111.7</v>
       </c>
       <c r="CG94" t="n" s="10">
-        <v>125.8</v>
+        <v>125.9</v>
       </c>
       <c r="CH94" t="n" s="10">
-        <v>104.5</v>
+        <v>104.6</v>
       </c>
       <c r="CI94" t="n" s="10">
-        <v>116.4</v>
+        <v>116.2</v>
       </c>
       <c r="CJ94" t="n" s="10">
         <v>112.0</v>
       </c>
       <c r="CK94" t="n" s="10">
-        <v>110.8</v>
+        <v>110.9</v>
       </c>
       <c r="CL94" t="n" s="10">
-        <v>111.7</v>
+        <v>111.4</v>
       </c>
       <c r="CM94" t="n" s="10">
-        <v>100.8</v>
+        <v>101.1</v>
       </c>
       <c r="CN94" t="n" s="10">
-        <v>99.1</v>
+        <v>99.0</v>
       </c>
       <c r="CO94" t="n" s="10">
-        <v>100.9</v>
+        <v>101.0</v>
       </c>
       <c r="CP94" t="n" s="10">
-        <v>160.6</v>
+        <v>160.7</v>
       </c>
       <c r="CQ94" t="n" s="10">
-        <v>93.2</v>
+        <v>93.1</v>
       </c>
       <c r="CR94" t="n" s="10">
-        <v>97.1</v>
+        <v>97.2</v>
       </c>
       <c r="CS94" t="n" s="10">
         <v>92.8</v>
       </c>
       <c r="CT94" t="n" s="10">
-        <v>104.6</v>
+        <v>104.5</v>
       </c>
       <c r="CU94" t="n" s="10">
-        <v>95.7</v>
+        <v>95.8</v>
       </c>
       <c r="CV94" t="n" s="10">
         <v>103.5</v>
       </c>
       <c r="CW94" t="n" s="10">
-        <v>102.2</v>
+        <v>102.1</v>
       </c>
       <c r="CX94" t="n" s="10">
-        <v>106.5</v>
+        <v>106.6</v>
       </c>
       <c r="CY94" t="n" s="10">
-        <v>116.1</v>
+        <v>116.0</v>
       </c>
       <c r="CZ94" t="n" s="10">
         <v>113.3</v>
       </c>
       <c r="DA94" t="n" s="10">
-        <v>119.7</v>
+        <v>119.6</v>
       </c>
       <c r="DB94" t="n" s="10">
         <v>111.9</v>
@@ -38273,31 +38273,31 @@
         <v>111.4</v>
       </c>
       <c r="DE94" t="n" s="10">
-        <v>110.7</v>
+        <v>110.8</v>
       </c>
       <c r="DF94" t="n" s="10">
         <v>104.3</v>
       </c>
       <c r="DG94" t="n" s="10">
-        <v>112.7</v>
+        <v>112.8</v>
       </c>
       <c r="DH94" t="n" s="10">
-        <v>103.5</v>
+        <v>103.4</v>
       </c>
       <c r="DI94" t="n" s="10">
         <v>106.9</v>
       </c>
       <c r="DJ94" t="n" s="10">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="DK94" t="n" s="10">
-        <v>95.0</v>
+        <v>95.1</v>
       </c>
       <c r="DL94" t="n" s="10">
-        <v>99.0</v>
+        <v>98.9</v>
       </c>
       <c r="DM94" t="n" s="10">
-        <v>94.4</v>
+        <v>94.6</v>
       </c>
       <c r="DN94" t="n" s="10">
         <v>100.0</v>
@@ -38312,10 +38312,10 @@
         <v>97.6</v>
       </c>
       <c r="DR94" t="n" s="10">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="DS94" t="n" s="10">
-        <v>94.1</v>
+        <v>94.2</v>
       </c>
       <c r="DT94" t="n" s="10">
         <v>99.0</v>
@@ -38324,34 +38324,34 @@
         <v>94.3</v>
       </c>
       <c r="DV94" t="n" s="10">
-        <v>94.5</v>
+        <v>94.6</v>
       </c>
       <c r="DW94" t="n" s="10">
-        <v>97.7</v>
+        <v>97.6</v>
       </c>
       <c r="DX94" t="n" s="10">
-        <v>94.1</v>
+        <v>94.4</v>
       </c>
       <c r="DY94" t="n" s="10">
-        <v>93.2</v>
+        <v>93.1</v>
       </c>
       <c r="DZ94" t="n" s="10">
-        <v>98.7</v>
+        <v>98.6</v>
       </c>
       <c r="EA94" t="n" s="10">
-        <v>96.2</v>
+        <v>96.3</v>
       </c>
       <c r="EB94" t="n" s="10">
-        <v>102.2</v>
+        <v>102.4</v>
       </c>
       <c r="EC94" t="n" s="10">
-        <v>93.8</v>
+        <v>93.7</v>
       </c>
       <c r="ED94" t="n" s="10">
         <v>96.3</v>
       </c>
       <c r="EE94" t="n" s="10">
-        <v>98.5</v>
+        <v>98.6</v>
       </c>
     </row>
     <row r="95">
@@ -38374,22 +38374,22 @@
         <v>88.9</v>
       </c>
       <c r="G95" t="n" s="10">
-        <v>88.2</v>
+        <v>88.3</v>
       </c>
       <c r="H95" t="n" s="10">
         <v>95.9</v>
       </c>
       <c r="I95" t="n" s="10">
-        <v>96.0</v>
+        <v>96.1</v>
       </c>
       <c r="J95" t="n" s="10">
-        <v>90.7</v>
+        <v>90.8</v>
       </c>
       <c r="K95" t="n" s="10">
         <v>93.9</v>
       </c>
       <c r="L95" t="n" s="10">
-        <v>88.2</v>
+        <v>88.3</v>
       </c>
       <c r="M95" t="n" s="10">
         <v>88.1</v>
@@ -38407,19 +38407,19 @@
         <v>91.6</v>
       </c>
       <c r="R95" t="n" s="10">
-        <v>98.1</v>
+        <v>98.2</v>
       </c>
       <c r="S95" t="n" s="10">
-        <v>98.9</v>
+        <v>98.8</v>
       </c>
       <c r="T95" t="n" s="10">
-        <v>89.3</v>
+        <v>89.4</v>
       </c>
       <c r="U95" t="n" s="10">
-        <v>89.8</v>
+        <v>89.7</v>
       </c>
       <c r="V95" t="n" s="10">
-        <v>92.3</v>
+        <v>92.2</v>
       </c>
       <c r="W95" t="n" s="10">
         <v>90.6</v>
@@ -38446,10 +38446,10 @@
         <v>84.5</v>
       </c>
       <c r="AE95" t="n" s="10">
-        <v>83.1</v>
+        <v>83.2</v>
       </c>
       <c r="AF95" t="n" s="10">
-        <v>88.4</v>
+        <v>88.3</v>
       </c>
       <c r="AG95" t="n" s="10">
         <v>87.5</v>
@@ -38470,7 +38470,7 @@
         <v>83.3</v>
       </c>
       <c r="AM95" t="n" s="10">
-        <v>81.5</v>
+        <v>81.6</v>
       </c>
       <c r="AN95" t="n" s="10">
         <v>80.9</v>
@@ -38479,16 +38479,16 @@
         <v>79.1</v>
       </c>
       <c r="AP95" t="n" s="10">
-        <v>80.0</v>
+        <v>79.9</v>
       </c>
       <c r="AQ95" t="n" s="10">
-        <v>80.3</v>
+        <v>80.4</v>
       </c>
       <c r="AR95" t="n" s="10">
         <v>76.4</v>
       </c>
       <c r="AS95" t="n" s="10">
-        <v>77.5</v>
+        <v>77.4</v>
       </c>
       <c r="AT95" t="n" s="10">
         <v>74.4</v>
@@ -38503,10 +38503,10 @@
         <v>75.4</v>
       </c>
       <c r="AX95" t="n" s="10">
-        <v>74.5</v>
+        <v>74.4</v>
       </c>
       <c r="AY95" t="n" s="10">
-        <v>76.3</v>
+        <v>76.2</v>
       </c>
       <c r="AZ95" t="n" s="10">
         <v>76.6</v>
@@ -38515,13 +38515,13 @@
         <v>74.9</v>
       </c>
       <c r="BB95" t="n" s="10">
-        <v>74.1</v>
+        <v>74.2</v>
       </c>
       <c r="BC95" t="n" s="10">
-        <v>74.4</v>
+        <v>74.3</v>
       </c>
       <c r="BD95" t="n" s="10">
-        <v>75.1</v>
+        <v>75.2</v>
       </c>
       <c r="BE95" t="n" s="10">
         <v>75.9</v>
@@ -38533,10 +38533,10 @@
         <v>85.9</v>
       </c>
       <c r="BH95" t="n" s="10">
-        <v>76.7</v>
+        <v>76.6</v>
       </c>
       <c r="BI95" t="n" s="10">
-        <v>80.1</v>
+        <v>80.2</v>
       </c>
       <c r="BJ95" t="n" s="10">
         <v>79.6</v>
@@ -38545,7 +38545,7 @@
         <v>77.4</v>
       </c>
       <c r="BL95" t="n" s="10">
-        <v>76.0</v>
+        <v>75.9</v>
       </c>
       <c r="BM95" t="n" s="10">
         <v>77.8</v>
@@ -38602,7 +38602,7 @@
         <v>84.2</v>
       </c>
       <c r="CE95" t="n" s="10">
-        <v>83.1</v>
+        <v>83.0</v>
       </c>
       <c r="CF95" t="n" s="10">
         <v>88.4</v>
@@ -38611,7 +38611,7 @@
         <v>97.3</v>
       </c>
       <c r="CH95" t="n" s="10">
-        <v>116.2</v>
+        <v>116.1</v>
       </c>
       <c r="CI95" t="n" s="10">
         <v>90.2</v>
@@ -38623,10 +38623,10 @@
         <v>85.1</v>
       </c>
       <c r="CL95" t="n" s="10">
-        <v>86.9</v>
+        <v>87.1</v>
       </c>
       <c r="CM95" t="n" s="10">
-        <v>82.2</v>
+        <v>82.1</v>
       </c>
       <c r="CN95" t="n" s="10">
         <v>90.2</v>
@@ -38635,7 +38635,7 @@
         <v>82.8</v>
       </c>
       <c r="CP95" t="n" s="10">
-        <v>84.0</v>
+        <v>83.9</v>
       </c>
       <c r="CQ95" t="n" s="10">
         <v>86.9</v>
@@ -38656,13 +38656,13 @@
         <v>84.3</v>
       </c>
       <c r="CW95" t="n" s="10">
-        <v>80.5</v>
+        <v>80.6</v>
       </c>
       <c r="CX95" t="n" s="10">
-        <v>76.8</v>
+        <v>76.7</v>
       </c>
       <c r="CY95" t="n" s="10">
-        <v>85.7</v>
+        <v>85.8</v>
       </c>
       <c r="CZ95" t="n" s="10">
         <v>80.8</v>
@@ -38680,7 +38680,7 @@
         <v>83.4</v>
       </c>
       <c r="DE95" t="n" s="10">
-        <v>82.5</v>
+        <v>82.4</v>
       </c>
       <c r="DF95" t="n" s="10">
         <v>84.1</v>
@@ -38689,22 +38689,22 @@
         <v>88.5</v>
       </c>
       <c r="DH95" t="n" s="10">
-        <v>85.1</v>
+        <v>85.2</v>
       </c>
       <c r="DI95" t="n" s="10">
         <v>90.7</v>
       </c>
       <c r="DJ95" t="n" s="10">
-        <v>91.1</v>
+        <v>91.0</v>
       </c>
       <c r="DK95" t="n" s="10">
+        <v>83.5</v>
+      </c>
+      <c r="DL95" t="n" s="10">
+        <v>87.4</v>
+      </c>
+      <c r="DM95" t="n" s="10">
         <v>83.6</v>
-      </c>
-      <c r="DL95" t="n" s="10">
-        <v>87.3</v>
-      </c>
-      <c r="DM95" t="n" s="10">
-        <v>83.7</v>
       </c>
       <c r="DN95" t="n" s="10">
         <v>77.4</v>
@@ -38716,13 +38716,13 @@
         <v>87.4</v>
       </c>
       <c r="DQ95" t="n" s="10">
-        <v>94.0</v>
+        <v>93.9</v>
       </c>
       <c r="DR95" t="n" s="10">
-        <v>85.5</v>
+        <v>85.4</v>
       </c>
       <c r="DS95" t="n" s="10">
-        <v>81.2</v>
+        <v>81.1</v>
       </c>
       <c r="DT95" t="n" s="10">
         <v>83.0</v>
@@ -38740,25 +38740,25 @@
         <v>85.7</v>
       </c>
       <c r="DY95" t="n" s="10">
-        <v>89.3</v>
+        <v>89.4</v>
       </c>
       <c r="DZ95" t="n" s="10">
-        <v>96.8</v>
+        <v>97.0</v>
       </c>
       <c r="EA95" t="n" s="10">
-        <v>90.9</v>
+        <v>91.1</v>
       </c>
       <c r="EB95" t="n" s="10">
-        <v>88.3</v>
+        <v>88.4</v>
       </c>
       <c r="EC95" t="n" s="10">
-        <v>87.0</v>
+        <v>86.9</v>
       </c>
       <c r="ED95" t="n" s="10">
-        <v>94.8</v>
+        <v>93.2</v>
       </c>
       <c r="EE95" t="n" s="10">
-        <v>95.3</v>
+        <v>95.4</v>
       </c>
     </row>
     <row r="96">
@@ -38841,7 +38841,7 @@
         <v>112.3</v>
       </c>
       <c r="AB96" t="n" s="10">
-        <v>108.8</v>
+        <v>108.9</v>
       </c>
       <c r="AC96" t="n" s="10">
         <v>112.0</v>
@@ -38907,7 +38907,7 @@
         <v>93.8</v>
       </c>
       <c r="AX96" t="n" s="10">
-        <v>92.6</v>
+        <v>92.7</v>
       </c>
       <c r="AY96" t="n" s="10">
         <v>94.8</v>
@@ -39105,7 +39105,7 @@
         <v>91.7</v>
       </c>
       <c r="DL96" t="n" s="10">
-        <v>94.9</v>
+        <v>94.8</v>
       </c>
       <c r="DM96" t="n" s="10">
         <v>91.1</v>
@@ -39126,7 +39126,7 @@
         <v>91.8</v>
       </c>
       <c r="DS96" t="n" s="10">
-        <v>87.0</v>
+        <v>87.1</v>
       </c>
       <c r="DT96" t="n" s="10">
         <v>88.8</v>
@@ -39182,25 +39182,25 @@
         <v>70.7</v>
       </c>
       <c r="F97" t="n" s="10">
-        <v>74.9</v>
+        <v>74.8</v>
       </c>
       <c r="G97" t="n" s="10">
-        <v>69.5</v>
+        <v>69.6</v>
       </c>
       <c r="H97" t="n" s="10">
         <v>79.3</v>
       </c>
       <c r="I97" t="n" s="10">
-        <v>80.3</v>
+        <v>80.4</v>
       </c>
       <c r="J97" t="n" s="10">
         <v>74.4</v>
       </c>
       <c r="K97" t="n" s="10">
-        <v>74.7</v>
+        <v>74.6</v>
       </c>
       <c r="L97" t="n" s="10">
-        <v>74.4</v>
+        <v>74.5</v>
       </c>
       <c r="M97" t="n" s="10">
         <v>74.8</v>
@@ -39209,7 +39209,7 @@
         <v>78.0</v>
       </c>
       <c r="O97" t="n" s="10">
-        <v>74.1</v>
+        <v>74.2</v>
       </c>
       <c r="P97" t="n" s="10">
         <v>82.1</v>
@@ -39218,16 +39218,16 @@
         <v>84.9</v>
       </c>
       <c r="R97" t="n" s="10">
-        <v>83.6</v>
+        <v>83.8</v>
       </c>
       <c r="S97" t="n" s="10">
-        <v>89.7</v>
+        <v>89.6</v>
       </c>
       <c r="T97" t="n" s="10">
-        <v>76.0</v>
+        <v>76.2</v>
       </c>
       <c r="U97" t="n" s="10">
-        <v>78.1</v>
+        <v>78.0</v>
       </c>
       <c r="V97" t="n" s="10">
         <v>81.1</v>
@@ -39254,34 +39254,34 @@
         <v>73.9</v>
       </c>
       <c r="AD97" t="n" s="10">
-        <v>76.7</v>
+        <v>76.8</v>
       </c>
       <c r="AE97" t="n" s="10">
-        <v>74.9</v>
+        <v>75.0</v>
       </c>
       <c r="AF97" t="n" s="10">
         <v>85.2</v>
       </c>
       <c r="AG97" t="n" s="10">
-        <v>80.4</v>
+        <v>80.6</v>
       </c>
       <c r="AH97" t="n" s="10">
         <v>79.9</v>
       </c>
       <c r="AI97" t="n" s="10">
-        <v>72.7</v>
+        <v>72.8</v>
       </c>
       <c r="AJ97" t="n" s="10">
         <v>76.1</v>
       </c>
       <c r="AK97" t="n" s="10">
-        <v>71.8</v>
+        <v>71.7</v>
       </c>
       <c r="AL97" t="n" s="10">
-        <v>74.2</v>
+        <v>74.3</v>
       </c>
       <c r="AM97" t="n" s="10">
-        <v>69.0</v>
+        <v>69.1</v>
       </c>
       <c r="AN97" t="n" s="10">
         <v>73.4</v>
@@ -39290,19 +39290,19 @@
         <v>73.4</v>
       </c>
       <c r="AP97" t="n" s="10">
-        <v>68.1</v>
+        <v>67.9</v>
       </c>
       <c r="AQ97" t="n" s="10">
         <v>66.9</v>
       </c>
       <c r="AR97" t="n" s="10">
-        <v>62.3</v>
+        <v>62.4</v>
       </c>
       <c r="AS97" t="n" s="10">
         <v>64.9</v>
       </c>
       <c r="AT97" t="n" s="10">
-        <v>63.9</v>
+        <v>63.8</v>
       </c>
       <c r="AU97" t="n" s="10">
         <v>68.0</v>
@@ -39314,40 +39314,40 @@
         <v>64.3</v>
       </c>
       <c r="AX97" t="n" s="10">
-        <v>63.3</v>
+        <v>63.2</v>
       </c>
       <c r="AY97" t="n" s="10">
-        <v>69.1</v>
+        <v>68.9</v>
       </c>
       <c r="AZ97" t="n" s="10">
-        <v>66.3</v>
+        <v>66.4</v>
       </c>
       <c r="BA97" t="n" s="10">
         <v>62.9</v>
       </c>
       <c r="BB97" t="n" s="10">
-        <v>63.9</v>
+        <v>64.1</v>
       </c>
       <c r="BC97" t="n" s="10">
+        <v>65.9</v>
+      </c>
+      <c r="BD97" t="n" s="10">
+        <v>64.4</v>
+      </c>
+      <c r="BE97" t="n" s="10">
+        <v>66.0</v>
+      </c>
+      <c r="BF97" t="n" s="10">
+        <v>64.9</v>
+      </c>
+      <c r="BG97" t="n" s="10">
+        <v>98.1</v>
+      </c>
+      <c r="BH97" t="n" s="10">
         <v>66.2</v>
       </c>
-      <c r="BD97" t="n" s="10">
-        <v>64.3</v>
-      </c>
-      <c r="BE97" t="n" s="10">
-        <v>66.2</v>
-      </c>
-      <c r="BF97" t="n" s="10">
-        <v>64.8</v>
-      </c>
-      <c r="BG97" t="n" s="10">
-        <v>98.2</v>
-      </c>
-      <c r="BH97" t="n" s="10">
-        <v>66.3</v>
-      </c>
       <c r="BI97" t="n" s="10">
-        <v>69.9</v>
+        <v>70.0</v>
       </c>
       <c r="BJ97" t="n" s="10">
         <v>69.8</v>
@@ -39356,22 +39356,22 @@
         <v>67.1</v>
       </c>
       <c r="BL97" t="n" s="10">
-        <v>67.8</v>
+        <v>67.7</v>
       </c>
       <c r="BM97" t="n" s="10">
         <v>68.9</v>
       </c>
       <c r="BN97" t="n" s="10">
-        <v>71.1</v>
+        <v>70.9</v>
       </c>
       <c r="BO97" t="n" s="10">
-        <v>72.3</v>
+        <v>72.5</v>
       </c>
       <c r="BP97" t="n" s="10">
-        <v>77.9</v>
+        <v>77.8</v>
       </c>
       <c r="BQ97" t="n" s="10">
-        <v>73.5</v>
+        <v>73.6</v>
       </c>
       <c r="BR97" t="n" s="10">
         <v>78.4</v>
@@ -39389,7 +39389,7 @@
         <v>75.0</v>
       </c>
       <c r="BW97" t="n" s="10">
-        <v>79.3</v>
+        <v>79.4</v>
       </c>
       <c r="BX97" t="n" s="10">
         <v>77.8</v>
@@ -39398,10 +39398,10 @@
         <v>84.5</v>
       </c>
       <c r="BZ97" t="n" s="10">
-        <v>84.6</v>
+        <v>84.5</v>
       </c>
       <c r="CA97" t="n" s="10">
-        <v>81.9</v>
+        <v>82.0</v>
       </c>
       <c r="CB97" t="n" s="10">
         <v>76.4</v>
@@ -39413,52 +39413,52 @@
         <v>75.8</v>
       </c>
       <c r="CE97" t="n" s="10">
-        <v>77.7</v>
+        <v>77.6</v>
       </c>
       <c r="CF97" t="n" s="10">
-        <v>79.5</v>
+        <v>79.7</v>
       </c>
       <c r="CG97" t="n" s="10">
         <v>75.2</v>
       </c>
       <c r="CH97" t="n" s="10">
-        <v>86.6</v>
+        <v>86.5</v>
       </c>
       <c r="CI97" t="n" s="10">
-        <v>79.6</v>
+        <v>79.8</v>
       </c>
       <c r="CJ97" t="n" s="10">
         <v>86.2</v>
       </c>
       <c r="CK97" t="n" s="10">
-        <v>78.9</v>
+        <v>78.8</v>
       </c>
       <c r="CL97" t="n" s="10">
-        <v>77.9</v>
+        <v>78.2</v>
       </c>
       <c r="CM97" t="n" s="10">
-        <v>76.9</v>
+        <v>76.6</v>
       </c>
       <c r="CN97" t="n" s="10">
         <v>81.3</v>
       </c>
       <c r="CO97" t="n" s="10">
-        <v>73.3</v>
+        <v>73.2</v>
       </c>
       <c r="CP97" t="n" s="10">
         <v>83.7</v>
       </c>
       <c r="CQ97" t="n" s="10">
-        <v>81.0</v>
+        <v>81.1</v>
       </c>
       <c r="CR97" t="n" s="10">
-        <v>77.7</v>
+        <v>77.6</v>
       </c>
       <c r="CS97" t="n" s="10">
         <v>83.1</v>
       </c>
       <c r="CT97" t="n" s="10">
-        <v>75.3</v>
+        <v>75.5</v>
       </c>
       <c r="CU97" t="n" s="10">
         <v>80.1</v>
@@ -39467,25 +39467,25 @@
         <v>74.2</v>
       </c>
       <c r="CW97" t="n" s="10">
-        <v>75.6</v>
+        <v>75.7</v>
       </c>
       <c r="CX97" t="n" s="10">
-        <v>71.1</v>
+        <v>71.0</v>
       </c>
       <c r="CY97" t="n" s="10">
-        <v>78.6</v>
+        <v>78.7</v>
       </c>
       <c r="CZ97" t="n" s="10">
         <v>77.5</v>
       </c>
       <c r="DA97" t="n" s="10">
-        <v>81.9</v>
+        <v>82.0</v>
       </c>
       <c r="DB97" t="n" s="10">
-        <v>75.3</v>
+        <v>75.2</v>
       </c>
       <c r="DC97" t="n" s="10">
-        <v>79.9</v>
+        <v>80.0</v>
       </c>
       <c r="DD97" t="n" s="10">
         <v>79.2</v>
@@ -39494,28 +39494,28 @@
         <v>75.5</v>
       </c>
       <c r="DF97" t="n" s="10">
-        <v>80.8</v>
+        <v>80.7</v>
       </c>
       <c r="DG97" t="n" s="10">
-        <v>83.0</v>
+        <v>82.9</v>
       </c>
       <c r="DH97" t="n" s="10">
-        <v>81.5</v>
+        <v>81.6</v>
       </c>
       <c r="DI97" t="n" s="10">
         <v>80.9</v>
       </c>
       <c r="DJ97" t="n" s="10">
-        <v>84.0</v>
+        <v>83.9</v>
       </c>
       <c r="DK97" t="n" s="10">
-        <v>79.0</v>
+        <v>78.9</v>
       </c>
       <c r="DL97" t="n" s="10">
-        <v>84.4</v>
+        <v>84.5</v>
       </c>
       <c r="DM97" t="n" s="10">
-        <v>85.5</v>
+        <v>85.4</v>
       </c>
       <c r="DN97" t="n" s="10">
         <v>83.8</v>
@@ -39524,52 +39524,52 @@
         <v>79.6</v>
       </c>
       <c r="DP97" t="n" s="10">
-        <v>85.6</v>
+        <v>85.5</v>
       </c>
       <c r="DQ97" t="n" s="10">
         <v>94.3</v>
       </c>
       <c r="DR97" t="n" s="10">
-        <v>83.5</v>
+        <v>83.4</v>
       </c>
       <c r="DS97" t="n" s="10">
-        <v>79.6</v>
+        <v>79.4</v>
       </c>
       <c r="DT97" t="n" s="10">
-        <v>86.0</v>
+        <v>85.9</v>
       </c>
       <c r="DU97" t="n" s="10">
         <v>91.9</v>
       </c>
       <c r="DV97" t="n" s="10">
-        <v>100.8</v>
+        <v>100.7</v>
       </c>
       <c r="DW97" t="n" s="10">
         <v>96.7</v>
       </c>
       <c r="DX97" t="n" s="10">
-        <v>86.4</v>
+        <v>86.2</v>
       </c>
       <c r="DY97" t="n" s="10">
-        <v>87.6</v>
+        <v>87.7</v>
       </c>
       <c r="DZ97" t="n" s="10">
-        <v>94.6</v>
+        <v>94.7</v>
       </c>
       <c r="EA97" t="n" s="10">
-        <v>95.1</v>
+        <v>95.0</v>
       </c>
       <c r="EB97" t="n" s="10">
-        <v>90.9</v>
+        <v>90.8</v>
       </c>
       <c r="EC97" t="n" s="10">
-        <v>88.6</v>
+        <v>88.7</v>
       </c>
       <c r="ED97" t="n" s="10">
         <v>97.1</v>
       </c>
       <c r="EE97" t="n" s="10">
-        <v>98.5</v>
+        <v>98.4</v>
       </c>
     </row>
     <row r="98">
@@ -39996,13 +39996,13 @@
         <v>107.6</v>
       </c>
       <c r="G99" t="n" s="10">
-        <v>112.7</v>
+        <v>112.5</v>
       </c>
       <c r="H99" t="n" s="10">
-        <v>118.0</v>
+        <v>118.1</v>
       </c>
       <c r="I99" t="n" s="10">
-        <v>116.7</v>
+        <v>116.6</v>
       </c>
       <c r="J99" t="n" s="10">
         <v>112.2</v>
@@ -40011,7 +40011,7 @@
         <v>119.5</v>
       </c>
       <c r="L99" t="n" s="10">
-        <v>106.2</v>
+        <v>106.0</v>
       </c>
       <c r="M99" t="n" s="10">
         <v>105.8</v>
@@ -40020,25 +40020,25 @@
         <v>115.0</v>
       </c>
       <c r="O99" t="n" s="10">
-        <v>116.2</v>
+        <v>116.0</v>
       </c>
       <c r="P99" t="n" s="10">
         <v>113.4</v>
       </c>
       <c r="Q99" t="n" s="10">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="R99" t="n" s="10">
-        <v>116.8</v>
+        <v>116.5</v>
       </c>
       <c r="S99" t="n" s="10">
-        <v>111.2</v>
+        <v>111.3</v>
       </c>
       <c r="T99" t="n" s="10">
-        <v>106.4</v>
+        <v>106.2</v>
       </c>
       <c r="U99" t="n" s="10">
-        <v>105.2</v>
+        <v>105.3</v>
       </c>
       <c r="V99" t="n" s="10">
         <v>107.1</v>
@@ -40047,64 +40047,64 @@
         <v>99.8</v>
       </c>
       <c r="X99" t="n" s="10">
-        <v>114.0</v>
+        <v>113.9</v>
       </c>
       <c r="Y99" t="n" s="10">
-        <v>106.6</v>
+        <v>106.5</v>
       </c>
       <c r="Z99" t="n" s="10">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="AA99" t="n" s="10">
-        <v>96.8</v>
+        <v>96.7</v>
       </c>
       <c r="AB99" t="n" s="10">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="AC99" t="n" s="10">
         <v>106.5</v>
       </c>
       <c r="AD99" t="n" s="10">
-        <v>94.4</v>
+        <v>94.3</v>
       </c>
       <c r="AE99" t="n" s="10">
-        <v>93.7</v>
+        <v>93.6</v>
       </c>
       <c r="AF99" t="n" s="10">
-        <v>92.6</v>
+        <v>92.7</v>
       </c>
       <c r="AG99" t="n" s="10">
-        <v>96.3</v>
+        <v>96.1</v>
       </c>
       <c r="AH99" t="n" s="10">
-        <v>97.5</v>
+        <v>97.6</v>
       </c>
       <c r="AI99" t="n" s="10">
-        <v>97.8</v>
+        <v>97.6</v>
       </c>
       <c r="AJ99" t="n" s="10">
-        <v>91.6</v>
+        <v>91.7</v>
       </c>
       <c r="AK99" t="n" s="10">
         <v>92.6</v>
       </c>
       <c r="AL99" t="n" s="10">
-        <v>95.0</v>
+        <v>94.7</v>
       </c>
       <c r="AM99" t="n" s="10">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="AN99" t="n" s="10">
-        <v>90.4</v>
+        <v>90.3</v>
       </c>
       <c r="AO99" t="n" s="10">
         <v>86.2</v>
       </c>
       <c r="AP99" t="n" s="10">
-        <v>95.5</v>
+        <v>95.8</v>
       </c>
       <c r="AQ99" t="n" s="10">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="AR99" t="n" s="10">
         <v>93.9</v>
@@ -40119,16 +40119,16 @@
         <v>88.9</v>
       </c>
       <c r="AV99" t="n" s="10">
-        <v>89.1</v>
+        <v>89.2</v>
       </c>
       <c r="AW99" t="n" s="10">
-        <v>89.4</v>
+        <v>89.5</v>
       </c>
       <c r="AX99" t="n" s="10">
-        <v>88.6</v>
+        <v>88.8</v>
       </c>
       <c r="AY99" t="n" s="10">
-        <v>85.3</v>
+        <v>85.6</v>
       </c>
       <c r="AZ99" t="n" s="10">
         <v>89.1</v>
@@ -40137,55 +40137,55 @@
         <v>89.6</v>
       </c>
       <c r="BB99" t="n" s="10">
-        <v>85.7</v>
+        <v>85.5</v>
       </c>
       <c r="BC99" t="n" s="10">
-        <v>84.2</v>
+        <v>84.5</v>
       </c>
       <c r="BD99" t="n" s="10">
-        <v>87.6</v>
+        <v>87.5</v>
       </c>
       <c r="BE99" t="n" s="10">
-        <v>87.5</v>
+        <v>87.7</v>
       </c>
       <c r="BF99" t="n" s="10">
-        <v>93.2</v>
+        <v>93.1</v>
       </c>
       <c r="BG99" t="n" s="10">
-        <v>88.3</v>
+        <v>88.4</v>
       </c>
       <c r="BH99" t="n" s="10">
-        <v>88.7</v>
+        <v>88.8</v>
       </c>
       <c r="BI99" t="n" s="10">
-        <v>91.9</v>
+        <v>91.8</v>
       </c>
       <c r="BJ99" t="n" s="10">
         <v>91.3</v>
       </c>
       <c r="BK99" t="n" s="10">
-        <v>89.7</v>
+        <v>89.8</v>
       </c>
       <c r="BL99" t="n" s="10">
-        <v>85.5</v>
+        <v>85.6</v>
       </c>
       <c r="BM99" t="n" s="10">
-        <v>88.2</v>
+        <v>88.3</v>
       </c>
       <c r="BN99" t="n" s="10">
-        <v>86.4</v>
+        <v>86.6</v>
       </c>
       <c r="BO99" t="n" s="10">
-        <v>85.3</v>
+        <v>85.0</v>
       </c>
       <c r="BP99" t="n" s="10">
-        <v>89.1</v>
+        <v>89.3</v>
       </c>
       <c r="BQ99" t="n" s="10">
-        <v>85.8</v>
+        <v>85.6</v>
       </c>
       <c r="BR99" t="n" s="10">
-        <v>82.1</v>
+        <v>82.0</v>
       </c>
       <c r="BS99" t="n" s="10">
         <v>89.5</v>
@@ -40197,79 +40197,79 @@
         <v>83.8</v>
       </c>
       <c r="BV99" t="n" s="10">
-        <v>85.7</v>
+        <v>85.8</v>
       </c>
       <c r="BW99" t="n" s="10">
-        <v>84.3</v>
+        <v>84.2</v>
       </c>
       <c r="BX99" t="n" s="10">
         <v>92.4</v>
       </c>
       <c r="BY99" t="n" s="10">
-        <v>89.7</v>
+        <v>89.6</v>
       </c>
       <c r="BZ99" t="n" s="10">
-        <v>88.3</v>
+        <v>88.4</v>
       </c>
       <c r="CA99" t="n" s="10">
-        <v>94.5</v>
+        <v>94.3</v>
       </c>
       <c r="CB99" t="n" s="10">
         <v>85.9</v>
       </c>
       <c r="CC99" t="n" s="10">
-        <v>89.8</v>
+        <v>89.7</v>
       </c>
       <c r="CD99" t="n" s="10">
-        <v>93.3</v>
+        <v>93.2</v>
       </c>
       <c r="CE99" t="n" s="10">
-        <v>88.1</v>
+        <v>88.2</v>
       </c>
       <c r="CF99" t="n" s="10">
-        <v>97.1</v>
+        <v>96.9</v>
       </c>
       <c r="CG99" t="n" s="10">
-        <v>154.6</v>
+        <v>154.7</v>
       </c>
       <c r="CH99" t="n" s="10">
-        <v>148.3</v>
+        <v>148.6</v>
       </c>
       <c r="CI99" t="n" s="10">
-        <v>101.2</v>
+        <v>100.9</v>
       </c>
       <c r="CJ99" t="n" s="10">
         <v>90.7</v>
       </c>
       <c r="CK99" t="n" s="10">
-        <v>91.5</v>
+        <v>91.6</v>
       </c>
       <c r="CL99" t="n" s="10">
-        <v>96.2</v>
+        <v>95.8</v>
       </c>
       <c r="CM99" t="n" s="10">
-        <v>88.2</v>
+        <v>88.6</v>
       </c>
       <c r="CN99" t="n" s="10">
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
       <c r="CO99" t="n" s="10">
-        <v>94.4</v>
+        <v>94.5</v>
       </c>
       <c r="CP99" t="n" s="10">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="CQ99" t="n" s="10">
-        <v>93.4</v>
+        <v>93.2</v>
       </c>
       <c r="CR99" t="n" s="10">
-        <v>91.5</v>
+        <v>91.7</v>
       </c>
       <c r="CS99" t="n" s="10">
         <v>89.2</v>
       </c>
       <c r="CT99" t="n" s="10">
-        <v>90.0</v>
+        <v>89.9</v>
       </c>
       <c r="CU99" t="n" s="10">
         <v>83.9</v>
@@ -40278,25 +40278,25 @@
         <v>96.3</v>
       </c>
       <c r="CW99" t="n" s="10">
-        <v>85.9</v>
+        <v>85.8</v>
       </c>
       <c r="CX99" t="n" s="10">
-        <v>83.8</v>
+        <v>83.9</v>
       </c>
       <c r="CY99" t="n" s="10">
-        <v>94.3</v>
+        <v>94.2</v>
       </c>
       <c r="CZ99" t="n" s="10">
         <v>84.9</v>
       </c>
       <c r="DA99" t="n" s="10">
-        <v>94.3</v>
+        <v>94.2</v>
       </c>
       <c r="DB99" t="n" s="10">
         <v>108.5</v>
       </c>
       <c r="DC99" t="n" s="10">
-        <v>92.5</v>
+        <v>92.4</v>
       </c>
       <c r="DD99" t="n" s="10">
         <v>89.2</v>
@@ -40311,28 +40311,28 @@
         <v>95.7</v>
       </c>
       <c r="DH99" t="n" s="10">
-        <v>89.6</v>
+        <v>89.5</v>
       </c>
       <c r="DI99" t="n" s="10">
         <v>103.5</v>
       </c>
       <c r="DJ99" t="n" s="10">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="DK99" t="n" s="10">
-        <v>89.8</v>
+        <v>89.9</v>
       </c>
       <c r="DL99" t="n" s="10">
-        <v>90.8</v>
+        <v>90.6</v>
       </c>
       <c r="DM99" t="n" s="10">
-        <v>81.7</v>
+        <v>82.0</v>
       </c>
       <c r="DN99" t="n" s="10">
-        <v>69.1</v>
+        <v>69.2</v>
       </c>
       <c r="DO99" t="n" s="10">
-        <v>86.5</v>
+        <v>86.6</v>
       </c>
       <c r="DP99" t="n" s="10">
         <v>90.0</v>
@@ -40341,46 +40341,46 @@
         <v>93.7</v>
       </c>
       <c r="DR99" t="n" s="10">
-        <v>88.2</v>
+        <v>88.4</v>
       </c>
       <c r="DS99" t="n" s="10">
-        <v>83.7</v>
+        <v>83.9</v>
       </c>
       <c r="DT99" t="n" s="10">
         <v>79.3</v>
       </c>
       <c r="DU99" t="n" s="10">
-        <v>72.4</v>
+        <v>72.3</v>
       </c>
       <c r="DV99" t="n" s="10">
-        <v>75.5</v>
+        <v>75.7</v>
       </c>
       <c r="DW99" t="n" s="10">
         <v>78.3</v>
       </c>
       <c r="DX99" t="n" s="10">
+        <v>86.0</v>
+      </c>
+      <c r="DY99" t="n" s="10">
+        <v>91.1</v>
+      </c>
+      <c r="DZ99" t="n" s="10">
+        <v>99.6</v>
+      </c>
+      <c r="EA99" t="n" s="10">
+        <v>86.0</v>
+      </c>
+      <c r="EB99" t="n" s="10">
         <v>85.6</v>
       </c>
-      <c r="DY99" t="n" s="10">
-        <v>91.3</v>
-      </c>
-      <c r="DZ99" t="n" s="10">
-        <v>99.7</v>
-      </c>
-      <c r="EA99" t="n" s="10">
-        <v>85.9</v>
-      </c>
-      <c r="EB99" t="n" s="10">
-        <v>85.4</v>
-      </c>
       <c r="EC99" t="n" s="10">
-        <v>83.8</v>
+        <v>83.7</v>
       </c>
       <c r="ED99" t="n" s="10">
-        <v>91.7</v>
+        <v>91.8</v>
       </c>
       <c r="EE99" t="n" s="10">
-        <v>91.1</v>
+        <v>91.2</v>
       </c>
     </row>
     <row r="100">
@@ -40833,7 +40833,7 @@
         <v>93.4</v>
       </c>
       <c r="N102" t="n" s="10">
-        <v>92.9</v>
+        <v>92.8</v>
       </c>
       <c r="O102" t="n" s="10">
         <v>92.2</v>
@@ -40848,7 +40848,7 @@
         <v>90.6</v>
       </c>
       <c r="S102" t="n" s="10">
-        <v>90.0</v>
+        <v>89.9</v>
       </c>
       <c r="T102" t="n" s="10">
         <v>89.3</v>
@@ -40875,7 +40875,7 @@
         <v>83.3</v>
       </c>
       <c r="AB102" t="n" s="10">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="AC102" t="n" s="10">
         <v>81.4</v>
@@ -40944,7 +40944,7 @@
         <v>71.2</v>
       </c>
       <c r="AY102" t="n" s="10">
-        <v>71.0</v>
+        <v>71.1</v>
       </c>
       <c r="AZ102" t="n" s="10">
         <v>71.1</v>
@@ -40980,7 +40980,7 @@
         <v>75.8</v>
       </c>
       <c r="BK102" t="n" s="10">
-        <v>76.2</v>
+        <v>76.3</v>
       </c>
       <c r="BL102" t="n" s="10">
         <v>76.6</v>
@@ -40989,7 +40989,7 @@
         <v>76.8</v>
       </c>
       <c r="BN102" t="n" s="10">
-        <v>77.0</v>
+        <v>77.1</v>
       </c>
       <c r="BO102" t="n" s="10">
         <v>77.3</v>
@@ -41010,7 +41010,7 @@
         <v>78.9</v>
       </c>
       <c r="BU102" t="n" s="10">
-        <v>79.4</v>
+        <v>79.3</v>
       </c>
       <c r="BV102" t="n" s="10">
         <v>79.8</v>
@@ -41037,7 +41037,7 @@
         <v>83.8</v>
       </c>
       <c r="CD102" t="n" s="10">
-        <v>84.4</v>
+        <v>84.3</v>
       </c>
       <c r="CE102" t="n" s="10">
         <v>84.8</v>
@@ -41097,7 +41097,7 @@
         <v>78.7</v>
       </c>
       <c r="CX102" t="n" s="10">
-        <v>78.6</v>
+        <v>78.5</v>
       </c>
       <c r="CY102" t="n" s="10">
         <v>78.5</v>
@@ -41160,13 +41160,13 @@
         <v>81.6</v>
       </c>
       <c r="DS102" t="n" s="10">
-        <v>82.0</v>
+        <v>82.1</v>
       </c>
       <c r="DT102" t="n" s="10">
         <v>82.6</v>
       </c>
       <c r="DU102" t="n" s="10">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="DV102" t="n" s="10">
         <v>83.8</v>
@@ -41181,7 +41181,7 @@
         <v>85.8</v>
       </c>
       <c r="DZ102" t="n" s="10">
-        <v>86.4</v>
+        <v>86.5</v>
       </c>
       <c r="EA102" t="n" s="10">
         <v>87.2</v>
@@ -41193,7 +41193,7 @@
         <v>88.7</v>
       </c>
       <c r="ED102" t="n" s="10">
-        <v>89.4</v>
+        <v>89.5</v>
       </c>
       <c r="EE102" t="n" s="10">
         <v>90.0</v>
@@ -41207,22 +41207,22 @@
         <v>34</v>
       </c>
       <c r="D103" t="n" s="10">
-        <v>121.2</v>
+        <v>121.3</v>
       </c>
       <c r="E103" t="n" s="10">
-        <v>121.0</v>
+        <v>121.1</v>
       </c>
       <c r="F103" t="n" s="10">
-        <v>120.6</v>
+        <v>120.8</v>
       </c>
       <c r="G103" t="n" s="10">
-        <v>120.4</v>
+        <v>120.5</v>
       </c>
       <c r="H103" t="n" s="10">
-        <v>120.4</v>
+        <v>120.3</v>
       </c>
       <c r="I103" t="n" s="10">
-        <v>120.1</v>
+        <v>120.0</v>
       </c>
       <c r="J103" t="n" s="10">
         <v>119.7</v>
@@ -41231,13 +41231,13 @@
         <v>119.1</v>
       </c>
       <c r="L103" t="n" s="10">
-        <v>118.6</v>
+        <v>118.5</v>
       </c>
       <c r="M103" t="n" s="10">
         <v>117.9</v>
       </c>
       <c r="N103" t="n" s="10">
-        <v>117.3</v>
+        <v>117.2</v>
       </c>
       <c r="O103" t="n" s="10">
         <v>116.5</v>
@@ -41249,7 +41249,7 @@
         <v>115.3</v>
       </c>
       <c r="R103" t="n" s="10">
-        <v>114.7</v>
+        <v>114.6</v>
       </c>
       <c r="S103" t="n" s="10">
         <v>113.9</v>
@@ -41261,7 +41261,7 @@
         <v>112.3</v>
       </c>
       <c r="V103" t="n" s="10">
-        <v>111.5</v>
+        <v>111.4</v>
       </c>
       <c r="W103" t="n" s="10">
         <v>110.5</v>
@@ -41276,7 +41276,7 @@
         <v>106.9</v>
       </c>
       <c r="AA103" t="n" s="10">
-        <v>105.7</v>
+        <v>105.6</v>
       </c>
       <c r="AB103" t="n" s="10">
         <v>104.4</v>
@@ -41318,7 +41318,7 @@
         <v>97.4</v>
       </c>
       <c r="AO103" t="n" s="10">
-        <v>96.7</v>
+        <v>96.6</v>
       </c>
       <c r="AP103" t="n" s="10">
         <v>95.7</v>
@@ -41333,16 +41333,16 @@
         <v>92.7</v>
       </c>
       <c r="AT103" t="n" s="10">
-        <v>91.6</v>
+        <v>91.7</v>
       </c>
       <c r="AU103" t="n" s="10">
-        <v>90.7</v>
+        <v>90.8</v>
       </c>
       <c r="AV103" t="n" s="10">
         <v>90.0</v>
       </c>
       <c r="AW103" t="n" s="10">
-        <v>89.3</v>
+        <v>89.4</v>
       </c>
       <c r="AX103" t="n" s="10">
         <v>88.8</v>
@@ -41351,19 +41351,19 @@
         <v>88.6</v>
       </c>
       <c r="AZ103" t="n" s="10">
-        <v>88.5</v>
+        <v>88.6</v>
       </c>
       <c r="BA103" t="n" s="10">
         <v>88.7</v>
       </c>
       <c r="BB103" t="n" s="10">
-        <v>89.0</v>
+        <v>89.1</v>
       </c>
       <c r="BC103" t="n" s="10">
         <v>89.5</v>
       </c>
       <c r="BD103" t="n" s="10">
-        <v>90.0</v>
+        <v>90.1</v>
       </c>
       <c r="BE103" t="n" s="10">
         <v>90.6</v>
@@ -41384,7 +41384,7 @@
         <v>93.8</v>
       </c>
       <c r="BK103" t="n" s="10">
-        <v>94.2</v>
+        <v>94.3</v>
       </c>
       <c r="BL103" t="n" s="10">
         <v>94.5</v>
@@ -41414,7 +41414,7 @@
         <v>95.2</v>
       </c>
       <c r="BU103" t="n" s="10">
-        <v>95.5</v>
+        <v>95.4</v>
       </c>
       <c r="BV103" t="n" s="10">
         <v>95.6</v>
@@ -41426,19 +41426,19 @@
         <v>95.8</v>
       </c>
       <c r="BY103" t="n" s="10">
-        <v>96.0</v>
+        <v>95.9</v>
       </c>
       <c r="BZ103" t="n" s="10">
         <v>96.0</v>
       </c>
       <c r="CA103" t="n" s="10">
-        <v>96.2</v>
+        <v>96.1</v>
       </c>
       <c r="CB103" t="n" s="10">
         <v>96.3</v>
       </c>
       <c r="CC103" t="n" s="10">
-        <v>96.5</v>
+        <v>96.4</v>
       </c>
       <c r="CD103" t="n" s="10">
         <v>96.7</v>
@@ -41465,7 +41465,7 @@
         <v>97.2</v>
       </c>
       <c r="CL103" t="n" s="10">
-        <v>96.8</v>
+        <v>96.7</v>
       </c>
       <c r="CM103" t="n" s="10">
         <v>96.1</v>
@@ -41492,7 +41492,7 @@
         <v>88.6</v>
       </c>
       <c r="CU103" t="n" s="10">
-        <v>87.9</v>
+        <v>87.8</v>
       </c>
       <c r="CV103" t="n" s="10">
         <v>87.3</v>
@@ -41546,7 +41546,7 @@
         <v>88.4</v>
       </c>
       <c r="DM103" t="n" s="10">
-        <v>88.1</v>
+        <v>88.2</v>
       </c>
       <c r="DN103" t="n" s="10">
         <v>88.1</v>
@@ -41564,7 +41564,7 @@
         <v>88.8</v>
       </c>
       <c r="DS103" t="n" s="10">
-        <v>89.0</v>
+        <v>89.1</v>
       </c>
       <c r="DT103" t="n" s="10">
         <v>89.4</v>
@@ -41588,10 +41588,10 @@
         <v>92.2</v>
       </c>
       <c r="EA103" t="n" s="10">
-        <v>92.7</v>
+        <v>92.8</v>
       </c>
       <c r="EB103" t="n" s="10">
-        <v>93.3</v>
+        <v>93.4</v>
       </c>
       <c r="EC103" t="n" s="10">
         <v>94.0</v>
@@ -41632,7 +41632,7 @@
         <v>100.2</v>
       </c>
       <c r="J104" t="n" s="10">
-        <v>99.5</v>
+        <v>99.4</v>
       </c>
       <c r="K104" t="n" s="10">
         <v>98.5</v>
@@ -41659,7 +41659,7 @@
         <v>90.6</v>
       </c>
       <c r="S104" t="n" s="10">
-        <v>89.4</v>
+        <v>89.3</v>
       </c>
       <c r="T104" t="n" s="10">
         <v>88.2</v>
@@ -41695,10 +41695,10 @@
         <v>77.0</v>
       </c>
       <c r="AE104" t="n" s="10">
-        <v>76.7</v>
+        <v>76.6</v>
       </c>
       <c r="AF104" t="n" s="10">
-        <v>76.6</v>
+        <v>76.5</v>
       </c>
       <c r="AG104" t="n" s="10">
         <v>76.3</v>
@@ -41716,7 +41716,7 @@
         <v>75.3</v>
       </c>
       <c r="AL104" t="n" s="10">
-        <v>75.0</v>
+        <v>74.9</v>
       </c>
       <c r="AM104" t="n" s="10">
         <v>74.5</v>
@@ -41746,7 +41746,7 @@
         <v>69.5</v>
       </c>
       <c r="AV104" t="n" s="10">
-        <v>68.9</v>
+        <v>69.0</v>
       </c>
       <c r="AW104" t="n" s="10">
         <v>68.4</v>
@@ -41755,10 +41755,10 @@
         <v>67.9</v>
       </c>
       <c r="AY104" t="n" s="10">
+        <v>67.7</v>
+      </c>
+      <c r="AZ104" t="n" s="10">
         <v>67.6</v>
-      </c>
-      <c r="AZ104" t="n" s="10">
-        <v>67.5</v>
       </c>
       <c r="BA104" t="n" s="10">
         <v>67.6</v>
@@ -41770,10 +41770,10 @@
         <v>68.1</v>
       </c>
       <c r="BD104" t="n" s="10">
-        <v>68.3</v>
+        <v>68.4</v>
       </c>
       <c r="BE104" t="n" s="10">
-        <v>68.7</v>
+        <v>68.8</v>
       </c>
       <c r="BF104" t="n" s="10">
         <v>69.2</v>
@@ -41782,7 +41782,7 @@
         <v>69.8</v>
       </c>
       <c r="BH104" t="n" s="10">
-        <v>70.5</v>
+        <v>70.6</v>
       </c>
       <c r="BI104" t="n" s="10">
         <v>71.3</v>
@@ -41797,7 +41797,7 @@
         <v>73.2</v>
       </c>
       <c r="BM104" t="n" s="10">
-        <v>73.6</v>
+        <v>73.7</v>
       </c>
       <c r="BN104" t="n" s="10">
         <v>74.1</v>
@@ -41827,7 +41827,7 @@
         <v>77.0</v>
       </c>
       <c r="BW104" t="n" s="10">
-        <v>77.4</v>
+        <v>77.3</v>
       </c>
       <c r="BX104" t="n" s="10">
         <v>77.8</v>
@@ -41845,7 +41845,7 @@
         <v>79.0</v>
       </c>
       <c r="CC104" t="n" s="10">
-        <v>79.4</v>
+        <v>79.3</v>
       </c>
       <c r="CD104" t="n" s="10">
         <v>79.6</v>
@@ -41860,7 +41860,7 @@
         <v>80.2</v>
       </c>
       <c r="CH104" t="n" s="10">
-        <v>80.5</v>
+        <v>80.4</v>
       </c>
       <c r="CI104" t="n" s="10">
         <v>80.8</v>
@@ -41899,7 +41899,7 @@
         <v>74.8</v>
       </c>
       <c r="CU104" t="n" s="10">
-        <v>73.6</v>
+        <v>73.5</v>
       </c>
       <c r="CV104" t="n" s="10">
         <v>72.3</v>
@@ -41956,19 +41956,19 @@
         <v>74.6</v>
       </c>
       <c r="DN104" t="n" s="10">
-        <v>75.0</v>
+        <v>75.1</v>
       </c>
       <c r="DO104" t="n" s="10">
-        <v>75.5</v>
+        <v>75.6</v>
       </c>
       <c r="DP104" t="n" s="10">
-        <v>76.1</v>
+        <v>76.2</v>
       </c>
       <c r="DQ104" t="n" s="10">
-        <v>76.7</v>
+        <v>76.8</v>
       </c>
       <c r="DR104" t="n" s="10">
-        <v>77.4</v>
+        <v>77.5</v>
       </c>
       <c r="DS104" t="n" s="10">
         <v>78.2</v>
@@ -41995,7 +41995,7 @@
         <v>83.9</v>
       </c>
       <c r="EA104" t="n" s="10">
-        <v>84.6</v>
+        <v>84.7</v>
       </c>
       <c r="EB104" t="n" s="10">
         <v>85.4</v>
@@ -42018,94 +42018,94 @@
         <v>34</v>
       </c>
       <c r="D105" t="n" s="10">
-        <v>128.4</v>
+        <v>128.6</v>
       </c>
       <c r="E105" t="n" s="10">
-        <v>127.7</v>
+        <v>128.0</v>
       </c>
       <c r="F105" t="n" s="10">
-        <v>127.0</v>
+        <v>127.4</v>
       </c>
       <c r="G105" t="n" s="10">
-        <v>126.5</v>
+        <v>126.9</v>
       </c>
       <c r="H105" t="n" s="10">
-        <v>126.0</v>
+        <v>126.3</v>
       </c>
       <c r="I105" t="n" s="10">
         <v>125.3</v>
       </c>
       <c r="J105" t="n" s="10">
-        <v>124.4</v>
+        <v>124.2</v>
       </c>
       <c r="K105" t="n" s="10">
-        <v>123.4</v>
+        <v>122.7</v>
       </c>
       <c r="L105" t="n" s="10">
-        <v>122.3</v>
+        <v>121.2</v>
       </c>
       <c r="M105" t="n" s="10">
-        <v>121.0</v>
+        <v>119.5</v>
       </c>
       <c r="N105" t="n" s="10">
-        <v>119.6</v>
+        <v>117.7</v>
       </c>
       <c r="O105" t="n" s="10">
-        <v>118.0</v>
+        <v>115.8</v>
       </c>
       <c r="P105" t="n" s="10">
-        <v>116.5</v>
+        <v>114.0</v>
       </c>
       <c r="Q105" t="n" s="10">
-        <v>115.3</v>
+        <v>112.4</v>
       </c>
       <c r="R105" t="n" s="10">
-        <v>113.9</v>
+        <v>110.9</v>
       </c>
       <c r="S105" t="n" s="10">
-        <v>112.4</v>
+        <v>109.6</v>
       </c>
       <c r="T105" t="n" s="10">
-        <v>111.0</v>
+        <v>108.5</v>
       </c>
       <c r="U105" t="n" s="10">
-        <v>109.7</v>
+        <v>107.5</v>
       </c>
       <c r="V105" t="n" s="10">
-        <v>108.4</v>
+        <v>106.5</v>
       </c>
       <c r="W105" t="n" s="10">
-        <v>107.0</v>
+        <v>105.5</v>
       </c>
       <c r="X105" t="n" s="10">
-        <v>105.3</v>
+        <v>104.3</v>
       </c>
       <c r="Y105" t="n" s="10">
-        <v>103.7</v>
+        <v>103.0</v>
       </c>
       <c r="Z105" t="n" s="10">
-        <v>102.2</v>
+        <v>101.9</v>
       </c>
       <c r="AA105" t="n" s="10">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="AB105" t="n" s="10">
-        <v>99.1</v>
+        <v>99.4</v>
       </c>
       <c r="AC105" t="n" s="10">
-        <v>97.8</v>
+        <v>98.3</v>
       </c>
       <c r="AD105" t="n" s="10">
-        <v>97.0</v>
+        <v>97.4</v>
       </c>
       <c r="AE105" t="n" s="10">
-        <v>96.6</v>
+        <v>96.9</v>
       </c>
       <c r="AF105" t="n" s="10">
         <v>96.5</v>
       </c>
       <c r="AG105" t="n" s="10">
-        <v>96.2</v>
+        <v>96.3</v>
       </c>
       <c r="AH105" t="n" s="10">
         <v>96.0</v>
@@ -42123,7 +42123,7 @@
         <v>94.5</v>
       </c>
       <c r="AM105" t="n" s="10">
-        <v>93.8</v>
+        <v>93.9</v>
       </c>
       <c r="AN105" t="n" s="10">
         <v>93.4</v>
@@ -42144,10 +42144,10 @@
         <v>88.3</v>
       </c>
       <c r="AT105" t="n" s="10">
-        <v>87.4</v>
+        <v>87.3</v>
       </c>
       <c r="AU105" t="n" s="10">
-        <v>86.4</v>
+        <v>86.3</v>
       </c>
       <c r="AV105" t="n" s="10">
         <v>85.5</v>
@@ -42159,13 +42159,13 @@
         <v>84.0</v>
       </c>
       <c r="AY105" t="n" s="10">
-        <v>83.6</v>
+        <v>83.5</v>
       </c>
       <c r="AZ105" t="n" s="10">
         <v>83.4</v>
       </c>
       <c r="BA105" t="n" s="10">
-        <v>83.5</v>
+        <v>83.4</v>
       </c>
       <c r="BB105" t="n" s="10">
         <v>83.7</v>
@@ -42189,10 +42189,10 @@
         <v>87.1</v>
       </c>
       <c r="BI105" t="n" s="10">
-        <v>88.0</v>
+        <v>87.9</v>
       </c>
       <c r="BJ105" t="n" s="10">
-        <v>88.8</v>
+        <v>88.7</v>
       </c>
       <c r="BK105" t="n" s="10">
         <v>89.4</v>
@@ -42246,7 +42246,7 @@
         <v>91.9</v>
       </c>
       <c r="CB105" t="n" s="10">
-        <v>91.8</v>
+        <v>91.9</v>
       </c>
       <c r="CC105" t="n" s="10">
         <v>92.0</v>
@@ -42258,7 +42258,7 @@
         <v>92.0</v>
       </c>
       <c r="CF105" t="n" s="10">
-        <v>92.0</v>
+        <v>92.1</v>
       </c>
       <c r="CG105" t="n" s="10">
         <v>92.1</v>
@@ -42324,7 +42324,7 @@
         <v>77.5</v>
       </c>
       <c r="DB105" t="n" s="10">
-        <v>77.6</v>
+        <v>77.7</v>
       </c>
       <c r="DC105" t="n" s="10">
         <v>78.2</v>
@@ -42348,19 +42348,19 @@
         <v>81.9</v>
       </c>
       <c r="DJ105" t="n" s="10">
-        <v>82.2</v>
+        <v>82.1</v>
       </c>
       <c r="DK105" t="n" s="10">
         <v>82.1</v>
       </c>
       <c r="DL105" t="n" s="10">
-        <v>82.2</v>
+        <v>82.1</v>
       </c>
       <c r="DM105" t="n" s="10">
         <v>82.3</v>
       </c>
       <c r="DN105" t="n" s="10">
-        <v>82.7</v>
+        <v>82.6</v>
       </c>
       <c r="DO105" t="n" s="10">
         <v>83.0</v>
@@ -42372,10 +42372,10 @@
         <v>83.9</v>
       </c>
       <c r="DR105" t="n" s="10">
-        <v>84.4</v>
+        <v>84.3</v>
       </c>
       <c r="DS105" t="n" s="10">
-        <v>85.0</v>
+        <v>84.9</v>
       </c>
       <c r="DT105" t="n" s="10">
         <v>85.7</v>
@@ -42384,13 +42384,13 @@
         <v>86.3</v>
       </c>
       <c r="DV105" t="n" s="10">
-        <v>86.8</v>
+        <v>86.7</v>
       </c>
       <c r="DW105" t="n" s="10">
         <v>87.5</v>
       </c>
       <c r="DX105" t="n" s="10">
-        <v>88.3</v>
+        <v>88.2</v>
       </c>
       <c r="DY105" t="n" s="10">
         <v>89.0</v>
@@ -42399,7 +42399,7 @@
         <v>89.5</v>
       </c>
       <c r="EA105" t="n" s="10">
-        <v>90.2</v>
+        <v>90.1</v>
       </c>
       <c r="EB105" t="n" s="10">
         <v>90.8</v>
@@ -42411,7 +42411,7 @@
         <v>92.1</v>
       </c>
       <c r="EE105" t="n" s="10">
-        <v>92.7</v>
+        <v>92.6</v>
       </c>
     </row>
     <row r="106">
@@ -42425,7 +42425,7 @@
         <v>34</v>
       </c>
       <c r="D106" t="n" s="10">
-        <v>92.4</v>
+        <v>92.3</v>
       </c>
       <c r="E106" t="n" s="10">
         <v>90.9</v>
@@ -42455,25 +42455,25 @@
         <v>80.3</v>
       </c>
       <c r="N106" t="n" s="10">
-        <v>78.7</v>
+        <v>78.6</v>
       </c>
       <c r="O106" t="n" s="10">
-        <v>77.3</v>
+        <v>77.2</v>
       </c>
       <c r="P106" t="n" s="10">
         <v>76.1</v>
       </c>
       <c r="Q106" t="n" s="10">
-        <v>75.2</v>
+        <v>75.1</v>
       </c>
       <c r="R106" t="n" s="10">
-        <v>74.5</v>
+        <v>74.4</v>
       </c>
       <c r="S106" t="n" s="10">
         <v>74.0</v>
       </c>
       <c r="T106" t="n" s="10">
-        <v>73.8</v>
+        <v>73.7</v>
       </c>
       <c r="U106" t="n" s="10">
         <v>73.4</v>
@@ -42494,7 +42494,7 @@
         <v>71.6</v>
       </c>
       <c r="AA106" t="n" s="10">
-        <v>71.1</v>
+        <v>71.0</v>
       </c>
       <c r="AB106" t="n" s="10">
         <v>70.3</v>
@@ -42512,10 +42512,10 @@
         <v>69.4</v>
       </c>
       <c r="AG106" t="n" s="10">
-        <v>69.4</v>
+        <v>69.3</v>
       </c>
       <c r="AH106" t="n" s="10">
-        <v>69.3</v>
+        <v>69.2</v>
       </c>
       <c r="AI106" t="n" s="10">
         <v>69.0</v>
@@ -42557,19 +42557,19 @@
         <v>61.6</v>
       </c>
       <c r="AV106" t="n" s="10">
-        <v>60.8</v>
+        <v>60.9</v>
       </c>
       <c r="AW106" t="n" s="10">
-        <v>60.1</v>
+        <v>60.2</v>
       </c>
       <c r="AX106" t="n" s="10">
-        <v>59.4</v>
+        <v>59.5</v>
       </c>
       <c r="AY106" t="n" s="10">
         <v>58.9</v>
       </c>
       <c r="AZ106" t="n" s="10">
-        <v>58.4</v>
+        <v>58.5</v>
       </c>
       <c r="BA106" t="n" s="10">
         <v>58.1</v>
@@ -42590,7 +42590,7 @@
         <v>57.6</v>
       </c>
       <c r="BG106" t="n" s="10">
-        <v>57.8</v>
+        <v>57.9</v>
       </c>
       <c r="BH106" t="n" s="10">
         <v>58.2</v>
@@ -42599,7 +42599,7 @@
         <v>58.7</v>
       </c>
       <c r="BJ106" t="n" s="10">
-        <v>59.2</v>
+        <v>59.3</v>
       </c>
       <c r="BK106" t="n" s="10">
         <v>59.7</v>
@@ -42611,10 +42611,10 @@
         <v>60.5</v>
       </c>
       <c r="BN106" t="n" s="10">
-        <v>60.8</v>
+        <v>60.9</v>
       </c>
       <c r="BO106" t="n" s="10">
-        <v>61.1</v>
+        <v>61.2</v>
       </c>
       <c r="BP106" t="n" s="10">
         <v>61.4</v>
@@ -42653,7 +42653,7 @@
         <v>58.4</v>
       </c>
       <c r="CB106" t="n" s="10">
-        <v>58.2</v>
+        <v>58.1</v>
       </c>
       <c r="CC106" t="n" s="10">
         <v>57.9</v>
@@ -42668,7 +42668,7 @@
         <v>57.2</v>
       </c>
       <c r="CG106" t="n" s="10">
-        <v>56.8</v>
+        <v>56.7</v>
       </c>
       <c r="CH106" t="n" s="10">
         <v>56.5</v>
@@ -42710,13 +42710,13 @@
         <v>53.6</v>
       </c>
       <c r="CU106" t="n" s="10">
-        <v>53.6</v>
+        <v>53.5</v>
       </c>
       <c r="CV106" t="n" s="10">
         <v>53.6</v>
       </c>
       <c r="CW106" t="n" s="10">
-        <v>53.8</v>
+        <v>53.7</v>
       </c>
       <c r="CX106" t="n" s="10">
         <v>53.9</v>
@@ -42725,7 +42725,7 @@
         <v>54.1</v>
       </c>
       <c r="CZ106" t="n" s="10">
-        <v>54.4</v>
+        <v>54.3</v>
       </c>
       <c r="DA106" t="n" s="10">
         <v>54.5</v>
@@ -42767,13 +42767,13 @@
         <v>59.6</v>
       </c>
       <c r="DN106" t="n" s="10">
-        <v>60.4</v>
+        <v>60.5</v>
       </c>
       <c r="DO106" t="n" s="10">
-        <v>61.6</v>
+        <v>61.7</v>
       </c>
       <c r="DP106" t="n" s="10">
-        <v>62.8</v>
+        <v>62.9</v>
       </c>
       <c r="DQ106" t="n" s="10">
         <v>64.0</v>
@@ -42794,7 +42794,7 @@
         <v>69.6</v>
       </c>
       <c r="DW106" t="n" s="10">
-        <v>70.7</v>
+        <v>70.8</v>
       </c>
       <c r="DX106" t="n" s="10">
         <v>71.6</v>
@@ -42815,7 +42815,7 @@
         <v>75.7</v>
       </c>
       <c r="ED106" t="n" s="10">
-        <v>76.5</v>
+        <v>76.6</v>
       </c>
       <c r="EE106" t="n" s="10">
         <v>77.2</v>
@@ -43222,7 +43222,7 @@
         <v>81.6</v>
       </c>
       <c r="EE107" t="n" s="10">
-        <v>82.1</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="108">
@@ -43362,7 +43362,7 @@
         <v>76.0</v>
       </c>
       <c r="AT108" t="n" s="10">
-        <v>75.5</v>
+        <v>75.6</v>
       </c>
       <c r="AU108" t="n" s="10">
         <v>75.0</v>
@@ -43599,7 +43599,7 @@
         <v>87.2</v>
       </c>
       <c r="DU108" t="n" s="10">
-        <v>87.7</v>
+        <v>87.8</v>
       </c>
       <c r="DV108" t="n" s="10">
         <v>88.1</v>
@@ -43661,13 +43661,13 @@
         <v>137.8</v>
       </c>
       <c r="K109" t="n" s="10">
-        <v>136.5</v>
+        <v>136.4</v>
       </c>
       <c r="L109" t="n" s="10">
-        <v>135.0</v>
+        <v>134.9</v>
       </c>
       <c r="M109" t="n" s="10">
-        <v>133.4</v>
+        <v>133.3</v>
       </c>
       <c r="N109" t="n" s="10">
         <v>131.6</v>
@@ -43700,7 +43700,7 @@
         <v>115.5</v>
       </c>
       <c r="X109" t="n" s="10">
-        <v>113.9</v>
+        <v>113.8</v>
       </c>
       <c r="Y109" t="n" s="10">
         <v>112.2</v>
@@ -43712,7 +43712,7 @@
         <v>109.4</v>
       </c>
       <c r="AB109" t="n" s="10">
-        <v>107.7</v>
+        <v>107.6</v>
       </c>
       <c r="AC109" t="n" s="10">
         <v>106.1</v>
@@ -43733,7 +43733,7 @@
         <v>102.7</v>
       </c>
       <c r="AI109" t="n" s="10">
-        <v>102.6</v>
+        <v>102.5</v>
       </c>
       <c r="AJ109" t="n" s="10">
         <v>102.1</v>
@@ -43745,7 +43745,7 @@
         <v>101.2</v>
       </c>
       <c r="AM109" t="n" s="10">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="AN109" t="n" s="10">
         <v>100.2</v>
@@ -43766,13 +43766,13 @@
         <v>95.2</v>
       </c>
       <c r="AT109" t="n" s="10">
-        <v>94.4</v>
+        <v>94.5</v>
       </c>
       <c r="AU109" t="n" s="10">
         <v>93.5</v>
       </c>
       <c r="AV109" t="n" s="10">
-        <v>92.7</v>
+        <v>92.8</v>
       </c>
       <c r="AW109" t="n" s="10">
         <v>92.0</v>
@@ -43790,13 +43790,13 @@
         <v>91.6</v>
       </c>
       <c r="BB109" t="n" s="10">
-        <v>92.3</v>
+        <v>92.4</v>
       </c>
       <c r="BC109" t="n" s="10">
-        <v>93.0</v>
+        <v>93.1</v>
       </c>
       <c r="BD109" t="n" s="10">
-        <v>93.6</v>
+        <v>93.7</v>
       </c>
       <c r="BE109" t="n" s="10">
         <v>94.5</v>
@@ -43808,16 +43808,16 @@
         <v>96.4</v>
       </c>
       <c r="BH109" t="n" s="10">
-        <v>97.5</v>
+        <v>97.6</v>
       </c>
       <c r="BI109" t="n" s="10">
-        <v>98.6</v>
+        <v>98.7</v>
       </c>
       <c r="BJ109" t="n" s="10">
-        <v>99.6</v>
+        <v>99.7</v>
       </c>
       <c r="BK109" t="n" s="10">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="BL109" t="n" s="10">
         <v>101.0</v>
@@ -43826,7 +43826,7 @@
         <v>101.4</v>
       </c>
       <c r="BN109" t="n" s="10">
-        <v>101.7</v>
+        <v>101.8</v>
       </c>
       <c r="BO109" t="n" s="10">
         <v>102.0</v>
@@ -43934,7 +43934,7 @@
         <v>91.8</v>
       </c>
       <c r="CX109" t="n" s="10">
-        <v>90.5</v>
+        <v>90.4</v>
       </c>
       <c r="CY109" t="n" s="10">
         <v>89.5</v>
@@ -43970,10 +43970,10 @@
         <v>94.1</v>
       </c>
       <c r="DJ109" t="n" s="10">
-        <v>94.2</v>
+        <v>94.3</v>
       </c>
       <c r="DK109" t="n" s="10">
-        <v>94.0</v>
+        <v>94.1</v>
       </c>
       <c r="DL109" t="n" s="10">
         <v>93.8</v>
@@ -43982,7 +43982,7 @@
         <v>93.6</v>
       </c>
       <c r="DN109" t="n" s="10">
-        <v>93.5</v>
+        <v>93.6</v>
       </c>
       <c r="DO109" t="n" s="10">
         <v>93.3</v>
@@ -43991,19 +43991,19 @@
         <v>93.2</v>
       </c>
       <c r="DQ109" t="n" s="10">
-        <v>93.2</v>
+        <v>93.3</v>
       </c>
       <c r="DR109" t="n" s="10">
-        <v>93.3</v>
+        <v>93.4</v>
       </c>
       <c r="DS109" t="n" s="10">
-        <v>93.5</v>
+        <v>93.6</v>
       </c>
       <c r="DT109" t="n" s="10">
-        <v>94.0</v>
+        <v>94.1</v>
       </c>
       <c r="DU109" t="n" s="10">
-        <v>94.3</v>
+        <v>94.4</v>
       </c>
       <c r="DV109" t="n" s="10">
         <v>94.5</v>
@@ -44015,7 +44015,7 @@
         <v>95.8</v>
       </c>
       <c r="DY109" t="n" s="10">
-        <v>96.5</v>
+        <v>96.6</v>
       </c>
       <c r="DZ109" t="n" s="10">
         <v>97.0</v>
@@ -44056,7 +44056,7 @@
         <v>111.5</v>
       </c>
       <c r="G110" t="n" s="10">
-        <v>111.5</v>
+        <v>111.4</v>
       </c>
       <c r="H110" t="n" s="10">
         <v>111.0</v>
@@ -44071,7 +44071,7 @@
         <v>108.3</v>
       </c>
       <c r="L110" t="n" s="10">
-        <v>106.9</v>
+        <v>106.8</v>
       </c>
       <c r="M110" t="n" s="10">
         <v>105.3</v>
@@ -44131,19 +44131,19 @@
         <v>80.2</v>
       </c>
       <c r="AF110" t="n" s="10">
-        <v>79.7</v>
+        <v>79.6</v>
       </c>
       <c r="AG110" t="n" s="10">
         <v>79.2</v>
       </c>
       <c r="AH110" t="n" s="10">
-        <v>78.9</v>
+        <v>78.8</v>
       </c>
       <c r="AI110" t="n" s="10">
         <v>78.5</v>
       </c>
       <c r="AJ110" t="n" s="10">
-        <v>78.1</v>
+        <v>78.0</v>
       </c>
       <c r="AK110" t="n" s="10">
         <v>77.6</v>
@@ -44203,7 +44203,7 @@
         <v>73.2</v>
       </c>
       <c r="BD110" t="n" s="10">
-        <v>73.7</v>
+        <v>73.8</v>
       </c>
       <c r="BE110" t="n" s="10">
         <v>74.6</v>
@@ -44218,7 +44218,7 @@
         <v>77.0</v>
       </c>
       <c r="BI110" t="n" s="10">
-        <v>77.9</v>
+        <v>78.0</v>
       </c>
       <c r="BJ110" t="n" s="10">
         <v>78.9</v>
@@ -44278,7 +44278,7 @@
         <v>94.6</v>
       </c>
       <c r="CC110" t="n" s="10">
-        <v>95.2</v>
+        <v>95.1</v>
       </c>
       <c r="CD110" t="n" s="10">
         <v>95.6</v>
@@ -44320,19 +44320,19 @@
         <v>97.4</v>
       </c>
       <c r="CQ110" t="n" s="10">
-        <v>95.6</v>
+        <v>95.5</v>
       </c>
       <c r="CR110" t="n" s="10">
         <v>93.4</v>
       </c>
       <c r="CS110" t="n" s="10">
-        <v>90.6</v>
+        <v>90.5</v>
       </c>
       <c r="CT110" t="n" s="10">
-        <v>87.8</v>
+        <v>87.7</v>
       </c>
       <c r="CU110" t="n" s="10">
-        <v>85.3</v>
+        <v>85.2</v>
       </c>
       <c r="CV110" t="n" s="10">
         <v>82.6</v>
@@ -44341,7 +44341,7 @@
         <v>80.3</v>
       </c>
       <c r="CX110" t="n" s="10">
-        <v>78.6</v>
+        <v>78.5</v>
       </c>
       <c r="CY110" t="n" s="10">
         <v>77.1</v>
@@ -44380,10 +44380,10 @@
         <v>79.7</v>
       </c>
       <c r="DK110" t="n" s="10">
-        <v>79.8</v>
+        <v>79.9</v>
       </c>
       <c r="DL110" t="n" s="10">
-        <v>80.1</v>
+        <v>80.2</v>
       </c>
       <c r="DM110" t="n" s="10">
         <v>80.7</v>
@@ -44392,7 +44392,7 @@
         <v>81.2</v>
       </c>
       <c r="DO110" t="n" s="10">
-        <v>81.6</v>
+        <v>81.7</v>
       </c>
       <c r="DP110" t="n" s="10">
         <v>82.2</v>
@@ -44413,7 +44413,7 @@
         <v>86.9</v>
       </c>
       <c r="DV110" t="n" s="10">
-        <v>87.5</v>
+        <v>87.6</v>
       </c>
       <c r="DW110" t="n" s="10">
         <v>88.3</v>
@@ -44858,73 +44858,73 @@
         <v>34</v>
       </c>
       <c r="D112" t="n" s="10">
-        <v>99.2</v>
+        <v>99.7</v>
       </c>
       <c r="E112" t="n" s="10">
         <v>99.5</v>
       </c>
       <c r="F112" t="n" s="10">
-        <v>99.9</v>
+        <v>99.4</v>
       </c>
       <c r="G112" t="n" s="10">
-        <v>100.7</v>
+        <v>99.5</v>
       </c>
       <c r="H112" t="n" s="10">
+        <v>99.8</v>
+      </c>
+      <c r="I112" t="n" s="10">
+        <v>100.2</v>
+      </c>
+      <c r="J112" t="n" s="10">
+        <v>100.4</v>
+      </c>
+      <c r="K112" t="n" s="10">
+        <v>100.6</v>
+      </c>
+      <c r="L112" t="n" s="10">
+        <v>101.1</v>
+      </c>
+      <c r="M112" t="n" s="10">
         <v>101.7</v>
       </c>
-      <c r="I112" t="n" s="10">
+      <c r="N112" t="n" s="10">
+        <v>102.1</v>
+      </c>
+      <c r="O112" t="n" s="10">
+        <v>102.5</v>
+      </c>
+      <c r="P112" t="n" s="10">
+        <v>102.6</v>
+      </c>
+      <c r="Q112" t="n" s="10">
         <v>102.8</v>
       </c>
-      <c r="J112" t="n" s="10">
-        <v>103.5</v>
-      </c>
-      <c r="K112" t="n" s="10">
-        <v>104.1</v>
-      </c>
-      <c r="L112" t="n" s="10">
-        <v>105.1</v>
-      </c>
-      <c r="M112" t="n" s="10">
-        <v>105.9</v>
-      </c>
-      <c r="N112" t="n" s="10">
-        <v>106.1</v>
-      </c>
-      <c r="O112" t="n" s="10">
-        <v>105.9</v>
-      </c>
-      <c r="P112" t="n" s="10">
-        <v>105.6</v>
-      </c>
-      <c r="Q112" t="n" s="10">
-        <v>105.3</v>
-      </c>
       <c r="R112" t="n" s="10">
-        <v>104.8</v>
+        <v>102.8</v>
       </c>
       <c r="S112" t="n" s="10">
-        <v>103.8</v>
+        <v>102.4</v>
       </c>
       <c r="T112" t="n" s="10">
-        <v>102.8</v>
+        <v>102.0</v>
       </c>
       <c r="U112" t="n" s="10">
-        <v>101.8</v>
+        <v>101.4</v>
       </c>
       <c r="V112" t="n" s="10">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="W112" t="n" s="10">
-        <v>98.9</v>
+        <v>99.3</v>
       </c>
       <c r="X112" t="n" s="10">
-        <v>97.1</v>
+        <v>97.6</v>
       </c>
       <c r="Y112" t="n" s="10">
-        <v>95.2</v>
+        <v>95.8</v>
       </c>
       <c r="Z112" t="n" s="10">
-        <v>93.9</v>
+        <v>94.2</v>
       </c>
       <c r="AA112" t="n" s="10">
         <v>92.9</v>
@@ -44933,10 +44933,10 @@
         <v>91.3</v>
       </c>
       <c r="AC112" t="n" s="10">
-        <v>89.9</v>
+        <v>90.0</v>
       </c>
       <c r="AD112" t="n" s="10">
-        <v>89.0</v>
+        <v>89.1</v>
       </c>
       <c r="AE112" t="n" s="10">
         <v>88.6</v>
@@ -44948,7 +44948,7 @@
         <v>88.5</v>
       </c>
       <c r="AH112" t="n" s="10">
-        <v>88.5</v>
+        <v>88.6</v>
       </c>
       <c r="AI112" t="n" s="10">
         <v>89.0</v>
@@ -45008,13 +45008,13 @@
         <v>83.6</v>
       </c>
       <c r="BB112" t="n" s="10">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="BC112" t="n" s="10">
         <v>83.5</v>
       </c>
       <c r="BD112" t="n" s="10">
-        <v>83.8</v>
+        <v>83.7</v>
       </c>
       <c r="BE112" t="n" s="10">
         <v>84.1</v>
@@ -45041,85 +45041,85 @@
         <v>89.7</v>
       </c>
       <c r="BM112" t="n" s="10">
-        <v>89.7</v>
+        <v>89.5</v>
       </c>
       <c r="BN112" t="n" s="10">
-        <v>89.3</v>
+        <v>89.0</v>
       </c>
       <c r="BO112" t="n" s="10">
-        <v>88.5</v>
+        <v>88.2</v>
       </c>
       <c r="BP112" t="n" s="10">
-        <v>87.8</v>
+        <v>87.6</v>
       </c>
       <c r="BQ112" t="n" s="10">
         <v>87.2</v>
       </c>
       <c r="BR112" t="n" s="10">
+        <v>86.9</v>
+      </c>
+      <c r="BS112" t="n" s="10">
+        <v>86.5</v>
+      </c>
+      <c r="BT112" t="n" s="10">
+        <v>86.1</v>
+      </c>
+      <c r="BU112" t="n" s="10">
+        <v>86.2</v>
+      </c>
+      <c r="BV112" t="n" s="10">
+        <v>86.3</v>
+      </c>
+      <c r="BW112" t="n" s="10">
+        <v>86.4</v>
+      </c>
+      <c r="BX112" t="n" s="10">
         <v>86.7</v>
       </c>
-      <c r="BS112" t="n" s="10">
-        <v>86.0</v>
-      </c>
-      <c r="BT112" t="n" s="10">
-        <v>85.4</v>
-      </c>
-      <c r="BU112" t="n" s="10">
-        <v>85.1</v>
-      </c>
-      <c r="BV112" t="n" s="10">
-        <v>84.9</v>
-      </c>
-      <c r="BW112" t="n" s="10">
-        <v>84.8</v>
-      </c>
-      <c r="BX112" t="n" s="10">
-        <v>85.0</v>
-      </c>
       <c r="BY112" t="n" s="10">
-        <v>85.3</v>
+        <v>87.3</v>
       </c>
       <c r="BZ112" t="n" s="10">
-        <v>85.9</v>
+        <v>88.1</v>
       </c>
       <c r="CA112" t="n" s="10">
-        <v>87.1</v>
+        <v>89.1</v>
       </c>
       <c r="CB112" t="n" s="10">
-        <v>88.2</v>
+        <v>89.9</v>
       </c>
       <c r="CC112" t="n" s="10">
-        <v>89.6</v>
+        <v>91.2</v>
       </c>
       <c r="CD112" t="n" s="10">
-        <v>91.1</v>
+        <v>92.4</v>
       </c>
       <c r="CE112" t="n" s="10">
-        <v>92.7</v>
+        <v>93.8</v>
       </c>
       <c r="CF112" t="n" s="10">
-        <v>94.1</v>
+        <v>94.8</v>
       </c>
       <c r="CG112" t="n" s="10">
-        <v>95.2</v>
+        <v>95.7</v>
       </c>
       <c r="CH112" t="n" s="10">
-        <v>96.1</v>
+        <v>96.3</v>
       </c>
       <c r="CI112" t="n" s="10">
         <v>96.9</v>
       </c>
       <c r="CJ112" t="n" s="10">
-        <v>97.6</v>
+        <v>97.4</v>
       </c>
       <c r="CK112" t="n" s="10">
-        <v>98.3</v>
+        <v>98.0</v>
       </c>
       <c r="CL112" t="n" s="10">
+        <v>98.7</v>
+      </c>
+      <c r="CM112" t="n" s="10">
         <v>99.0</v>
-      </c>
-      <c r="CM112" t="n" s="10">
-        <v>99.1</v>
       </c>
       <c r="CN112" t="n" s="10">
         <v>99.0</v>
@@ -45140,7 +45140,7 @@
         <v>96.8</v>
       </c>
       <c r="CT112" t="n" s="10">
-        <v>96.2</v>
+        <v>96.3</v>
       </c>
       <c r="CU112" t="n" s="10">
         <v>95.9</v>
@@ -45158,7 +45158,7 @@
         <v>96.7</v>
       </c>
       <c r="CZ112" t="n" s="10">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="DA112" t="n" s="10">
         <v>98.5</v>
@@ -45188,7 +45188,7 @@
         <v>106.3</v>
       </c>
       <c r="DJ112" t="n" s="10">
-        <v>106.0</v>
+        <v>105.9</v>
       </c>
       <c r="DK112" t="n" s="10">
         <v>105.0</v>
@@ -45200,19 +45200,19 @@
         <v>101.7</v>
       </c>
       <c r="DN112" t="n" s="10">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="DO112" t="n" s="10">
-        <v>98.6</v>
+        <v>98.5</v>
       </c>
       <c r="DP112" t="n" s="10">
         <v>97.2</v>
       </c>
       <c r="DQ112" t="n" s="10">
-        <v>96.0</v>
+        <v>95.9</v>
       </c>
       <c r="DR112" t="n" s="10">
-        <v>94.8</v>
+        <v>94.7</v>
       </c>
       <c r="DS112" t="n" s="10">
         <v>93.6</v>
@@ -45221,7 +45221,7 @@
         <v>92.7</v>
       </c>
       <c r="DU112" t="n" s="10">
-        <v>92.3</v>
+        <v>92.2</v>
       </c>
       <c r="DV112" t="n" s="10">
         <v>92.1</v>
@@ -45693,7 +45693,7 @@
         <v>89.9</v>
       </c>
       <c r="L114" t="n" s="10">
-        <v>90.0</v>
+        <v>89.9</v>
       </c>
       <c r="M114" t="n" s="10">
         <v>90.0</v>
@@ -45714,7 +45714,7 @@
         <v>90.7</v>
       </c>
       <c r="S114" t="n" s="10">
-        <v>90.8</v>
+        <v>90.7</v>
       </c>
       <c r="T114" t="n" s="10">
         <v>90.6</v>
@@ -45723,7 +45723,7 @@
         <v>90.4</v>
       </c>
       <c r="V114" t="n" s="10">
-        <v>90.2</v>
+        <v>90.1</v>
       </c>
       <c r="W114" t="n" s="10">
         <v>89.8</v>
@@ -45795,7 +45795,7 @@
         <v>76.9</v>
       </c>
       <c r="AT114" t="n" s="10">
-        <v>76.1</v>
+        <v>76.2</v>
       </c>
       <c r="AU114" t="n" s="10">
         <v>75.6</v>
@@ -45837,7 +45837,7 @@
         <v>78.7</v>
       </c>
       <c r="BH114" t="n" s="10">
-        <v>79.1</v>
+        <v>79.2</v>
       </c>
       <c r="BI114" t="n" s="10">
         <v>79.5</v>
@@ -45894,7 +45894,7 @@
         <v>86.2</v>
       </c>
       <c r="CA114" t="n" s="10">
-        <v>87.2</v>
+        <v>87.1</v>
       </c>
       <c r="CB114" t="n" s="10">
         <v>88.1</v>
@@ -45906,13 +45906,13 @@
         <v>89.9</v>
       </c>
       <c r="CE114" t="n" s="10">
-        <v>90.9</v>
+        <v>90.8</v>
       </c>
       <c r="CF114" t="n" s="10">
-        <v>91.8</v>
+        <v>91.7</v>
       </c>
       <c r="CG114" t="n" s="10">
-        <v>92.6</v>
+        <v>92.5</v>
       </c>
       <c r="CH114" t="n" s="10">
         <v>92.9</v>
@@ -45966,7 +45966,7 @@
         <v>87.9</v>
       </c>
       <c r="CY114" t="n" s="10">
-        <v>88.4</v>
+        <v>88.3</v>
       </c>
       <c r="CZ114" t="n" s="10">
         <v>88.9</v>
@@ -46023,31 +46023,31 @@
         <v>86.2</v>
       </c>
       <c r="DR114" t="n" s="10">
-        <v>86.2</v>
+        <v>86.3</v>
       </c>
       <c r="DS114" t="n" s="10">
-        <v>86.3</v>
+        <v>86.4</v>
       </c>
       <c r="DT114" t="n" s="10">
-        <v>86.5</v>
+        <v>86.6</v>
       </c>
       <c r="DU114" t="n" s="10">
         <v>87.0</v>
       </c>
       <c r="DV114" t="n" s="10">
-        <v>87.3</v>
+        <v>87.4</v>
       </c>
       <c r="DW114" t="n" s="10">
-        <v>87.7</v>
+        <v>87.8</v>
       </c>
       <c r="DX114" t="n" s="10">
-        <v>88.1</v>
+        <v>88.2</v>
       </c>
       <c r="DY114" t="n" s="10">
         <v>88.7</v>
       </c>
       <c r="DZ114" t="n" s="10">
-        <v>89.3</v>
+        <v>89.4</v>
       </c>
       <c r="EA114" t="n" s="10">
         <v>90.0</v>
@@ -46100,7 +46100,7 @@
         <v>114.3</v>
       </c>
       <c r="M115" t="n" s="10">
-        <v>114.4</v>
+        <v>114.3</v>
       </c>
       <c r="N115" t="n" s="10">
         <v>114.6</v>
@@ -46109,7 +46109,7 @@
         <v>114.8</v>
       </c>
       <c r="P115" t="n" s="10">
-        <v>115.1</v>
+        <v>115.0</v>
       </c>
       <c r="Q115" t="n" s="10">
         <v>115.3</v>
@@ -46151,13 +46151,13 @@
         <v>109.6</v>
       </c>
       <c r="AD115" t="n" s="10">
-        <v>108.9</v>
+        <v>108.8</v>
       </c>
       <c r="AE115" t="n" s="10">
-        <v>108.2</v>
+        <v>108.1</v>
       </c>
       <c r="AF115" t="n" s="10">
-        <v>107.6</v>
+        <v>107.5</v>
       </c>
       <c r="AG115" t="n" s="10">
         <v>107.1</v>
@@ -46202,7 +46202,7 @@
         <v>96.6</v>
       </c>
       <c r="AU115" t="n" s="10">
-        <v>95.7</v>
+        <v>95.8</v>
       </c>
       <c r="AV115" t="n" s="10">
         <v>95.2</v>
@@ -46220,7 +46220,7 @@
         <v>94.4</v>
       </c>
       <c r="BA115" t="n" s="10">
-        <v>94.6</v>
+        <v>94.7</v>
       </c>
       <c r="BB115" t="n" s="10">
         <v>95.1</v>
@@ -46229,7 +46229,7 @@
         <v>95.7</v>
       </c>
       <c r="BD115" t="n" s="10">
-        <v>96.4</v>
+        <v>96.5</v>
       </c>
       <c r="BE115" t="n" s="10">
         <v>97.1</v>
@@ -46238,7 +46238,7 @@
         <v>97.8</v>
       </c>
       <c r="BG115" t="n" s="10">
-        <v>98.4</v>
+        <v>98.5</v>
       </c>
       <c r="BH115" t="n" s="10">
         <v>98.9</v>
@@ -46316,10 +46316,10 @@
         <v>102.0</v>
       </c>
       <c r="CG115" t="n" s="10">
-        <v>102.3</v>
+        <v>102.2</v>
       </c>
       <c r="CH115" t="n" s="10">
-        <v>102.5</v>
+        <v>102.4</v>
       </c>
       <c r="CI115" t="n" s="10">
         <v>102.5</v>
@@ -46376,7 +46376,7 @@
         <v>97.8</v>
       </c>
       <c r="DA115" t="n" s="10">
-        <v>98.5</v>
+        <v>98.4</v>
       </c>
       <c r="DB115" t="n" s="10">
         <v>99.1</v>
@@ -46421,7 +46421,7 @@
         <v>94.1</v>
       </c>
       <c r="DP115" t="n" s="10">
-        <v>94.0</v>
+        <v>94.1</v>
       </c>
       <c r="DQ115" t="n" s="10">
         <v>94.0</v>
@@ -46492,7 +46492,7 @@
         <v>85.3</v>
       </c>
       <c r="H116" t="n" s="10">
-        <v>85.7</v>
+        <v>85.6</v>
       </c>
       <c r="I116" t="n" s="10">
         <v>85.8</v>
@@ -46504,22 +46504,22 @@
         <v>86.0</v>
       </c>
       <c r="L116" t="n" s="10">
-        <v>86.1</v>
+        <v>86.0</v>
       </c>
       <c r="M116" t="n" s="10">
         <v>85.9</v>
       </c>
       <c r="N116" t="n" s="10">
-        <v>85.9</v>
+        <v>85.8</v>
       </c>
       <c r="O116" t="n" s="10">
         <v>85.7</v>
       </c>
       <c r="P116" t="n" s="10">
-        <v>85.7</v>
+        <v>85.6</v>
       </c>
       <c r="Q116" t="n" s="10">
-        <v>85.6</v>
+        <v>85.5</v>
       </c>
       <c r="R116" t="n" s="10">
         <v>85.4</v>
@@ -46531,16 +46531,16 @@
         <v>85.7</v>
       </c>
       <c r="U116" t="n" s="10">
+        <v>85.7</v>
+      </c>
+      <c r="V116" t="n" s="10">
         <v>85.8</v>
       </c>
-      <c r="V116" t="n" s="10">
-        <v>85.9</v>
-      </c>
       <c r="W116" t="n" s="10">
-        <v>85.9</v>
+        <v>85.8</v>
       </c>
       <c r="X116" t="n" s="10">
-        <v>85.7</v>
+        <v>85.6</v>
       </c>
       <c r="Y116" t="n" s="10">
         <v>85.4</v>
@@ -46552,13 +46552,13 @@
         <v>84.3</v>
       </c>
       <c r="AB116" t="n" s="10">
-        <v>83.6</v>
+        <v>83.5</v>
       </c>
       <c r="AC116" t="n" s="10">
         <v>82.7</v>
       </c>
       <c r="AD116" t="n" s="10">
-        <v>81.9</v>
+        <v>81.8</v>
       </c>
       <c r="AE116" t="n" s="10">
         <v>81.1</v>
@@ -46567,7 +46567,7 @@
         <v>80.4</v>
       </c>
       <c r="AG116" t="n" s="10">
-        <v>80.2</v>
+        <v>80.1</v>
       </c>
       <c r="AH116" t="n" s="10">
         <v>79.9</v>
@@ -46597,13 +46597,13 @@
         <v>78.5</v>
       </c>
       <c r="AQ116" t="n" s="10">
-        <v>78.0</v>
+        <v>78.1</v>
       </c>
       <c r="AR116" t="n" s="10">
-        <v>77.5</v>
+        <v>77.6</v>
       </c>
       <c r="AS116" t="n" s="10">
-        <v>76.8</v>
+        <v>76.9</v>
       </c>
       <c r="AT116" t="n" s="10">
         <v>76.0</v>
@@ -46615,19 +46615,19 @@
         <v>75.1</v>
       </c>
       <c r="AW116" t="n" s="10">
-        <v>74.7</v>
+        <v>74.8</v>
       </c>
       <c r="AX116" t="n" s="10">
-        <v>74.4</v>
+        <v>74.5</v>
       </c>
       <c r="AY116" t="n" s="10">
-        <v>74.5</v>
+        <v>74.6</v>
       </c>
       <c r="AZ116" t="n" s="10">
         <v>74.8</v>
       </c>
       <c r="BA116" t="n" s="10">
-        <v>75.2</v>
+        <v>75.3</v>
       </c>
       <c r="BB116" t="n" s="10">
         <v>75.9</v>
@@ -46636,7 +46636,7 @@
         <v>76.8</v>
       </c>
       <c r="BD116" t="n" s="10">
-        <v>77.6</v>
+        <v>77.7</v>
       </c>
       <c r="BE116" t="n" s="10">
         <v>78.4</v>
@@ -46645,10 +46645,10 @@
         <v>79.2</v>
       </c>
       <c r="BG116" t="n" s="10">
-        <v>79.9</v>
+        <v>80.0</v>
       </c>
       <c r="BH116" t="n" s="10">
-        <v>80.5</v>
+        <v>80.6</v>
       </c>
       <c r="BI116" t="n" s="10">
         <v>81.1</v>
@@ -46657,7 +46657,7 @@
         <v>81.9</v>
       </c>
       <c r="BK116" t="n" s="10">
-        <v>82.5</v>
+        <v>82.6</v>
       </c>
       <c r="BL116" t="n" s="10">
         <v>83.0</v>
@@ -46666,10 +46666,10 @@
         <v>83.2</v>
       </c>
       <c r="BN116" t="n" s="10">
-        <v>83.3</v>
+        <v>83.4</v>
       </c>
       <c r="BO116" t="n" s="10">
-        <v>83.4</v>
+        <v>83.5</v>
       </c>
       <c r="BP116" t="n" s="10">
         <v>83.7</v>
@@ -46681,7 +46681,7 @@
         <v>84.5</v>
       </c>
       <c r="BS116" t="n" s="10">
-        <v>84.9</v>
+        <v>84.8</v>
       </c>
       <c r="BT116" t="n" s="10">
         <v>85.1</v>
@@ -46714,16 +46714,16 @@
         <v>91.1</v>
       </c>
       <c r="CD116" t="n" s="10">
-        <v>92.4</v>
+        <v>92.3</v>
       </c>
       <c r="CE116" t="n" s="10">
         <v>93.5</v>
       </c>
       <c r="CF116" t="n" s="10">
-        <v>94.4</v>
+        <v>94.3</v>
       </c>
       <c r="CG116" t="n" s="10">
-        <v>94.8</v>
+        <v>94.7</v>
       </c>
       <c r="CH116" t="n" s="10">
         <v>94.7</v>
@@ -46732,7 +46732,7 @@
         <v>94.4</v>
       </c>
       <c r="CJ116" t="n" s="10">
-        <v>94.0</v>
+        <v>93.9</v>
       </c>
       <c r="CK116" t="n" s="10">
         <v>93.0</v>
@@ -46777,7 +46777,7 @@
         <v>96.1</v>
       </c>
       <c r="CY116" t="n" s="10">
-        <v>97.9</v>
+        <v>97.8</v>
       </c>
       <c r="CZ116" t="n" s="10">
         <v>99.3</v>
@@ -46819,7 +46819,7 @@
         <v>89.4</v>
       </c>
       <c r="DM116" t="n" s="10">
-        <v>88.6</v>
+        <v>88.7</v>
       </c>
       <c r="DN116" t="n" s="10">
         <v>88.1</v>
@@ -46828,31 +46828,31 @@
         <v>87.8</v>
       </c>
       <c r="DP116" t="n" s="10">
+        <v>87.5</v>
+      </c>
+      <c r="DQ116" t="n" s="10">
         <v>87.4</v>
       </c>
-      <c r="DQ116" t="n" s="10">
-        <v>87.3</v>
-      </c>
       <c r="DR116" t="n" s="10">
-        <v>87.3</v>
+        <v>87.4</v>
       </c>
       <c r="DS116" t="n" s="10">
-        <v>87.5</v>
+        <v>87.6</v>
       </c>
       <c r="DT116" t="n" s="10">
         <v>87.6</v>
       </c>
       <c r="DU116" t="n" s="10">
+        <v>87.7</v>
+      </c>
+      <c r="DV116" t="n" s="10">
         <v>87.6</v>
       </c>
-      <c r="DV116" t="n" s="10">
+      <c r="DW116" t="n" s="10">
         <v>87.5</v>
       </c>
-      <c r="DW116" t="n" s="10">
+      <c r="DX116" t="n" s="10">
         <v>87.4</v>
-      </c>
-      <c r="DX116" t="n" s="10">
-        <v>87.3</v>
       </c>
       <c r="DY116" t="n" s="10">
         <v>87.5</v>
@@ -46861,7 +46861,7 @@
         <v>88.0</v>
       </c>
       <c r="EA116" t="n" s="10">
-        <v>88.8</v>
+        <v>88.9</v>
       </c>
       <c r="EB116" t="n" s="10">
         <v>89.6</v>
@@ -46884,7 +46884,7 @@
         <v>34</v>
       </c>
       <c r="D117" t="n" s="10">
-        <v>108.1</v>
+        <v>108.0</v>
       </c>
       <c r="E117" t="n" s="10">
         <v>108.5</v>
@@ -46893,7 +46893,7 @@
         <v>108.9</v>
       </c>
       <c r="G117" t="n" s="10">
-        <v>109.4</v>
+        <v>109.3</v>
       </c>
       <c r="H117" t="n" s="10">
         <v>109.8</v>
@@ -46902,7 +46902,7 @@
         <v>110.0</v>
       </c>
       <c r="J117" t="n" s="10">
-        <v>110.2</v>
+        <v>110.1</v>
       </c>
       <c r="K117" t="n" s="10">
         <v>110.3</v>
@@ -46920,7 +46920,7 @@
         <v>109.9</v>
       </c>
       <c r="P117" t="n" s="10">
-        <v>109.9</v>
+        <v>109.8</v>
       </c>
       <c r="Q117" t="n" s="10">
         <v>109.8</v>
@@ -46929,7 +46929,7 @@
         <v>109.6</v>
       </c>
       <c r="S117" t="n" s="10">
-        <v>109.8</v>
+        <v>109.7</v>
       </c>
       <c r="T117" t="n" s="10">
         <v>110.1</v>
@@ -46938,7 +46938,7 @@
         <v>110.2</v>
       </c>
       <c r="V117" t="n" s="10">
-        <v>110.4</v>
+        <v>110.3</v>
       </c>
       <c r="W117" t="n" s="10">
         <v>110.4</v>
@@ -46947,7 +46947,7 @@
         <v>110.2</v>
       </c>
       <c r="Y117" t="n" s="10">
-        <v>110.0</v>
+        <v>109.9</v>
       </c>
       <c r="Z117" t="n" s="10">
         <v>109.4</v>
@@ -46959,10 +46959,10 @@
         <v>107.7</v>
       </c>
       <c r="AC117" t="n" s="10">
-        <v>106.7</v>
+        <v>106.6</v>
       </c>
       <c r="AD117" t="n" s="10">
-        <v>105.6</v>
+        <v>105.5</v>
       </c>
       <c r="AE117" t="n" s="10">
         <v>104.6</v>
@@ -46974,7 +46974,7 @@
         <v>103.3</v>
       </c>
       <c r="AH117" t="n" s="10">
-        <v>103.1</v>
+        <v>103.0</v>
       </c>
       <c r="AI117" t="n" s="10">
         <v>102.5</v>
@@ -47019,25 +47019,25 @@
         <v>97.1</v>
       </c>
       <c r="AW117" t="n" s="10">
-        <v>96.6</v>
+        <v>96.7</v>
       </c>
       <c r="AX117" t="n" s="10">
         <v>96.3</v>
       </c>
       <c r="AY117" t="n" s="10">
-        <v>96.3</v>
+        <v>96.4</v>
       </c>
       <c r="AZ117" t="n" s="10">
         <v>96.7</v>
       </c>
       <c r="BA117" t="n" s="10">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="BB117" t="n" s="10">
-        <v>98.0</v>
+        <v>98.1</v>
       </c>
       <c r="BC117" t="n" s="10">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="BD117" t="n" s="10">
         <v>100.4</v>
@@ -47055,7 +47055,7 @@
         <v>103.8</v>
       </c>
       <c r="BI117" t="n" s="10">
-        <v>104.2</v>
+        <v>104.3</v>
       </c>
       <c r="BJ117" t="n" s="10">
         <v>105.0</v>
@@ -47070,13 +47070,13 @@
         <v>105.4</v>
       </c>
       <c r="BN117" t="n" s="10">
-        <v>105.1</v>
+        <v>105.2</v>
       </c>
       <c r="BO117" t="n" s="10">
         <v>104.9</v>
       </c>
       <c r="BP117" t="n" s="10">
-        <v>104.8</v>
+        <v>104.9</v>
       </c>
       <c r="BQ117" t="n" s="10">
         <v>105.0</v>
@@ -47088,7 +47088,7 @@
         <v>105.2</v>
       </c>
       <c r="BT117" t="n" s="10">
-        <v>105.2</v>
+        <v>105.1</v>
       </c>
       <c r="BU117" t="n" s="10">
         <v>105.4</v>
@@ -47103,7 +47103,7 @@
         <v>105.8</v>
       </c>
       <c r="BY117" t="n" s="10">
-        <v>106.2</v>
+        <v>106.1</v>
       </c>
       <c r="BZ117" t="n" s="10">
         <v>106.5</v>
@@ -47115,7 +47115,7 @@
         <v>107.8</v>
       </c>
       <c r="CC117" t="n" s="10">
-        <v>108.8</v>
+        <v>108.7</v>
       </c>
       <c r="CD117" t="n" s="10">
         <v>110.0</v>
@@ -47124,7 +47124,7 @@
         <v>111.2</v>
       </c>
       <c r="CF117" t="n" s="10">
-        <v>112.1</v>
+        <v>112.0</v>
       </c>
       <c r="CG117" t="n" s="10">
         <v>112.2</v>
@@ -47175,13 +47175,13 @@
         <v>103.4</v>
       </c>
       <c r="CW117" t="n" s="10">
-        <v>105.6</v>
+        <v>105.5</v>
       </c>
       <c r="CX117" t="n" s="10">
-        <v>107.8</v>
+        <v>107.7</v>
       </c>
       <c r="CY117" t="n" s="10">
-        <v>109.7</v>
+        <v>109.6</v>
       </c>
       <c r="CZ117" t="n" s="10">
         <v>111.3</v>
@@ -47202,7 +47202,7 @@
         <v>110.0</v>
       </c>
       <c r="DF117" t="n" s="10">
-        <v>108.7</v>
+        <v>108.8</v>
       </c>
       <c r="DG117" t="n" s="10">
         <v>107.3</v>
@@ -47214,7 +47214,7 @@
         <v>103.9</v>
       </c>
       <c r="DJ117" t="n" s="10">
-        <v>102.2</v>
+        <v>102.3</v>
       </c>
       <c r="DK117" t="n" s="10">
         <v>100.7</v>
@@ -47223,19 +47223,19 @@
         <v>99.7</v>
       </c>
       <c r="DM117" t="n" s="10">
-        <v>98.8</v>
+        <v>98.9</v>
       </c>
       <c r="DN117" t="n" s="10">
         <v>98.2</v>
       </c>
       <c r="DO117" t="n" s="10">
-        <v>97.8</v>
+        <v>97.9</v>
       </c>
       <c r="DP117" t="n" s="10">
-        <v>97.3</v>
+        <v>97.4</v>
       </c>
       <c r="DQ117" t="n" s="10">
-        <v>97.1</v>
+        <v>97.2</v>
       </c>
       <c r="DR117" t="n" s="10">
         <v>97.0</v>
@@ -47253,16 +47253,16 @@
         <v>96.2</v>
       </c>
       <c r="DW117" t="n" s="10">
-        <v>95.8</v>
+        <v>95.9</v>
       </c>
       <c r="DX117" t="n" s="10">
-        <v>95.5</v>
+        <v>95.6</v>
       </c>
       <c r="DY117" t="n" s="10">
         <v>95.5</v>
       </c>
       <c r="DZ117" t="n" s="10">
-        <v>95.7</v>
+        <v>95.8</v>
       </c>
       <c r="EA117" t="n" s="10">
         <v>96.4</v>
@@ -47271,13 +47271,13 @@
         <v>96.9</v>
       </c>
       <c r="EC117" t="n" s="10">
-        <v>97.4</v>
+        <v>97.5</v>
       </c>
       <c r="ED117" t="n" s="10">
         <v>97.9</v>
       </c>
       <c r="EE117" t="n" s="10">
-        <v>98.1</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="118">
@@ -47333,7 +47333,7 @@
         <v>93.5</v>
       </c>
       <c r="R118" t="n" s="10">
-        <v>93.7</v>
+        <v>93.8</v>
       </c>
       <c r="S118" t="n" s="10">
         <v>93.8</v>
@@ -47360,7 +47360,7 @@
         <v>89.6</v>
       </c>
       <c r="AA118" t="n" s="10">
-        <v>88.7</v>
+        <v>88.8</v>
       </c>
       <c r="AB118" t="n" s="10">
         <v>88.1</v>
@@ -47369,7 +47369,7 @@
         <v>87.5</v>
       </c>
       <c r="AD118" t="n" s="10">
-        <v>86.9</v>
+        <v>87.0</v>
       </c>
       <c r="AE118" t="n" s="10">
         <v>86.5</v>
@@ -47381,7 +47381,7 @@
         <v>85.6</v>
       </c>
       <c r="AH118" t="n" s="10">
-        <v>84.8</v>
+        <v>84.9</v>
       </c>
       <c r="AI118" t="n" s="10">
         <v>84.1</v>
@@ -47408,7 +47408,7 @@
         <v>78.9</v>
       </c>
       <c r="AQ118" t="n" s="10">
-        <v>78.3</v>
+        <v>78.2</v>
       </c>
       <c r="AR118" t="n" s="10">
         <v>77.6</v>
@@ -47417,7 +47417,7 @@
         <v>77.0</v>
       </c>
       <c r="AT118" t="n" s="10">
-        <v>76.3</v>
+        <v>76.2</v>
       </c>
       <c r="AU118" t="n" s="10">
         <v>75.7</v>
@@ -47426,7 +47426,7 @@
         <v>75.4</v>
       </c>
       <c r="AW118" t="n" s="10">
-        <v>75.1</v>
+        <v>75.0</v>
       </c>
       <c r="AX118" t="n" s="10">
         <v>75.0</v>
@@ -47435,7 +47435,7 @@
         <v>75.1</v>
       </c>
       <c r="AZ118" t="n" s="10">
-        <v>75.3</v>
+        <v>75.2</v>
       </c>
       <c r="BA118" t="n" s="10">
         <v>75.5</v>
@@ -47447,7 +47447,7 @@
         <v>76.1</v>
       </c>
       <c r="BD118" t="n" s="10">
-        <v>76.6</v>
+        <v>76.5</v>
       </c>
       <c r="BE118" t="n" s="10">
         <v>77.0</v>
@@ -47516,7 +47516,7 @@
         <v>84.7</v>
       </c>
       <c r="CA118" t="n" s="10">
-        <v>85.3</v>
+        <v>85.4</v>
       </c>
       <c r="CB118" t="n" s="10">
         <v>86.0</v>
@@ -47525,7 +47525,7 @@
         <v>86.7</v>
       </c>
       <c r="CD118" t="n" s="10">
-        <v>87.2</v>
+        <v>87.3</v>
       </c>
       <c r="CE118" t="n" s="10">
         <v>87.7</v>
@@ -47543,7 +47543,7 @@
         <v>88.3</v>
       </c>
       <c r="CJ118" t="n" s="10">
-        <v>88.0</v>
+        <v>88.1</v>
       </c>
       <c r="CK118" t="n" s="10">
         <v>87.7</v>
@@ -47555,7 +47555,7 @@
         <v>86.7</v>
       </c>
       <c r="CN118" t="n" s="10">
-        <v>86.0</v>
+        <v>86.1</v>
       </c>
       <c r="CO118" t="n" s="10">
         <v>85.2</v>
@@ -47585,7 +47585,7 @@
         <v>82.7</v>
       </c>
       <c r="CX118" t="n" s="10">
-        <v>82.7</v>
+        <v>82.8</v>
       </c>
       <c r="CY118" t="n" s="10">
         <v>82.9</v>
@@ -47618,10 +47618,10 @@
         <v>86.6</v>
       </c>
       <c r="DI118" t="n" s="10">
-        <v>86.6</v>
+        <v>86.5</v>
       </c>
       <c r="DJ118" t="n" s="10">
-        <v>86.3</v>
+        <v>86.2</v>
       </c>
       <c r="DK118" t="n" s="10">
         <v>85.8</v>
@@ -47642,13 +47642,13 @@
         <v>85.2</v>
       </c>
       <c r="DQ118" t="n" s="10">
+        <v>85.4</v>
+      </c>
+      <c r="DR118" t="n" s="10">
         <v>85.5</v>
       </c>
-      <c r="DR118" t="n" s="10">
+      <c r="DS118" t="n" s="10">
         <v>85.6</v>
-      </c>
-      <c r="DS118" t="n" s="10">
-        <v>85.7</v>
       </c>
       <c r="DT118" t="n" s="10">
         <v>85.9</v>
@@ -47675,16 +47675,16 @@
         <v>90.7</v>
       </c>
       <c r="EB118" t="n" s="10">
-        <v>91.2</v>
+        <v>91.1</v>
       </c>
       <c r="EC118" t="n" s="10">
-        <v>91.8</v>
+        <v>91.7</v>
       </c>
       <c r="ED118" t="n" s="10">
-        <v>92.3</v>
+        <v>92.2</v>
       </c>
       <c r="EE118" t="n" s="10">
-        <v>92.7</v>
+        <v>92.6</v>
       </c>
     </row>
     <row r="119">
@@ -47719,7 +47719,7 @@
         <v>116.5</v>
       </c>
       <c r="L119" t="n" s="10">
-        <v>116.6</v>
+        <v>116.5</v>
       </c>
       <c r="M119" t="n" s="10">
         <v>116.8</v>
@@ -48108,7 +48108,7 @@
         <v>74.2</v>
       </c>
       <c r="F120" t="n" s="10">
-        <v>74.2</v>
+        <v>74.3</v>
       </c>
       <c r="G120" t="n" s="10">
         <v>74.5</v>
@@ -48120,31 +48120,31 @@
         <v>75.2</v>
       </c>
       <c r="J120" t="n" s="10">
-        <v>75.5</v>
+        <v>75.6</v>
       </c>
       <c r="K120" t="n" s="10">
         <v>76.0</v>
       </c>
       <c r="L120" t="n" s="10">
-        <v>76.5</v>
+        <v>76.6</v>
       </c>
       <c r="M120" t="n" s="10">
-        <v>77.2</v>
+        <v>77.3</v>
       </c>
       <c r="N120" t="n" s="10">
-        <v>77.9</v>
+        <v>78.0</v>
       </c>
       <c r="O120" t="n" s="10">
-        <v>78.8</v>
+        <v>78.9</v>
       </c>
       <c r="P120" t="n" s="10">
         <v>79.8</v>
       </c>
       <c r="Q120" t="n" s="10">
-        <v>80.8</v>
+        <v>80.9</v>
       </c>
       <c r="R120" t="n" s="10">
-        <v>81.6</v>
+        <v>81.7</v>
       </c>
       <c r="S120" t="n" s="10">
         <v>82.0</v>
@@ -48171,13 +48171,13 @@
         <v>80.3</v>
       </c>
       <c r="AA120" t="n" s="10">
-        <v>79.6</v>
+        <v>79.7</v>
       </c>
       <c r="AB120" t="n" s="10">
         <v>79.0</v>
       </c>
       <c r="AC120" t="n" s="10">
-        <v>78.5</v>
+        <v>78.6</v>
       </c>
       <c r="AD120" t="n" s="10">
         <v>78.4</v>
@@ -48186,13 +48186,13 @@
         <v>78.3</v>
       </c>
       <c r="AF120" t="n" s="10">
-        <v>78.1</v>
+        <v>78.2</v>
       </c>
       <c r="AG120" t="n" s="10">
         <v>77.8</v>
       </c>
       <c r="AH120" t="n" s="10">
-        <v>76.9</v>
+        <v>77.0</v>
       </c>
       <c r="AI120" t="n" s="10">
         <v>76.0</v>
@@ -48201,7 +48201,7 @@
         <v>75.1</v>
       </c>
       <c r="AK120" t="n" s="10">
-        <v>74.1</v>
+        <v>74.2</v>
       </c>
       <c r="AL120" t="n" s="10">
         <v>73.0</v>
@@ -48228,7 +48228,7 @@
         <v>66.2</v>
       </c>
       <c r="AT120" t="n" s="10">
-        <v>65.9</v>
+        <v>65.8</v>
       </c>
       <c r="AU120" t="n" s="10">
         <v>65.6</v>
@@ -48240,28 +48240,28 @@
         <v>65.0</v>
       </c>
       <c r="AX120" t="n" s="10">
-        <v>65.0</v>
+        <v>64.9</v>
       </c>
       <c r="AY120" t="n" s="10">
         <v>65.0</v>
       </c>
       <c r="AZ120" t="n" s="10">
-        <v>65.1</v>
+        <v>65.0</v>
       </c>
       <c r="BA120" t="n" s="10">
         <v>65.0</v>
       </c>
       <c r="BB120" t="n" s="10">
+        <v>65.1</v>
+      </c>
+      <c r="BC120" t="n" s="10">
         <v>65.2</v>
       </c>
-      <c r="BC120" t="n" s="10">
+      <c r="BD120" t="n" s="10">
         <v>65.3</v>
       </c>
-      <c r="BD120" t="n" s="10">
+      <c r="BE120" t="n" s="10">
         <v>65.4</v>
-      </c>
-      <c r="BE120" t="n" s="10">
-        <v>65.5</v>
       </c>
       <c r="BF120" t="n" s="10">
         <v>65.7</v>
@@ -48270,7 +48270,7 @@
         <v>66.2</v>
       </c>
       <c r="BH120" t="n" s="10">
-        <v>66.9</v>
+        <v>66.8</v>
       </c>
       <c r="BI120" t="n" s="10">
         <v>67.6</v>
@@ -48291,7 +48291,7 @@
         <v>71.7</v>
       </c>
       <c r="BO120" t="n" s="10">
-        <v>72.7</v>
+        <v>72.6</v>
       </c>
       <c r="BP120" t="n" s="10">
         <v>73.6</v>
@@ -48300,7 +48300,7 @@
         <v>74.6</v>
       </c>
       <c r="BR120" t="n" s="10">
-        <v>75.6</v>
+        <v>75.7</v>
       </c>
       <c r="BS120" t="n" s="10">
         <v>76.7</v>
@@ -48309,10 +48309,10 @@
         <v>77.6</v>
       </c>
       <c r="BU120" t="n" s="10">
-        <v>78.3</v>
+        <v>78.4</v>
       </c>
       <c r="BV120" t="n" s="10">
-        <v>78.9</v>
+        <v>79.0</v>
       </c>
       <c r="BW120" t="n" s="10">
         <v>79.3</v>
@@ -48336,7 +48336,7 @@
         <v>80.3</v>
       </c>
       <c r="CD120" t="n" s="10">
-        <v>80.2</v>
+        <v>80.3</v>
       </c>
       <c r="CE120" t="n" s="10">
         <v>80.2</v>
@@ -48357,7 +48357,7 @@
         <v>80.0</v>
       </c>
       <c r="CK120" t="n" s="10">
-        <v>80.0</v>
+        <v>80.1</v>
       </c>
       <c r="CL120" t="n" s="10">
         <v>80.0</v>
@@ -48384,7 +48384,7 @@
         <v>77.9</v>
       </c>
       <c r="CT120" t="n" s="10">
-        <v>77.6</v>
+        <v>77.7</v>
       </c>
       <c r="CU120" t="n" s="10">
         <v>77.5</v>
@@ -48396,7 +48396,7 @@
         <v>77.2</v>
       </c>
       <c r="CX120" t="n" s="10">
-        <v>77.1</v>
+        <v>77.2</v>
       </c>
       <c r="CY120" t="n" s="10">
         <v>77.1</v>
@@ -48414,10 +48414,10 @@
         <v>78.0</v>
       </c>
       <c r="DD120" t="n" s="10">
-        <v>78.6</v>
+        <v>78.5</v>
       </c>
       <c r="DE120" t="n" s="10">
-        <v>79.3</v>
+        <v>79.2</v>
       </c>
       <c r="DF120" t="n" s="10">
         <v>80.1</v>
@@ -48438,16 +48438,16 @@
         <v>82.1</v>
       </c>
       <c r="DL120" t="n" s="10">
-        <v>82.5</v>
+        <v>82.4</v>
       </c>
       <c r="DM120" t="n" s="10">
-        <v>83.1</v>
+        <v>83.0</v>
       </c>
       <c r="DN120" t="n" s="10">
         <v>83.7</v>
       </c>
       <c r="DO120" t="n" s="10">
-        <v>84.5</v>
+        <v>84.4</v>
       </c>
       <c r="DP120" t="n" s="10">
         <v>85.5</v>
@@ -48456,19 +48456,19 @@
         <v>86.5</v>
       </c>
       <c r="DR120" t="n" s="10">
-        <v>87.3</v>
+        <v>87.2</v>
       </c>
       <c r="DS120" t="n" s="10">
         <v>87.9</v>
       </c>
       <c r="DT120" t="n" s="10">
-        <v>88.9</v>
+        <v>88.8</v>
       </c>
       <c r="DU120" t="n" s="10">
         <v>90.0</v>
       </c>
       <c r="DV120" t="n" s="10">
-        <v>91.0</v>
+        <v>90.9</v>
       </c>
       <c r="DW120" t="n" s="10">
         <v>91.5</v>
@@ -48483,7 +48483,7 @@
         <v>92.8</v>
       </c>
       <c r="EA120" t="n" s="10">
-        <v>93.1</v>
+        <v>93.0</v>
       </c>
       <c r="EB120" t="n" s="10">
         <v>93.1</v>
@@ -48495,7 +48495,7 @@
         <v>93.1</v>
       </c>
       <c r="EE120" t="n" s="10">
-        <v>93.0</v>
+        <v>92.9</v>
       </c>
     </row>
     <row r="121">
@@ -48916,7 +48916,7 @@
         <v>115.4</v>
       </c>
       <c r="E122" t="n" s="10">
-        <v>115.3</v>
+        <v>115.2</v>
       </c>
       <c r="F122" t="n" s="10">
         <v>115.0</v>
@@ -48943,43 +48943,43 @@
         <v>112.1</v>
       </c>
       <c r="N122" t="n" s="10">
-        <v>111.8</v>
+        <v>111.7</v>
       </c>
       <c r="O122" t="n" s="10">
-        <v>111.4</v>
+        <v>111.3</v>
       </c>
       <c r="P122" t="n" s="10">
-        <v>110.7</v>
+        <v>110.6</v>
       </c>
       <c r="Q122" t="n" s="10">
-        <v>110.1</v>
+        <v>110.0</v>
       </c>
       <c r="R122" t="n" s="10">
         <v>109.6</v>
       </c>
       <c r="S122" t="n" s="10">
-        <v>109.3</v>
+        <v>109.2</v>
       </c>
       <c r="T122" t="n" s="10">
         <v>108.4</v>
       </c>
       <c r="U122" t="n" s="10">
-        <v>107.6</v>
+        <v>107.5</v>
       </c>
       <c r="V122" t="n" s="10">
         <v>106.7</v>
       </c>
       <c r="W122" t="n" s="10">
-        <v>105.7</v>
+        <v>105.6</v>
       </c>
       <c r="X122" t="n" s="10">
-        <v>104.6</v>
+        <v>104.5</v>
       </c>
       <c r="Y122" t="n" s="10">
-        <v>103.4</v>
+        <v>103.3</v>
       </c>
       <c r="Z122" t="n" s="10">
-        <v>101.9</v>
+        <v>101.8</v>
       </c>
       <c r="AA122" t="n" s="10">
         <v>100.7</v>
@@ -48997,7 +48997,7 @@
         <v>97.1</v>
       </c>
       <c r="AF122" t="n" s="10">
-        <v>96.4</v>
+        <v>96.3</v>
       </c>
       <c r="AG122" t="n" s="10">
         <v>95.7</v>
@@ -49030,7 +49030,7 @@
         <v>92.8</v>
       </c>
       <c r="AQ122" t="n" s="10">
-        <v>92.5</v>
+        <v>92.6</v>
       </c>
       <c r="AR122" t="n" s="10">
         <v>92.0</v>
@@ -49045,43 +49045,43 @@
         <v>89.9</v>
       </c>
       <c r="AV122" t="n" s="10">
-        <v>89.4</v>
+        <v>89.5</v>
       </c>
       <c r="AW122" t="n" s="10">
-        <v>88.9</v>
+        <v>89.0</v>
       </c>
       <c r="AX122" t="n" s="10">
+        <v>88.6</v>
+      </c>
+      <c r="AY122" t="n" s="10">
+        <v>88.2</v>
+      </c>
+      <c r="AZ122" t="n" s="10">
+        <v>87.9</v>
+      </c>
+      <c r="BA122" t="n" s="10">
+        <v>87.8</v>
+      </c>
+      <c r="BB122" t="n" s="10">
+        <v>87.7</v>
+      </c>
+      <c r="BC122" t="n" s="10">
+        <v>87.7</v>
+      </c>
+      <c r="BD122" t="n" s="10">
+        <v>88.1</v>
+      </c>
+      <c r="BE122" t="n" s="10">
         <v>88.5</v>
       </c>
-      <c r="AY122" t="n" s="10">
-        <v>88.1</v>
-      </c>
-      <c r="AZ122" t="n" s="10">
-        <v>87.8</v>
-      </c>
-      <c r="BA122" t="n" s="10">
-        <v>87.7</v>
-      </c>
-      <c r="BB122" t="n" s="10">
-        <v>87.6</v>
-      </c>
-      <c r="BC122" t="n" s="10">
-        <v>87.6</v>
-      </c>
-      <c r="BD122" t="n" s="10">
-        <v>88.0</v>
-      </c>
-      <c r="BE122" t="n" s="10">
-        <v>88.4</v>
-      </c>
       <c r="BF122" t="n" s="10">
-        <v>88.7</v>
+        <v>88.8</v>
       </c>
       <c r="BG122" t="n" s="10">
-        <v>88.9</v>
+        <v>89.0</v>
       </c>
       <c r="BH122" t="n" s="10">
-        <v>89.1</v>
+        <v>89.2</v>
       </c>
       <c r="BI122" t="n" s="10">
         <v>89.3</v>
@@ -49096,7 +49096,7 @@
         <v>88.4</v>
       </c>
       <c r="BM122" t="n" s="10">
-        <v>87.7</v>
+        <v>87.8</v>
       </c>
       <c r="BN122" t="n" s="10">
         <v>87.0</v>
@@ -49126,16 +49126,16 @@
         <v>86.7</v>
       </c>
       <c r="BW122" t="n" s="10">
-        <v>87.4</v>
+        <v>87.3</v>
       </c>
       <c r="BX122" t="n" s="10">
         <v>88.0</v>
       </c>
       <c r="BY122" t="n" s="10">
-        <v>88.6</v>
+        <v>88.5</v>
       </c>
       <c r="BZ122" t="n" s="10">
-        <v>89.2</v>
+        <v>89.1</v>
       </c>
       <c r="CA122" t="n" s="10">
         <v>89.8</v>
@@ -49144,28 +49144,28 @@
         <v>90.4</v>
       </c>
       <c r="CC122" t="n" s="10">
-        <v>91.1</v>
+        <v>91.0</v>
       </c>
       <c r="CD122" t="n" s="10">
-        <v>91.8</v>
+        <v>91.7</v>
       </c>
       <c r="CE122" t="n" s="10">
-        <v>92.5</v>
+        <v>92.4</v>
       </c>
       <c r="CF122" t="n" s="10">
-        <v>93.1</v>
+        <v>93.0</v>
       </c>
       <c r="CG122" t="n" s="10">
-        <v>93.7</v>
+        <v>93.6</v>
       </c>
       <c r="CH122" t="n" s="10">
+        <v>94.0</v>
+      </c>
+      <c r="CI122" t="n" s="10">
+        <v>94.2</v>
+      </c>
+      <c r="CJ122" t="n" s="10">
         <v>94.1</v>
-      </c>
-      <c r="CI122" t="n" s="10">
-        <v>94.3</v>
-      </c>
-      <c r="CJ122" t="n" s="10">
-        <v>94.2</v>
       </c>
       <c r="CK122" t="n" s="10">
         <v>93.9</v>
@@ -49195,25 +49195,25 @@
         <v>89.8</v>
       </c>
       <c r="CT122" t="n" s="10">
-        <v>89.8</v>
+        <v>89.7</v>
       </c>
       <c r="CU122" t="n" s="10">
         <v>89.9</v>
       </c>
       <c r="CV122" t="n" s="10">
+        <v>89.9</v>
+      </c>
+      <c r="CW122" t="n" s="10">
+        <v>89.9</v>
+      </c>
+      <c r="CX122" t="n" s="10">
         <v>90.0</v>
       </c>
-      <c r="CW122" t="n" s="10">
-        <v>90.0</v>
-      </c>
-      <c r="CX122" t="n" s="10">
-        <v>90.1</v>
-      </c>
       <c r="CY122" t="n" s="10">
-        <v>90.5</v>
+        <v>90.4</v>
       </c>
       <c r="CZ122" t="n" s="10">
-        <v>91.3</v>
+        <v>91.2</v>
       </c>
       <c r="DA122" t="n" s="10">
         <v>92.4</v>
@@ -49228,7 +49228,7 @@
         <v>94.1</v>
       </c>
       <c r="DE122" t="n" s="10">
-        <v>94.0</v>
+        <v>94.1</v>
       </c>
       <c r="DF122" t="n" s="10">
         <v>93.9</v>
@@ -49249,7 +49249,7 @@
         <v>90.6</v>
       </c>
       <c r="DL122" t="n" s="10">
-        <v>89.1</v>
+        <v>89.2</v>
       </c>
       <c r="DM122" t="n" s="10">
         <v>87.6</v>
@@ -49258,28 +49258,28 @@
         <v>86.2</v>
       </c>
       <c r="DO122" t="n" s="10">
-        <v>85.4</v>
+        <v>85.5</v>
       </c>
       <c r="DP122" t="n" s="10">
-        <v>84.9</v>
+        <v>85.0</v>
       </c>
       <c r="DQ122" t="n" s="10">
-        <v>84.2</v>
+        <v>84.3</v>
       </c>
       <c r="DR122" t="n" s="10">
-        <v>83.5</v>
+        <v>83.6</v>
       </c>
       <c r="DS122" t="n" s="10">
-        <v>82.8</v>
+        <v>82.9</v>
       </c>
       <c r="DT122" t="n" s="10">
         <v>82.3</v>
       </c>
       <c r="DU122" t="n" s="10">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="DV122" t="n" s="10">
-        <v>82.4</v>
+        <v>82.5</v>
       </c>
       <c r="DW122" t="n" s="10">
         <v>83.3</v>
@@ -49288,25 +49288,25 @@
         <v>84.4</v>
       </c>
       <c r="DY122" t="n" s="10">
-        <v>85.5</v>
+        <v>85.6</v>
       </c>
       <c r="DZ122" t="n" s="10">
         <v>86.7</v>
       </c>
       <c r="EA122" t="n" s="10">
-        <v>87.6</v>
+        <v>87.7</v>
       </c>
       <c r="EB122" t="n" s="10">
-        <v>88.6</v>
+        <v>88.7</v>
       </c>
       <c r="EC122" t="n" s="10">
-        <v>90.0</v>
+        <v>90.1</v>
       </c>
       <c r="ED122" t="n" s="10">
-        <v>91.4</v>
+        <v>91.5</v>
       </c>
       <c r="EE122" t="n" s="10">
-        <v>92.4</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="123">
@@ -49762,7 +49762,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 28.12.21 / 10:59:38&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:36:21&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>